--- a/calls_output.xlsx
+++ b/calls_output.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SPY 2023-06-28" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SPY 2023-06-29" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T45"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,7 +536,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SPY230628C00380000</t>
+          <t>SPY230629C00380000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -548,25 +548,25 @@
         <v>380</v>
       </c>
       <c r="E2" t="n">
-        <v>53.81</v>
+        <v>55.9</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>55.29</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>55.54</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.3199997</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.329973</v>
       </c>
       <c r="J2" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L2" t="n">
         <v>1e-05</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.021</v>
+        <v>0.01</v>
       </c>
       <c r="T2" t="n">
         <v>-0.055</v>
@@ -606,7 +606,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SPY230628C00390000</t>
+          <t>SPY230629C00390000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -618,25 +618,25 @@
         <v>390</v>
       </c>
       <c r="E3" t="n">
-        <v>43.49</v>
+        <v>44.91</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>45.3</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>45.55</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-1.7999992</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-3.853563</v>
       </c>
       <c r="J3" t="n">
-        <v>553</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
         <v>1e-05</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.021</v>
+        <v>0.011</v>
       </c>
       <c r="T3" t="n">
         <v>-0.056</v>
@@ -676,7 +676,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SPY230628C00400000</t>
+          <t>SPY230629C00400000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -688,25 +688,25 @@
         <v>400</v>
       </c>
       <c r="E4" t="n">
-        <v>37.8</v>
+        <v>35.67</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>35.26</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>35.55</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>3.709999</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>11.608258</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
         <v>1e-05</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.022</v>
+        <v>0.011</v>
       </c>
       <c r="T4" t="n">
         <v>-0.058</v>
@@ -746,7 +746,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SPY230628C00408000</t>
+          <t>SPY230629C00410000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -755,27 +755,29 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E5" t="n">
-        <v>26.61</v>
+        <v>25.59</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>25.3</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>25.55</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2.8099995</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>12.335379</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="K5" t="n">
+        <v>17</v>
+      </c>
       <c r="L5" t="n">
         <v>1e-05</v>
       </c>
@@ -802,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.022</v>
+        <v>0.011</v>
       </c>
       <c r="T5" t="n">
         <v>-0.059</v>
@@ -814,7 +816,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SPY230628C00410000</t>
+          <t>SPY230629C00420000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -823,28 +825,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="E6" t="n">
-        <v>24.2</v>
+        <v>15.85</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>15.39</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>15.65</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-0.6900005299999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-4.171708</v>
       </c>
       <c r="J6" t="n">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="L6" t="n">
         <v>1e-05</v>
@@ -872,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.022</v>
+        <v>0.012</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.059</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +886,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SPY230628C00414000</t>
+          <t>SPY230629C00424000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -893,27 +895,29 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="E7" t="n">
-        <v>19.3</v>
+        <v>11.75</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>11.34</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>11.56</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-1.0299997</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>-8.059464999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>155</v>
+      </c>
+      <c r="K7" t="n">
+        <v>49</v>
+      </c>
       <c r="L7" t="n">
         <v>1e-05</v>
       </c>
@@ -940,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.023</v>
+        <v>0.012</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.06</v>
+        <v>-0.061</v>
       </c>
     </row>
     <row r="8">
@@ -952,7 +956,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SPY230628C00418000</t>
+          <t>SPY230629C00426000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -961,27 +965,29 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E8" t="n">
-        <v>15.56</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>9.42</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>9.65</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>-7.2886295</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="K8" t="n">
+        <v>20</v>
+      </c>
       <c r="L8" t="n">
         <v>1e-05</v>
       </c>
@@ -1008,10 +1014,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.023</v>
+        <v>0.012</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.06</v>
+        <v>-0.061</v>
       </c>
     </row>
     <row r="9">
@@ -1020,7 +1026,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SPY230628C00420000</t>
+          <t>SPY230629C00428000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1029,28 +1035,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="E9" t="n">
-        <v>13.3</v>
+        <v>7.61</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>7.35</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>7.57</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>-1.3200002</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>-14.781636</v>
       </c>
       <c r="J9" t="n">
-        <v>1215</v>
+        <v>68</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="L9" t="n">
         <v>1e-05</v>
@@ -1078,10 +1084,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.023</v>
+        <v>0.012</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.06</v>
+        <v>-0.062</v>
       </c>
     </row>
     <row r="10">
@@ -1090,7 +1096,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SPY230628C00422000</t>
+          <t>SPY230629C00429000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1099,27 +1105,29 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="E10" t="n">
-        <v>12.67</v>
+        <v>6.48</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>6.37</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6.61</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-10.373444</v>
       </c>
       <c r="J10" t="n">
-        <v>70</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+        <v>82</v>
+      </c>
+      <c r="K10" t="n">
+        <v>122</v>
+      </c>
       <c r="L10" t="n">
         <v>1e-05</v>
       </c>
@@ -1146,10 +1154,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.023</v>
+        <v>0.012</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.061</v>
+        <v>-0.062</v>
       </c>
     </row>
     <row r="11">
@@ -1158,7 +1166,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SPY230628C00424000</t>
+          <t>SPY230629C00430000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1167,27 +1175,29 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="E11" t="n">
-        <v>9.34</v>
+        <v>5.59</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.39</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-0.7100000400000001</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-11.269841</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+        <v>434</v>
+      </c>
+      <c r="K11" t="n">
+        <v>894</v>
+      </c>
       <c r="L11" t="n">
         <v>1e-05</v>
       </c>
@@ -1214,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.023</v>
+        <v>0.012</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.061</v>
+        <v>-0.062</v>
       </c>
     </row>
     <row r="12">
@@ -1226,7 +1236,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SPY230628C00426000</t>
+          <t>SPY230629C00431000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1235,28 +1245,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="E12" t="n">
-        <v>7.62</v>
+        <v>4.54</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>4.36</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>4.59</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>-1.5100002</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-24.958681</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>1102</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>2429</v>
       </c>
       <c r="L12" t="n">
         <v>1e-05</v>
@@ -1284,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.023</v>
+        <v>0.012</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.061</v>
+        <v>-0.062</v>
       </c>
     </row>
     <row r="13">
@@ -1296,7 +1306,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SPY230628C00427000</t>
+          <t>SPY230629C00432000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1305,28 +1315,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="E13" t="n">
-        <v>7.19</v>
+        <v>3.65</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-0.7999997</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-17.977522</v>
       </c>
       <c r="J13" t="n">
-        <v>71</v>
+        <v>1185</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2962</v>
       </c>
       <c r="L13" t="n">
         <v>1e-05</v>
@@ -1354,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.023</v>
+        <v>0.012</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.061</v>
+        <v>-0.062</v>
       </c>
     </row>
     <row r="14">
@@ -1366,7 +1376,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SPY230628C00428000</t>
+          <t>SPY230629C00433000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1375,28 +1385,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="E14" t="n">
-        <v>6.11</v>
+        <v>2.78</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-0.77</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-21.690142</v>
       </c>
       <c r="J14" t="n">
-        <v>104</v>
+        <v>5659</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>3625</v>
       </c>
       <c r="L14" t="n">
         <v>1e-05</v>
@@ -1424,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.023</v>
+        <v>0.012</v>
       </c>
       <c r="T14" t="n">
         <v>-0.062</v>
@@ -1436,7 +1446,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SPY230628C00429000</t>
+          <t>SPY230629C00434000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1445,31 +1455,31 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="E15" t="n">
-        <v>4.95</v>
+        <v>2.03</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-0.77</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>-27.5</v>
       </c>
       <c r="J15" t="n">
-        <v>106</v>
+        <v>24408</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>4854</v>
       </c>
       <c r="L15" t="n">
-        <v>1e-05</v>
+        <v>0.06714800048828126</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
@@ -1485,19 +1495,19 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0.878</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>0.132</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="S15" t="n">
-        <v>0.024</v>
+        <v>0.01</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.062</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="16">
@@ -1506,7 +1516,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SPY230628C00430000</t>
+          <t>SPY230629C00435000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1515,31 +1525,31 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="E16" t="n">
-        <v>4.06</v>
+        <v>1.42</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-0.7200001499999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-33.644863</v>
       </c>
       <c r="J16" t="n">
-        <v>163</v>
+        <v>101637</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>7759</v>
       </c>
       <c r="L16" t="n">
-        <v>1e-05</v>
+        <v>0.07715766601562501</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
@@ -1555,19 +1565,19 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0.672</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.205</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.082</v>
       </c>
       <c r="S16" t="n">
-        <v>0.024</v>
+        <v>0.008</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.062</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="17">
@@ -1576,7 +1586,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SPY230628C00431000</t>
+          <t>SPY230629C00436000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1585,34 +1595,34 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="E17" t="n">
-        <v>3.35</v>
+        <v>0.91</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-0.6499999</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-41.666664</v>
       </c>
       <c r="J17" t="n">
-        <v>326</v>
+        <v>199597</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>7028</v>
       </c>
       <c r="L17" t="n">
-        <v>1e-05</v>
+        <v>0.07996525512695313</v>
       </c>
       <c r="M17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1625,19 +1635,19 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0.452</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.217</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="S17" t="n">
-        <v>0.024</v>
+        <v>0.005</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.062</v>
+        <v>-0.389</v>
       </c>
     </row>
     <row r="18">
@@ -1646,7 +1656,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SPY230628C00432000</t>
+          <t>SPY230629C00437000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1655,34 +1665,34 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="E18" t="n">
-        <v>2.64</v>
+        <v>0.54</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>-0.57</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>-51.35135</v>
       </c>
       <c r="J18" t="n">
-        <v>4525</v>
+        <v>134524</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>4017</v>
       </c>
       <c r="L18" t="n">
-        <v>1e-05</v>
+        <v>0.081063876953125</v>
       </c>
       <c r="M18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -1695,19 +1705,19 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0.255</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.174</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.073</v>
       </c>
       <c r="S18" t="n">
-        <v>0.024</v>
+        <v>0.003</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.062</v>
+        <v>-0.313</v>
       </c>
     </row>
     <row r="19">
@@ -1716,7 +1726,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SPY230628C00433000</t>
+          <t>SPY230629C00438000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1725,34 +1735,34 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="E19" t="n">
-        <v>2.04</v>
+        <v>0.29</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-0.45000002</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-60.81081</v>
       </c>
       <c r="J19" t="n">
-        <v>8980</v>
+        <v>63264</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>4199</v>
       </c>
       <c r="L19" t="n">
-        <v>1e-05</v>
+        <v>0.08326112060546878</v>
       </c>
       <c r="M19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1765,19 +1775,19 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0.122</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="S19" t="n">
-        <v>0.024</v>
+        <v>0.001</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.062</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="20">
@@ -1786,7 +1796,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SPY230628C00434000</t>
+          <t>SPY230629C00439000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1795,31 +1805,31 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="E20" t="n">
-        <v>1.53</v>
+        <v>0.16</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-0.34</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-68</v>
       </c>
       <c r="J20" t="n">
-        <v>13902</v>
+        <v>51433</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>2929</v>
       </c>
       <c r="L20" t="n">
-        <v>0.007822421875000001</v>
+        <v>0.08374939697265626</v>
       </c>
       <c r="M20" t="b">
         <v>0</v>
@@ -1835,19 +1845,19 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.004</v>
+        <v>0.047</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.048</v>
+        <v>0.051</v>
       </c>
       <c r="R20" t="n">
-        <v>0.004</v>
+        <v>0.022</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.001</v>
+        <v>-0.096</v>
       </c>
     </row>
     <row r="21">
@@ -1856,7 +1866,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SPY230628C00435000</t>
+          <t>SPY230629C00440000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1865,31 +1875,31 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>1.11</v>
+        <v>0.08</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>-0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>-74.19355</v>
       </c>
       <c r="J21" t="n">
-        <v>18622</v>
+        <v>75854</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>8585</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01563484375</v>
+        <v>0.08692319335937501</v>
       </c>
       <c r="M21" t="b">
         <v>0</v>
@@ -1905,19 +1915,19 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.003</v>
+        <v>0.021</v>
       </c>
       <c r="R21" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>-0</v>
+        <v>-0.043</v>
       </c>
     </row>
     <row r="22">
@@ -1926,7 +1936,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SPY230628C00436000</t>
+          <t>SPY230629C00441000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1935,31 +1945,31 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-0.13000001</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-72.22223</v>
       </c>
       <c r="J22" t="n">
-        <v>8612</v>
+        <v>23319</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>2061</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01563484375</v>
+        <v>0.09327078613281251</v>
       </c>
       <c r="M22" t="b">
         <v>0</v>
@@ -1975,19 +1985,19 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>-0</v>
+        <v>-0.022</v>
       </c>
     </row>
     <row r="23">
@@ -1996,7 +2006,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SPY230628C00437000</t>
+          <t>SPY230629C00442000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2005,31 +2015,31 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="E23" t="n">
-        <v>0.55</v>
+        <v>0.02</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-0.09</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>-81.818184</v>
       </c>
       <c r="J23" t="n">
-        <v>6878</v>
+        <v>9819</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>3510</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0312596875</v>
+        <v>0.098641826171875</v>
       </c>
       <c r="M23" t="b">
         <v>0</v>
@@ -2045,19 +2055,19 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-0</v>
+        <v>-0.011</v>
       </c>
     </row>
     <row r="24">
@@ -2066,7 +2076,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SPY230628C00438000</t>
+          <t>SPY230629C00443000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2075,31 +2085,31 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="E24" t="n">
-        <v>0.36</v>
+        <v>0.02</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>-66.66667</v>
       </c>
       <c r="J24" t="n">
-        <v>5122</v>
+        <v>3613</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>3059</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0312596875</v>
+        <v>0.104501142578125</v>
       </c>
       <c r="M24" t="b">
         <v>0</v>
@@ -2115,19 +2125,19 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>-0</v>
+        <v>-0.005</v>
       </c>
     </row>
     <row r="25">
@@ -2136,7 +2146,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SPY230628C00439000</t>
+          <t>SPY230629C00444000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2145,31 +2155,31 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="E25" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="J25" t="n">
-        <v>4768</v>
+        <v>4028</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>2043</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0312596875</v>
+        <v>0.117196328125</v>
       </c>
       <c r="M25" t="b">
         <v>0</v>
@@ -2185,19 +2195,19 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>-0</v>
+        <v>-0.005</v>
       </c>
     </row>
     <row r="26">
@@ -2206,7 +2216,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SPY230628C00440000</t>
+          <t>SPY230629C00445000</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2215,31 +2225,31 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E26" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-33.333336</v>
       </c>
       <c r="J26" t="n">
-        <v>7706</v>
+        <v>1490</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>2163</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0312596875</v>
+        <v>0.1289149609375</v>
       </c>
       <c r="M26" t="b">
         <v>0</v>
@@ -2255,19 +2265,19 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-0</v>
+        <v>-0.005</v>
       </c>
     </row>
     <row r="27">
@@ -2276,7 +2286,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SPY230628C00441000</t>
+          <t>SPY230629C00446000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2285,31 +2295,31 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="E27" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="J27" t="n">
-        <v>2574</v>
+        <v>543</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1145</v>
       </c>
       <c r="L27" t="n">
-        <v>0.06250937500000001</v>
+        <v>0.1289149609375</v>
       </c>
       <c r="M27" t="b">
         <v>0</v>
@@ -2337,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>-0</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="28">
@@ -2346,7 +2356,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SPY230628C00442000</t>
+          <t>SPY230629C00447000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2355,16 +2365,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2373,13 +2383,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1305</v>
+        <v>3514</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>2761</v>
       </c>
       <c r="L28" t="n">
-        <v>0.06250937500000001</v>
+        <v>0.14063359375</v>
       </c>
       <c r="M28" t="b">
         <v>0</v>
@@ -2407,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-0</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="29">
@@ -2416,7 +2426,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SPY230628C00443000</t>
+          <t>SPY230629C00448000</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2425,16 +2435,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="E29" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2443,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>964</v>
+        <v>1467</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1308</v>
       </c>
       <c r="L29" t="n">
-        <v>0.06250937500000001</v>
+        <v>0.15039912109375</v>
       </c>
       <c r="M29" t="b">
         <v>0</v>
@@ -2477,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-0</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="30">
@@ -2486,7 +2496,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SPY230628C00444000</t>
+          <t>SPY230629C00450000</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2495,16 +2505,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="E30" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2513,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>457</v>
+        <v>68</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>2122</v>
       </c>
       <c r="L30" t="n">
-        <v>0.06250937500000001</v>
+        <v>0.17188328125</v>
       </c>
       <c r="M30" t="b">
         <v>0</v>
@@ -2547,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>-0</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="31">
@@ -2556,7 +2566,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SPY230628C00445000</t>
+          <t>SPY230629C00452000</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2565,16 +2575,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="E31" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2583,13 +2593,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1180</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L31" t="n">
-        <v>0.06250937500000001</v>
+        <v>0.1914143359375</v>
       </c>
       <c r="M31" t="b">
         <v>0</v>
@@ -2617,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>-0</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="32">
@@ -2626,7 +2636,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SPY230628C00446000</t>
+          <t>SPY230629C00454000</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2635,16 +2645,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2653,13 +2663,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>2021</v>
       </c>
       <c r="L32" t="n">
-        <v>0.06250937500000001</v>
+        <v>0.210945390625</v>
       </c>
       <c r="M32" t="b">
         <v>0</v>
@@ -2687,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-0</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="33">
@@ -2696,7 +2706,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SPY230628C00448000</t>
+          <t>SPY230629C00456000</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2705,7 +2715,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="E33" t="n">
         <v>0.01</v>
@@ -2714,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2723,13 +2733,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1044</v>
+        <v>5</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="L33" t="n">
-        <v>0.06250937500000001</v>
+        <v>0.23438265625</v>
       </c>
       <c r="M33" t="b">
         <v>0</v>
@@ -2757,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>-0</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="34">
@@ -2766,7 +2776,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SPY230628C00450000</t>
+          <t>SPY230629C00458000</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2775,7 +2785,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="E34" t="n">
         <v>0.01</v>
@@ -2784,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2793,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>395</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L34" t="n">
-        <v>0.12500875</v>
+        <v>0.2539137109375</v>
       </c>
       <c r="M34" t="b">
         <v>0</v>
@@ -2827,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-0</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="35">
@@ -2836,7 +2846,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SPY230628C00452000</t>
+          <t>SPY230629C00460000</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2845,7 +2855,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="E35" t="n">
         <v>0.01</v>
@@ -2854,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2863,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>825</v>
+        <v>100</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1527</v>
       </c>
       <c r="L35" t="n">
-        <v>0.12500875</v>
+        <v>0.273444765625</v>
       </c>
       <c r="M35" t="b">
         <v>0</v>
@@ -2897,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-0</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="36">
@@ -2906,7 +2916,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SPY230628C00454000</t>
+          <t>SPY230629C00470000</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2915,7 +2925,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="E36" t="n">
         <v>0.01</v>
@@ -2924,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2933,13 +2943,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="L36" t="n">
-        <v>0.12500875</v>
+        <v>0.367193828125</v>
       </c>
       <c r="M36" t="b">
         <v>0</v>
@@ -2967,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>-0</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="37">
@@ -2976,7 +2986,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SPY230628C00456000</t>
+          <t>SPY230629C00480000</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2985,7 +2995,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="E37" t="n">
         <v>0.01</v>
@@ -2994,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3003,13 +3013,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="L37" t="n">
-        <v>0.12500875</v>
+        <v>0.460942890625</v>
       </c>
       <c r="M37" t="b">
         <v>0</v>
@@ -3037,567 +3047,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>SPY230628C00458000</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>458</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>2</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.12500875</v>
-      </c>
-      <c r="M38" t="b">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>SPY230628C00460000</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>460</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>215</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.12500875</v>
-      </c>
-      <c r="M39" t="b">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>SPY230628C00462000</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>462</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.12500875</v>
-      </c>
-      <c r="M40" t="b">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>SPY230628C00464000</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>464</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>75</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.12500875</v>
-      </c>
-      <c r="M41" t="b">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>SPY230628C00466000</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>466</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.12500875</v>
-      </c>
-      <c r="M42" t="b">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>SPY230628C00468000</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>468</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>27</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.2500075</v>
-      </c>
-      <c r="M43" t="b">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>SPY230628C00470000</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>470</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>23</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.2500075</v>
-      </c>
-      <c r="M44" t="b">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>SPY230628C00480000</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>480</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.2500075</v>
-      </c>
-      <c r="M45" t="b">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>-0</v>
+        <v>-0.001</v>
       </c>
     </row>
   </sheetData>

--- a/calls_output.xlsx
+++ b/calls_output.xlsx
@@ -551,10 +551,10 @@
         <v>55.9</v>
       </c>
       <c r="F2" t="n">
-        <v>55.29</v>
+        <v>56.33</v>
       </c>
       <c r="G2" t="n">
-        <v>55.54</v>
+        <v>57.36</v>
       </c>
       <c r="H2" t="n">
         <v>2.3199997</v>
@@ -569,7 +569,7 @@
         <v>16</v>
       </c>
       <c r="L2" t="n">
-        <v>1e-05</v>
+        <v>1.041996977539063</v>
       </c>
       <c r="M2" t="b">
         <v>1</v>
@@ -585,19 +585,19 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="S2" t="n">
         <v>0.01</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.055</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="3">
@@ -621,16 +621,16 @@
         <v>44.91</v>
       </c>
       <c r="F3" t="n">
-        <v>45.3</v>
+        <v>46.45</v>
       </c>
       <c r="G3" t="n">
-        <v>45.55</v>
+        <v>47.28</v>
       </c>
       <c r="H3" t="n">
         <v>-1.7999992</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.853563</v>
+        <v>-3.8535628</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -639,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>1e-05</v>
+        <v>0.88476677734375</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -655,19 +655,19 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="S3" t="n">
         <v>0.011</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.056</v>
+        <v>-0.255</v>
       </c>
     </row>
     <row r="4">
@@ -688,28 +688,28 @@
         <v>400</v>
       </c>
       <c r="E4" t="n">
-        <v>35.67</v>
+        <v>36</v>
       </c>
       <c r="F4" t="n">
-        <v>35.26</v>
+        <v>36.5</v>
       </c>
       <c r="G4" t="n">
-        <v>35.55</v>
+        <v>37.32</v>
       </c>
       <c r="H4" t="n">
-        <v>3.709999</v>
+        <v>4.040001</v>
       </c>
       <c r="I4" t="n">
-        <v>11.608258</v>
+        <v>12.640804</v>
       </c>
       <c r="J4" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>1e-05</v>
+        <v>0.7324245507812499</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
@@ -725,19 +725,19 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="S4" t="n">
         <v>0.011</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.058</v>
+        <v>-0.297</v>
       </c>
     </row>
     <row r="5">
@@ -761,16 +761,16 @@
         <v>25.59</v>
       </c>
       <c r="F5" t="n">
-        <v>25.3</v>
+        <v>26.46</v>
       </c>
       <c r="G5" t="n">
-        <v>25.55</v>
+        <v>27.29</v>
       </c>
       <c r="H5" t="n">
         <v>2.8099995</v>
       </c>
       <c r="I5" t="n">
-        <v>12.335379</v>
+        <v>12.33538</v>
       </c>
       <c r="J5" t="n">
         <v>12</v>
@@ -779,7 +779,7 @@
         <v>17</v>
       </c>
       <c r="L5" t="n">
-        <v>1e-05</v>
+        <v>0.5542036767578126</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
@@ -795,19 +795,19 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0.985</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="S5" t="n">
         <v>0.011</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.059</v>
+        <v>-0.298</v>
       </c>
     </row>
     <row r="6">
@@ -831,16 +831,16 @@
         <v>15.85</v>
       </c>
       <c r="F6" t="n">
-        <v>15.39</v>
+        <v>16.51</v>
       </c>
       <c r="G6" t="n">
-        <v>15.65</v>
+        <v>17.34</v>
       </c>
       <c r="H6" t="n">
         <v>-0.6900005299999999</v>
       </c>
       <c r="I6" t="n">
-        <v>-4.171708</v>
+        <v>-4.1717076</v>
       </c>
       <c r="J6" t="n">
         <v>155</v>
@@ -849,7 +849,7 @@
         <v>66</v>
       </c>
       <c r="L6" t="n">
-        <v>1e-05</v>
+        <v>0.4594780615234375</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
@@ -865,19 +865,19 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0.946</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="S6" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.06</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="7">
@@ -898,28 +898,28 @@
         <v>424</v>
       </c>
       <c r="E7" t="n">
-        <v>11.75</v>
+        <v>11.64</v>
       </c>
       <c r="F7" t="n">
-        <v>11.34</v>
+        <v>12.63</v>
       </c>
       <c r="G7" t="n">
-        <v>11.56</v>
+        <v>13.23</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.0299997</v>
+        <v>-1.1399994</v>
       </c>
       <c r="I7" t="n">
-        <v>-8.059464999999999</v>
+        <v>-8.920183</v>
       </c>
       <c r="J7" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K7" t="n">
         <v>49</v>
       </c>
       <c r="L7" t="n">
-        <v>1e-05</v>
+        <v>0.3632876171875</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
@@ -935,19 +935,19 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="S7" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.061</v>
+        <v>-0.569</v>
       </c>
     </row>
     <row r="8">
@@ -968,28 +968,28 @@
         <v>426</v>
       </c>
       <c r="E8" t="n">
-        <v>9.539999999999999</v>
+        <v>10.88</v>
       </c>
       <c r="F8" t="n">
-        <v>9.42</v>
+        <v>10.64</v>
       </c>
       <c r="G8" t="n">
-        <v>9.65</v>
+        <v>11.24</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.75</v>
+        <v>0.5900001499999999</v>
       </c>
       <c r="I8" t="n">
-        <v>-7.2886295</v>
+        <v>5.7337236</v>
       </c>
       <c r="J8" t="n">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="K8" t="n">
         <v>20</v>
       </c>
       <c r="L8" t="n">
-        <v>1e-05</v>
+        <v>0.3234930932617187</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
@@ -1005,19 +1005,19 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="S8" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.061</v>
+        <v>-0.579</v>
       </c>
     </row>
     <row r="9">
@@ -1038,28 +1038,28 @@
         <v>428</v>
       </c>
       <c r="E9" t="n">
-        <v>7.61</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>7.35</v>
+        <v>8.65</v>
       </c>
       <c r="G9" t="n">
-        <v>7.57</v>
+        <v>9</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.3200002</v>
+        <v>0.03999996</v>
       </c>
       <c r="I9" t="n">
-        <v>-14.781636</v>
+        <v>0.4479279</v>
       </c>
       <c r="J9" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K9" t="n">
         <v>66</v>
       </c>
       <c r="L9" t="n">
-        <v>1e-05</v>
+        <v>0.2504957763671875</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
@@ -1075,19 +1075,19 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="S9" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.062</v>
+        <v>-0.429</v>
       </c>
     </row>
     <row r="10">
@@ -1108,28 +1108,28 @@
         <v>429</v>
       </c>
       <c r="E10" t="n">
-        <v>6.48</v>
+        <v>7.5</v>
       </c>
       <c r="F10" t="n">
-        <v>6.37</v>
+        <v>7.65</v>
       </c>
       <c r="G10" t="n">
-        <v>6.61</v>
+        <v>8.24</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.75</v>
+        <v>0.26999998</v>
       </c>
       <c r="I10" t="n">
-        <v>-10.373444</v>
+        <v>3.7344396</v>
       </c>
       <c r="J10" t="n">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="K10" t="n">
         <v>122</v>
       </c>
       <c r="L10" t="n">
-        <v>1e-05</v>
+        <v>0.2592847509765626</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
@@ -1145,19 +1145,19 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0.899</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="S10" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.062</v>
+        <v>-0.579</v>
       </c>
     </row>
     <row r="11">
@@ -1178,28 +1178,28 @@
         <v>430</v>
       </c>
       <c r="E11" t="n">
-        <v>5.59</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>5.39</v>
+        <v>6.66</v>
       </c>
       <c r="G11" t="n">
-        <v>5.6</v>
+        <v>7.1</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.7100000400000001</v>
+        <v>0.6999997999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>-11.269841</v>
+        <v>11.111108</v>
       </c>
       <c r="J11" t="n">
-        <v>434</v>
+        <v>550</v>
       </c>
       <c r="K11" t="n">
         <v>894</v>
       </c>
       <c r="L11" t="n">
-        <v>1e-05</v>
+        <v>0.2209550561523437</v>
       </c>
       <c r="M11" t="b">
         <v>1</v>
@@ -1215,19 +1215,19 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0.902</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.039</v>
       </c>
       <c r="S11" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.062</v>
+        <v>-0.492</v>
       </c>
     </row>
     <row r="12">
@@ -1248,28 +1248,28 @@
         <v>431</v>
       </c>
       <c r="E12" t="n">
-        <v>4.54</v>
+        <v>5.96</v>
       </c>
       <c r="F12" t="n">
-        <v>4.36</v>
+        <v>5.68</v>
       </c>
       <c r="G12" t="n">
-        <v>4.59</v>
+        <v>6.26</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.5100002</v>
+        <v>-0.09000015</v>
       </c>
       <c r="I12" t="n">
-        <v>-24.958681</v>
+        <v>-1.4876057</v>
       </c>
       <c r="J12" t="n">
-        <v>1102</v>
+        <v>1139</v>
       </c>
       <c r="K12" t="n">
         <v>2429</v>
       </c>
       <c r="L12" t="n">
-        <v>1e-05</v>
+        <v>0.2163164306640625</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
@@ -1285,19 +1285,19 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0.868</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.043</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.049</v>
       </c>
       <c r="S12" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.062</v>
+        <v>-0.582</v>
       </c>
     </row>
     <row r="13">
@@ -1318,28 +1318,28 @@
         <v>432</v>
       </c>
       <c r="E13" t="n">
-        <v>3.65</v>
+        <v>4.91</v>
       </c>
       <c r="F13" t="n">
-        <v>3.48</v>
+        <v>4.71</v>
       </c>
       <c r="G13" t="n">
-        <v>3.64</v>
+        <v>5.12</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.7999997</v>
+        <v>0.46000004</v>
       </c>
       <c r="I13" t="n">
-        <v>-17.977522</v>
+        <v>10.33708</v>
       </c>
       <c r="J13" t="n">
-        <v>1185</v>
+        <v>1329</v>
       </c>
       <c r="K13" t="n">
         <v>2962</v>
       </c>
       <c r="L13" t="n">
-        <v>1e-05</v>
+        <v>0.1782308740234375</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
@@ -1355,19 +1355,19 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0.865</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S13" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.062</v>
+        <v>-0.495</v>
       </c>
     </row>
     <row r="14">
@@ -1388,28 +1388,28 @@
         <v>433</v>
       </c>
       <c r="E14" t="n">
-        <v>2.78</v>
+        <v>4.1</v>
       </c>
       <c r="F14" t="n">
-        <v>2.68</v>
+        <v>3.78</v>
       </c>
       <c r="G14" t="n">
-        <v>2.71</v>
+        <v>4.32</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.77</v>
+        <v>0.54999995</v>
       </c>
       <c r="I14" t="n">
-        <v>-21.690142</v>
+        <v>15.492956</v>
       </c>
       <c r="J14" t="n">
-        <v>5659</v>
+        <v>6228</v>
       </c>
       <c r="K14" t="n">
         <v>3625</v>
       </c>
       <c r="L14" t="n">
-        <v>1e-05</v>
+        <v>0.1733481103515625</v>
       </c>
       <c r="M14" t="b">
         <v>1</v>
@@ -1425,19 +1425,19 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.068</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.062</v>
       </c>
       <c r="S14" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.062</v>
+        <v>-0.587</v>
       </c>
     </row>
     <row r="15">
@@ -1458,28 +1458,28 @@
         <v>434</v>
       </c>
       <c r="E15" t="n">
-        <v>2.03</v>
+        <v>3.1</v>
       </c>
       <c r="F15" t="n">
-        <v>1.97</v>
+        <v>2.91</v>
       </c>
       <c r="G15" t="n">
-        <v>1.99</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.77</v>
+        <v>0.29999995</v>
       </c>
       <c r="I15" t="n">
-        <v>-27.5</v>
+        <v>10.714284</v>
       </c>
       <c r="J15" t="n">
-        <v>24408</v>
+        <v>26316</v>
       </c>
       <c r="K15" t="n">
         <v>4854</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06714800048828126</v>
+        <v>0.1540611938476563</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
@@ -1495,19 +1495,19 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.878</v>
+        <v>0.759</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.132</v>
+        <v>0.089</v>
       </c>
       <c r="R15" t="n">
-        <v>0.046</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="S15" t="n">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.21</v>
+        <v>-0.596</v>
       </c>
     </row>
     <row r="16">
@@ -1528,28 +1528,28 @@
         <v>435</v>
       </c>
       <c r="E16" t="n">
-        <v>1.42</v>
+        <v>2.35</v>
       </c>
       <c r="F16" t="n">
-        <v>1.39</v>
+        <v>2.34</v>
       </c>
       <c r="G16" t="n">
-        <v>1.4</v>
+        <v>2.37</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.7200001499999999</v>
+        <v>0.2099998</v>
       </c>
       <c r="I16" t="n">
-        <v>-33.644863</v>
+        <v>9.813074</v>
       </c>
       <c r="J16" t="n">
-        <v>101637</v>
+        <v>111058</v>
       </c>
       <c r="K16" t="n">
         <v>7759</v>
       </c>
       <c r="L16" t="n">
-        <v>0.07715766601562501</v>
+        <v>0.1226894372558594</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
@@ -1565,19 +1565,19 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.672</v>
+        <v>0.699</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.205</v>
+        <v>0.124</v>
       </c>
       <c r="R16" t="n">
-        <v>0.082</v>
+        <v>0.08</v>
       </c>
       <c r="S16" t="n">
         <v>0.008</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.36</v>
+        <v>-0.531</v>
       </c>
     </row>
     <row r="17">
@@ -1598,31 +1598,31 @@
         <v>436</v>
       </c>
       <c r="E17" t="n">
-        <v>0.91</v>
+        <v>1.65</v>
       </c>
       <c r="F17" t="n">
-        <v>0.89</v>
+        <v>1.65</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9</v>
+        <v>1.67</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.6499999</v>
+        <v>0.09000002999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>-41.666664</v>
+        <v>5.769233</v>
       </c>
       <c r="J17" t="n">
-        <v>199597</v>
+        <v>222975</v>
       </c>
       <c r="K17" t="n">
         <v>7028</v>
       </c>
       <c r="L17" t="n">
-        <v>0.07996525512695313</v>
+        <v>0.1139004626464844</v>
       </c>
       <c r="M17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1635,19 +1635,19 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.452</v>
+        <v>0.57</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.217</v>
+        <v>0.151</v>
       </c>
       <c r="R17" t="n">
         <v>0.09</v>
       </c>
       <c r="S17" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.389</v>
+        <v>-0.546</v>
       </c>
     </row>
     <row r="18">
@@ -1668,28 +1668,28 @@
         <v>437</v>
       </c>
       <c r="E18" t="n">
-        <v>0.54</v>
+        <v>1.08</v>
       </c>
       <c r="F18" t="n">
-        <v>0.52</v>
+        <v>1.08</v>
       </c>
       <c r="G18" t="n">
-        <v>0.53</v>
+        <v>1.09</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.57</v>
+        <v>-0.029999971</v>
       </c>
       <c r="I18" t="n">
-        <v>-51.35135</v>
+        <v>-2.7027001</v>
       </c>
       <c r="J18" t="n">
-        <v>134524</v>
+        <v>149039</v>
       </c>
       <c r="K18" t="n">
         <v>4017</v>
       </c>
       <c r="L18" t="n">
-        <v>0.081063876953125</v>
+        <v>0.106454248046875</v>
       </c>
       <c r="M18" t="b">
         <v>0</v>
@@ -1705,19 +1705,19 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.255</v>
+        <v>0.412</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.174</v>
+        <v>0.16</v>
       </c>
       <c r="R18" t="n">
-        <v>0.073</v>
+        <v>0.089</v>
       </c>
       <c r="S18" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.313</v>
+        <v>-0.499</v>
       </c>
     </row>
     <row r="19">
@@ -1738,28 +1738,28 @@
         <v>438</v>
       </c>
       <c r="E19" t="n">
-        <v>0.29</v>
+        <v>0.66</v>
       </c>
       <c r="F19" t="n">
-        <v>0.29</v>
+        <v>0.65</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3</v>
+        <v>0.66</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.45000002</v>
+        <v>-0.07999998</v>
       </c>
       <c r="I19" t="n">
-        <v>-60.81081</v>
+        <v>-10.810808</v>
       </c>
       <c r="J19" t="n">
-        <v>63264</v>
+        <v>74595</v>
       </c>
       <c r="K19" t="n">
         <v>4199</v>
       </c>
       <c r="L19" t="n">
-        <v>0.08326112060546878</v>
+        <v>0.101571484375</v>
       </c>
       <c r="M19" t="b">
         <v>0</v>
@@ -1775,19 +1775,19 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.122</v>
+        <v>0.254</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.107</v>
+        <v>0.138</v>
       </c>
       <c r="R19" t="n">
-        <v>0.046</v>
+        <v>0.073</v>
       </c>
       <c r="S19" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.2</v>
+        <v>-0.387</v>
       </c>
     </row>
     <row r="20">
@@ -1808,28 +1808,28 @@
         <v>439</v>
       </c>
       <c r="E20" t="n">
-        <v>0.16</v>
+        <v>0.36</v>
       </c>
       <c r="F20" t="n">
-        <v>0.14</v>
+        <v>0.36</v>
       </c>
       <c r="G20" t="n">
-        <v>0.15</v>
+        <v>0.37</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.34</v>
+        <v>-0.13999999</v>
       </c>
       <c r="I20" t="n">
-        <v>-68</v>
+        <v>-27.999996</v>
       </c>
       <c r="J20" t="n">
-        <v>51433</v>
+        <v>73105</v>
       </c>
       <c r="K20" t="n">
         <v>2929</v>
       </c>
       <c r="L20" t="n">
-        <v>0.08374939697265626</v>
+        <v>0.09839768798828125</v>
       </c>
       <c r="M20" t="b">
         <v>0</v>
@@ -1845,19 +1845,19 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.047</v>
+        <v>0.13</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.051</v>
+        <v>0.094</v>
       </c>
       <c r="R20" t="n">
-        <v>0.022</v>
+        <v>0.048</v>
       </c>
       <c r="S20" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.096</v>
+        <v>-0.246</v>
       </c>
     </row>
     <row r="21">
@@ -1878,28 +1878,28 @@
         <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.23</v>
+        <v>-0.13</v>
       </c>
       <c r="I21" t="n">
-        <v>-74.19355</v>
+        <v>-41.935482</v>
       </c>
       <c r="J21" t="n">
-        <v>75854</v>
+        <v>109121</v>
       </c>
       <c r="K21" t="n">
         <v>8585</v>
       </c>
       <c r="L21" t="n">
-        <v>0.08692319335937501</v>
+        <v>0.09449147705078126</v>
       </c>
       <c r="M21" t="b">
         <v>0</v>
@@ -1915,19 +1915,19 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.017</v>
+        <v>0.051</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.021</v>
+        <v>0.049</v>
       </c>
       <c r="R21" t="n">
-        <v>0.01</v>
+        <v>0.024</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.043</v>
+        <v>-0.116</v>
       </c>
     </row>
     <row r="22">
@@ -1948,28 +1948,28 @@
         <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.13000001</v>
+        <v>-0.10000001</v>
       </c>
       <c r="I22" t="n">
-        <v>-72.22223</v>
+        <v>-55.555557</v>
       </c>
       <c r="J22" t="n">
-        <v>23319</v>
+        <v>27477</v>
       </c>
       <c r="K22" t="n">
         <v>2061</v>
       </c>
       <c r="L22" t="n">
-        <v>0.09327078613281251</v>
+        <v>0.09229423339843749</v>
       </c>
       <c r="M22" t="b">
         <v>0</v>
@@ -1985,19 +1985,19 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.01</v>
+        <v>0.019</v>
       </c>
       <c r="R22" t="n">
-        <v>0.005</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.022</v>
+        <v>-0.043</v>
       </c>
     </row>
     <row r="23">
@@ -2018,28 +2018,28 @@
         <v>442</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.09</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>-81.818184</v>
+        <v>-63.636364</v>
       </c>
       <c r="J23" t="n">
-        <v>9819</v>
+        <v>10862</v>
       </c>
       <c r="K23" t="n">
         <v>3510</v>
       </c>
       <c r="L23" t="n">
-        <v>0.098641826171875</v>
+        <v>0.0937590625</v>
       </c>
       <c r="M23" t="b">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         </is>
       </c>
       <c r="P23" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="R23" t="n">
         <v>0.003</v>
       </c>
-      <c r="Q23" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0.002</v>
-      </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.011</v>
+        <v>-0.016</v>
       </c>
     </row>
     <row r="24">
@@ -2103,13 +2103,13 @@
         <v>-66.66667</v>
       </c>
       <c r="J24" t="n">
-        <v>3613</v>
+        <v>4123</v>
       </c>
       <c r="K24" t="n">
         <v>3059</v>
       </c>
       <c r="L24" t="n">
-        <v>0.104501142578125</v>
+        <v>0.09668872070312501</v>
       </c>
       <c r="M24" t="b">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="Q24" t="n">
         <v>0.002</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.005</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="25">
@@ -2173,13 +2173,13 @@
         <v>-50</v>
       </c>
       <c r="J25" t="n">
-        <v>4028</v>
+        <v>4131</v>
       </c>
       <c r="K25" t="n">
         <v>2043</v>
       </c>
       <c r="L25" t="n">
-        <v>0.117196328125</v>
+        <v>0.10938390625</v>
       </c>
       <c r="M25" t="b">
         <v>0</v>
@@ -2198,7 +2198,7 @@
         <v>0.001</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="R25" t="n">
         <v>0.001</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.005</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="26">
@@ -2228,7 +2228,7 @@
         <v>445</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F26" t="n">
         <v>0.01</v>
@@ -2237,19 +2237,19 @@
         <v>0.02</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="I26" t="n">
-        <v>-33.333336</v>
+        <v>-66.66667</v>
       </c>
       <c r="J26" t="n">
-        <v>1490</v>
+        <v>1632</v>
       </c>
       <c r="K26" t="n">
         <v>2163</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1289149609375</v>
+        <v>0.1211025390625</v>
       </c>
       <c r="M26" t="b">
         <v>0</v>
@@ -2313,13 +2313,13 @@
         <v>-50</v>
       </c>
       <c r="J27" t="n">
-        <v>543</v>
+        <v>1288</v>
       </c>
       <c r="K27" t="n">
         <v>1145</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1289149609375</v>
+        <v>0.1211025390625</v>
       </c>
       <c r="M27" t="b">
         <v>0</v>
@@ -2383,13 +2383,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3514</v>
+        <v>3531</v>
       </c>
       <c r="K28" t="n">
         <v>2761</v>
       </c>
       <c r="L28" t="n">
-        <v>0.14063359375</v>
+        <v>0.132821171875</v>
       </c>
       <c r="M28" t="b">
         <v>0</v>
@@ -2453,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1467</v>
+        <v>1488</v>
       </c>
       <c r="K29" t="n">
         <v>1308</v>
       </c>
       <c r="L29" t="n">
-        <v>0.15039912109375</v>
+        <v>0.1445398046875</v>
       </c>
       <c r="M29" t="b">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="30">
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="K30" t="n">
         <v>2122</v>
       </c>
       <c r="L30" t="n">
-        <v>0.17188328125</v>
+        <v>0.164070859375</v>
       </c>
       <c r="M30" t="b">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>20</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1914143359375</v>
+        <v>0.1836019140625</v>
       </c>
       <c r="M31" t="b">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>2021</v>
       </c>
       <c r="L32" t="n">
-        <v>0.210945390625</v>
+        <v>0.2070391796875</v>
       </c>
       <c r="M32" t="b">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>295</v>
       </c>
       <c r="L33" t="n">
-        <v>0.23438265625</v>
+        <v>0.226570234375</v>
       </c>
       <c r="M33" t="b">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>31</v>
       </c>
       <c r="L34" t="n">
-        <v>0.2539137109375</v>
+        <v>0.2461012890625</v>
       </c>
       <c r="M34" t="b">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>1527</v>
       </c>
       <c r="L35" t="n">
-        <v>0.273444765625</v>
+        <v>0.26563234375</v>
       </c>
       <c r="M35" t="b">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         <v>220</v>
       </c>
       <c r="L36" t="n">
-        <v>0.367193828125</v>
+        <v>0.35938140625</v>
       </c>
       <c r="M36" t="b">
         <v>0</v>
@@ -3019,7 +3019,7 @@
         <v>255</v>
       </c>
       <c r="L37" t="n">
-        <v>0.460942890625</v>
+        <v>0.45313046875</v>
       </c>
       <c r="M37" t="b">
         <v>0</v>

--- a/calls_output.xlsx
+++ b/calls_output.xlsx
@@ -587,18 +587,14 @@
       <c r="P2" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-0.055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -657,18 +653,14 @@
       <c r="P3" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T3" t="n">
-        <v>-0.056</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -727,18 +719,14 @@
       <c r="P4" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T4" t="n">
-        <v>-0.058</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -797,18 +785,14 @@
       <c r="P5" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T5" t="n">
-        <v>-0.059</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -867,18 +851,14 @@
       <c r="P6" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="T6" t="n">
-        <v>-0.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -937,18 +917,14 @@
       <c r="P7" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="T7" t="n">
-        <v>-0.061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1007,18 +983,14 @@
       <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="T8" t="n">
-        <v>-0.061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1077,18 +1049,14 @@
       <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="T9" t="n">
-        <v>-0.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1147,18 +1115,14 @@
       <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="T10" t="n">
-        <v>-0.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1217,18 +1181,14 @@
       <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="T11" t="n">
-        <v>-0.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1287,18 +1247,14 @@
       <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="T12" t="n">
-        <v>-0.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1357,18 +1313,14 @@
       <c r="P13" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="T13" t="n">
-        <v>-0.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1427,18 +1379,14 @@
       <c r="P14" t="n">
         <v>1</v>
       </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="T14" t="n">
-        <v>-0.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1497,18 +1445,14 @@
       <c r="P15" t="n">
         <v>1</v>
       </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="T15" t="n">
-        <v>-0.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1567,18 +1511,14 @@
       <c r="P16" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="T16" t="n">
-        <v>-0.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1637,18 +1577,14 @@
       <c r="P17" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="T17" t="n">
-        <v>-0.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1705,20 +1641,16 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.021</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
-      <c r="T18" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1777,18 +1709,14 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
-      <c r="T19" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1847,18 +1775,14 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
-      <c r="Q20" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
-      <c r="T20" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1917,18 +1841,14 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
-      <c r="T21" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1985,20 +1905,16 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
-      <c r="T22" t="n">
-        <v>-0.002</v>
-      </c>
+      <c r="T22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2057,18 +1973,14 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
-      <c r="T23" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2127,18 +2039,14 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
-      <c r="T24" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2197,18 +2105,14 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
-      <c r="T25" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2267,18 +2171,14 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
-      <c r="T26" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2337,18 +2237,14 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
-      <c r="Q27" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
-      <c r="T27" t="n">
-        <v>-0.002</v>
-      </c>
+      <c r="T27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2407,18 +2303,14 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q28" t="inlineStr"/>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
-      <c r="T28" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2477,18 +2369,14 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
-      <c r="T29" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2547,18 +2435,14 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
-      <c r="T30" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2617,18 +2501,14 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
-      <c r="T31" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2687,18 +2567,14 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
-      <c r="T32" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2757,18 +2633,14 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
-      <c r="T33" t="n">
-        <v>-0.004</v>
-      </c>
+      <c r="T33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2827,18 +2699,14 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q34" t="inlineStr"/>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
-      <c r="T34" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2897,18 +2765,14 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
-      <c r="T35" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2967,18 +2831,14 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
-      <c r="T36" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3037,18 +2897,14 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
-      <c r="T37" t="n">
-        <v>-0.003</v>
-      </c>
+      <c r="T37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/calls_output.xlsx
+++ b/calls_output.xlsx
@@ -551,10 +551,10 @@
         <v>182.25</v>
       </c>
       <c r="F2" t="n">
-        <v>181.87</v>
+        <v>182.01</v>
       </c>
       <c r="G2" t="n">
-        <v>182.12</v>
+        <v>182.26</v>
       </c>
       <c r="H2" t="n">
         <v>0.5299988</v>
@@ -691,10 +691,10 @@
         <v>166.37</v>
       </c>
       <c r="F4" t="n">
-        <v>171.8</v>
+        <v>172.04</v>
       </c>
       <c r="G4" t="n">
-        <v>172.08</v>
+        <v>172.3</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -761,10 +761,10 @@
         <v>169.74</v>
       </c>
       <c r="F5" t="n">
-        <v>166.94</v>
+        <v>167.04</v>
       </c>
       <c r="G5" t="n">
-        <v>167.19</v>
+        <v>167.3</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>166.53</v>
       </c>
       <c r="F6" t="n">
-        <v>161.77</v>
+        <v>162.11</v>
       </c>
       <c r="G6" t="n">
-        <v>162.11</v>
+        <v>162.38</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>160.69</v>
       </c>
       <c r="F7" t="n">
-        <v>156.94</v>
+        <v>157.04</v>
       </c>
       <c r="G7" t="n">
-        <v>157.2</v>
+        <v>157.29</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>156.53</v>
       </c>
       <c r="F8" t="n">
-        <v>151.91</v>
+        <v>152.06</v>
       </c>
       <c r="G8" t="n">
-        <v>152.17</v>
+        <v>152.3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>127.3</v>
       </c>
       <c r="F10" t="n">
-        <v>141.87</v>
+        <v>142.15</v>
       </c>
       <c r="G10" t="n">
-        <v>142.15</v>
+        <v>142.38</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>134.86</v>
       </c>
       <c r="F11" t="n">
-        <v>136.92</v>
+        <v>137.07</v>
       </c>
       <c r="G11" t="n">
-        <v>137.18</v>
+        <v>137.31</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1251,10 +1251,10 @@
         <v>129.25</v>
       </c>
       <c r="F12" t="n">
-        <v>131.91</v>
+        <v>132.07</v>
       </c>
       <c r="G12" t="n">
-        <v>132.13</v>
+        <v>132.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1321,10 +1321,10 @@
         <v>121.41</v>
       </c>
       <c r="F13" t="n">
-        <v>126.94</v>
+        <v>127.1</v>
       </c>
       <c r="G13" t="n">
-        <v>127.13</v>
+        <v>127.38</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>122.01</v>
       </c>
       <c r="F14" t="n">
-        <v>121.9</v>
+        <v>122.08</v>
       </c>
       <c r="G14" t="n">
-        <v>122.15</v>
+        <v>122.32</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1461,10 +1461,10 @@
         <v>114.84</v>
       </c>
       <c r="F15" t="n">
-        <v>116.95</v>
+        <v>117.08</v>
       </c>
       <c r="G15" t="n">
-        <v>117.24</v>
+        <v>117.31</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>111.8</v>
       </c>
       <c r="F16" t="n">
-        <v>111.85</v>
+        <v>112.15</v>
       </c>
       <c r="G16" t="n">
-        <v>112.12</v>
+        <v>112.41</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1601,10 +1601,10 @@
         <v>103.11</v>
       </c>
       <c r="F17" t="n">
-        <v>106.93</v>
+        <v>107.16</v>
       </c>
       <c r="G17" t="n">
-        <v>107.17</v>
+        <v>107.37</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1671,10 +1671,10 @@
         <v>99.83</v>
       </c>
       <c r="F18" t="n">
-        <v>101.96</v>
+        <v>102.09</v>
       </c>
       <c r="G18" t="n">
-        <v>102.26</v>
+        <v>102.33</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1741,10 +1741,10 @@
         <v>100.75</v>
       </c>
       <c r="F19" t="n">
-        <v>99.86</v>
+        <v>100.16</v>
       </c>
       <c r="G19" t="n">
-        <v>100.12</v>
+        <v>100.38</v>
       </c>
       <c r="H19" t="n">
         <v>4.5699997</v>
@@ -1811,10 +1811,10 @@
         <v>95.20999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>98.86</v>
+        <v>99.16</v>
       </c>
       <c r="G20" t="n">
-        <v>99.09999999999999</v>
+        <v>99.42</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1881,10 +1881,10 @@
         <v>98.77</v>
       </c>
       <c r="F21" t="n">
-        <v>97.93000000000001</v>
+        <v>98.11</v>
       </c>
       <c r="G21" t="n">
-        <v>98.16</v>
+        <v>98.39</v>
       </c>
       <c r="H21" t="n">
         <v>14.119995</v>
@@ -1951,10 +1951,10 @@
         <v>96.63</v>
       </c>
       <c r="F22" t="n">
-        <v>96.93000000000001</v>
+        <v>97.11</v>
       </c>
       <c r="G22" t="n">
-        <v>97.17</v>
+        <v>97.39</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>97.31999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>92</v>
+        <v>92.17</v>
       </c>
       <c r="G27" t="n">
-        <v>92.27</v>
+        <v>92.38</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2577,10 +2577,10 @@
         <v>93.37</v>
       </c>
       <c r="F31" t="n">
-        <v>87.97</v>
+        <v>88.13</v>
       </c>
       <c r="G31" t="n">
-        <v>88.18000000000001</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2647,10 +2647,10 @@
         <v>87.59</v>
       </c>
       <c r="F32" t="n">
-        <v>86.95999999999999</v>
+        <v>87.09</v>
       </c>
       <c r="G32" t="n">
-        <v>87.22</v>
+        <v>87.34999999999999</v>
       </c>
       <c r="H32" t="n">
         <v>1.6299973</v>
@@ -2717,10 +2717,10 @@
         <v>79.75</v>
       </c>
       <c r="F33" t="n">
-        <v>85.87</v>
+        <v>86.17</v>
       </c>
       <c r="G33" t="n">
-        <v>86.11</v>
+        <v>86.39</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>90.48999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>84.87</v>
+        <v>85.17</v>
       </c>
       <c r="G34" t="n">
-        <v>85.13</v>
+        <v>85.43000000000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>75.52</v>
       </c>
       <c r="F35" t="n">
-        <v>83.95999999999999</v>
+        <v>84.12</v>
       </c>
       <c r="G35" t="n">
-        <v>84.22</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2945,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>2.227787633666991</v>
+        <v>2.199711531982421</v>
       </c>
       <c r="M36" t="b">
         <v>1</v>
@@ -2961,19 +2961,19 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.97</v>
+        <v>0.971</v>
       </c>
       <c r="Q36" t="n">
         <v>0.001</v>
       </c>
       <c r="R36" t="n">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="S36" t="n">
         <v>0.008999999999999999</v>
       </c>
       <c r="T36" t="n">
-        <v>-1.807</v>
+        <v>-1.706</v>
       </c>
     </row>
     <row r="37">
@@ -2997,10 +2997,10 @@
         <v>88.51000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>81.97</v>
+        <v>82.11</v>
       </c>
       <c r="G37" t="n">
-        <v>82.22</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3067,10 +3067,10 @@
         <v>81.72</v>
       </c>
       <c r="F38" t="n">
-        <v>80.97</v>
+        <v>81.11</v>
       </c>
       <c r="G38" t="n">
-        <v>81.22</v>
+        <v>81.34999999999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3207,10 +3207,10 @@
         <v>64.67</v>
       </c>
       <c r="F40" t="n">
-        <v>79.01000000000001</v>
+        <v>79.18000000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>79.27</v>
+        <v>79.39</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3347,10 +3347,10 @@
         <v>75.97</v>
       </c>
       <c r="F42" t="n">
-        <v>76.98</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>77.27</v>
+        <v>77.34</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>78.45999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>72.97</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>73.23</v>
+        <v>73.34</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3697,10 +3697,10 @@
         <v>67.95999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>71.94</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>72.18000000000001</v>
+        <v>72.34</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3767,10 +3767,10 @@
         <v>71.03</v>
       </c>
       <c r="F48" t="n">
-        <v>70.95</v>
+        <v>71.13</v>
       </c>
       <c r="G48" t="n">
-        <v>71.18000000000001</v>
+        <v>71.41</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>13</v>
       </c>
       <c r="L49" t="n">
-        <v>1.08984830078125</v>
+        <v>0.8281267187499999</v>
       </c>
       <c r="M49" t="b">
         <v>1</v>
@@ -3871,19 +3871,19 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
         <v>0.01</v>
       </c>
       <c r="T49" t="n">
-        <v>-0.093</v>
+        <v>-0.054</v>
       </c>
     </row>
     <row r="50">
@@ -3907,10 +3907,10 @@
         <v>68.55</v>
       </c>
       <c r="F50" t="n">
-        <v>68.98</v>
+        <v>69.11</v>
       </c>
       <c r="G50" t="n">
-        <v>69.23</v>
+        <v>69.34</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3977,10 +3977,10 @@
         <v>73.09</v>
       </c>
       <c r="F51" t="n">
-        <v>67.95</v>
+        <v>68.11</v>
       </c>
       <c r="G51" t="n">
-        <v>68.19</v>
+        <v>68.37</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4047,10 +4047,10 @@
         <v>65.95999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>66.93000000000001</v>
+        <v>67.11</v>
       </c>
       <c r="G52" t="n">
-        <v>67.17</v>
+        <v>67.36</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4117,10 +4117,10 @@
         <v>72.03</v>
       </c>
       <c r="F53" t="n">
-        <v>66.02</v>
+        <v>66.19</v>
       </c>
       <c r="G53" t="n">
-        <v>66.23</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4257,10 +4257,10 @@
         <v>63.18</v>
       </c>
       <c r="F55" t="n">
-        <v>63.99</v>
+        <v>64.11</v>
       </c>
       <c r="G55" t="n">
-        <v>64.28</v>
+        <v>64.34999999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4327,10 +4327,10 @@
         <v>49.11</v>
       </c>
       <c r="F56" t="n">
-        <v>62.99</v>
+        <v>63.13</v>
       </c>
       <c r="G56" t="n">
-        <v>63.28</v>
+        <v>63.35</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4397,10 +4397,10 @@
         <v>68.31</v>
       </c>
       <c r="F57" t="n">
-        <v>61.94</v>
+        <v>62.11</v>
       </c>
       <c r="G57" t="n">
-        <v>62.19</v>
+        <v>62.37</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4467,10 +4467,10 @@
         <v>60.19</v>
       </c>
       <c r="F58" t="n">
-        <v>60.94</v>
+        <v>61.13</v>
       </c>
       <c r="G58" t="n">
-        <v>61.19</v>
+        <v>61.36</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4537,10 +4537,10 @@
         <v>59.51</v>
       </c>
       <c r="F59" t="n">
-        <v>59.94</v>
+        <v>60.11</v>
       </c>
       <c r="G59" t="n">
-        <v>60.19</v>
+        <v>60.35</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4607,10 +4607,10 @@
         <v>58.56</v>
       </c>
       <c r="F60" t="n">
-        <v>58.95</v>
+        <v>59.12</v>
       </c>
       <c r="G60" t="n">
-        <v>59.19</v>
+        <v>59.35</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4677,10 +4677,10 @@
         <v>57.86</v>
       </c>
       <c r="F61" t="n">
-        <v>57.88</v>
+        <v>58.1</v>
       </c>
       <c r="G61" t="n">
-        <v>58.16</v>
+        <v>58.34</v>
       </c>
       <c r="H61" t="n">
         <v>0.3199997</v>
@@ -4747,10 +4747,10 @@
         <v>57.38</v>
       </c>
       <c r="F62" t="n">
-        <v>56.89</v>
+        <v>57.16</v>
       </c>
       <c r="G62" t="n">
-        <v>57.13</v>
+        <v>57.46</v>
       </c>
       <c r="H62" t="n">
         <v>1.5400009</v>
@@ -4817,10 +4817,10 @@
         <v>49.22</v>
       </c>
       <c r="F63" t="n">
-        <v>55.9</v>
+        <v>56.16</v>
       </c>
       <c r="G63" t="n">
-        <v>56.16</v>
+        <v>56.39</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4887,10 +4887,10 @@
         <v>58.71</v>
       </c>
       <c r="F64" t="n">
-        <v>54.97</v>
+        <v>55.13</v>
       </c>
       <c r="G64" t="n">
-        <v>55.18</v>
+        <v>55.38</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4957,10 +4957,10 @@
         <v>59.92</v>
       </c>
       <c r="F65" t="n">
-        <v>53.96</v>
+        <v>54.2</v>
       </c>
       <c r="G65" t="n">
-        <v>54.21</v>
+        <v>54.41</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5027,10 +5027,10 @@
         <v>58.15</v>
       </c>
       <c r="F66" t="n">
-        <v>53.03</v>
+        <v>53.2</v>
       </c>
       <c r="G66" t="n">
-        <v>53.29</v>
+        <v>53.41</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5097,10 +5097,10 @@
         <v>51.46</v>
       </c>
       <c r="F67" t="n">
-        <v>51.94</v>
+        <v>52.14</v>
       </c>
       <c r="G67" t="n">
-        <v>52.19</v>
+        <v>52.36</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5167,10 +5167,10 @@
         <v>50.32</v>
       </c>
       <c r="F68" t="n">
-        <v>51</v>
+        <v>51.14</v>
       </c>
       <c r="G68" t="n">
-        <v>51.29</v>
+        <v>51.37</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5237,10 +5237,10 @@
         <v>49.56</v>
       </c>
       <c r="F69" t="n">
-        <v>49.9</v>
+        <v>50.23</v>
       </c>
       <c r="G69" t="n">
-        <v>50.16</v>
+        <v>50.48</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5307,10 +5307,10 @@
         <v>54.01</v>
       </c>
       <c r="F70" t="n">
-        <v>48.99</v>
+        <v>49.12</v>
       </c>
       <c r="G70" t="n">
-        <v>49.25</v>
+        <v>49.36</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5377,10 +5377,10 @@
         <v>46.92</v>
       </c>
       <c r="F71" t="n">
-        <v>47.96</v>
+        <v>48.13</v>
       </c>
       <c r="G71" t="n">
-        <v>48.2</v>
+        <v>48.36</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5447,10 +5447,10 @@
         <v>46.01</v>
       </c>
       <c r="F72" t="n">
-        <v>46.89</v>
+        <v>47.11</v>
       </c>
       <c r="G72" t="n">
-        <v>47.13</v>
+        <v>47.35</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5517,10 +5517,10 @@
         <v>44.92</v>
       </c>
       <c r="F73" t="n">
-        <v>45.91</v>
+        <v>46.23</v>
       </c>
       <c r="G73" t="n">
-        <v>46.17</v>
+        <v>46.48</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5587,10 +5587,10 @@
         <v>50.98</v>
       </c>
       <c r="F74" t="n">
-        <v>44.98</v>
+        <v>45.21</v>
       </c>
       <c r="G74" t="n">
-        <v>45.3</v>
+        <v>45.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5657,10 +5657,10 @@
         <v>47.66</v>
       </c>
       <c r="F75" t="n">
-        <v>44.01</v>
+        <v>44.13</v>
       </c>
       <c r="G75" t="n">
-        <v>44.26</v>
+        <v>44.39</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5727,10 +5727,10 @@
         <v>42.08</v>
       </c>
       <c r="F76" t="n">
-        <v>42.86</v>
+        <v>43.14</v>
       </c>
       <c r="G76" t="n">
-        <v>43.16</v>
+        <v>43.37</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5797,10 +5797,10 @@
         <v>41.89</v>
       </c>
       <c r="F77" t="n">
-        <v>41.9</v>
+        <v>42.16</v>
       </c>
       <c r="G77" t="n">
-        <v>42.21</v>
+        <v>42.37</v>
       </c>
       <c r="H77" t="n">
         <v>3.8999977</v>
@@ -5867,10 +5867,10 @@
         <v>44.4</v>
       </c>
       <c r="F78" t="n">
-        <v>41</v>
+        <v>41.15</v>
       </c>
       <c r="G78" t="n">
-        <v>41.26</v>
+        <v>41.37</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5937,10 +5937,10 @@
         <v>38.75</v>
       </c>
       <c r="F79" t="n">
-        <v>39.98</v>
+        <v>40.15</v>
       </c>
       <c r="G79" t="n">
-        <v>40.22</v>
+        <v>40.38</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6007,10 +6007,10 @@
         <v>37.95</v>
       </c>
       <c r="F80" t="n">
-        <v>39</v>
+        <v>39.13</v>
       </c>
       <c r="G80" t="n">
-        <v>39.26</v>
+        <v>39.37</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6077,10 +6077,10 @@
         <v>37.36</v>
       </c>
       <c r="F81" t="n">
-        <v>37.97</v>
+        <v>38.14</v>
       </c>
       <c r="G81" t="n">
-        <v>38.21</v>
+        <v>38.37</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6147,10 +6147,10 @@
         <v>37.43</v>
       </c>
       <c r="F82" t="n">
-        <v>36.99</v>
+        <v>37.15</v>
       </c>
       <c r="G82" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="H82" t="n">
         <v>1.0999985</v>
@@ -6217,10 +6217,10 @@
         <v>34.54</v>
       </c>
       <c r="F83" t="n">
-        <v>35.98</v>
+        <v>36.15</v>
       </c>
       <c r="G83" t="n">
-        <v>36.21</v>
+        <v>36.39</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6287,10 +6287,10 @@
         <v>34.82</v>
       </c>
       <c r="F84" t="n">
-        <v>34.77</v>
+        <v>35.18</v>
       </c>
       <c r="G84" t="n">
-        <v>35.15</v>
+        <v>35.41</v>
       </c>
       <c r="H84" t="n">
         <v>4.029999</v>
@@ -6357,10 +6357,10 @@
         <v>31.88</v>
       </c>
       <c r="F85" t="n">
-        <v>33.98</v>
+        <v>34.22</v>
       </c>
       <c r="G85" t="n">
-        <v>34.23</v>
+        <v>34.43</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6427,10 +6427,10 @@
         <v>29.31</v>
       </c>
       <c r="F86" t="n">
-        <v>33</v>
+        <v>33.22</v>
       </c>
       <c r="G86" t="n">
-        <v>33.23</v>
+        <v>33.43</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6497,10 +6497,10 @@
         <v>28.54</v>
       </c>
       <c r="F87" t="n">
-        <v>32.02</v>
+        <v>32.16</v>
       </c>
       <c r="G87" t="n">
-        <v>32.23</v>
+        <v>32.43</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6567,10 +6567,10 @@
         <v>30.88</v>
       </c>
       <c r="F88" t="n">
-        <v>30.9</v>
+        <v>31.17</v>
       </c>
       <c r="G88" t="n">
-        <v>31.14</v>
+        <v>31.38</v>
       </c>
       <c r="H88" t="n">
         <v>1.3799992</v>
@@ -6637,10 +6637,10 @@
         <v>28.72</v>
       </c>
       <c r="F89" t="n">
-        <v>30.01</v>
+        <v>30.14</v>
       </c>
       <c r="G89" t="n">
-        <v>30.27</v>
+        <v>30.38</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6707,10 +6707,10 @@
         <v>27.86</v>
       </c>
       <c r="F90" t="n">
-        <v>28.92</v>
+        <v>29.18</v>
       </c>
       <c r="G90" t="n">
-        <v>29.16</v>
+        <v>29.48</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6777,10 +6777,10 @@
         <v>27.24</v>
       </c>
       <c r="F91" t="n">
-        <v>27.91</v>
+        <v>28.13</v>
       </c>
       <c r="G91" t="n">
-        <v>28.19</v>
+        <v>28.37</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6847,10 +6847,10 @@
         <v>27.44</v>
       </c>
       <c r="F92" t="n">
-        <v>26.99</v>
+        <v>27.19</v>
       </c>
       <c r="G92" t="n">
-        <v>27.32</v>
+        <v>27.42</v>
       </c>
       <c r="H92" t="n">
         <v>0.32999992</v>
@@ -6917,10 +6917,10 @@
         <v>26.83</v>
       </c>
       <c r="F93" t="n">
-        <v>25.89</v>
+        <v>26.23</v>
       </c>
       <c r="G93" t="n">
-        <v>26.24</v>
+        <v>26.49</v>
       </c>
       <c r="H93" t="n">
         <v>1.2700005</v>
@@ -6987,10 +6987,10 @@
         <v>25.82</v>
       </c>
       <c r="F94" t="n">
-        <v>24.99</v>
+        <v>25.23</v>
       </c>
       <c r="G94" t="n">
-        <v>25.24</v>
+        <v>25.44</v>
       </c>
       <c r="H94" t="n">
         <v>2.0900002</v>
@@ -7057,10 +7057,10 @@
         <v>24.91</v>
       </c>
       <c r="F95" t="n">
-        <v>24.03</v>
+        <v>24.17</v>
       </c>
       <c r="G95" t="n">
-        <v>24.24</v>
+        <v>24.44</v>
       </c>
       <c r="H95" t="n">
         <v>1.7600002</v>
@@ -7127,10 +7127,10 @@
         <v>22.63</v>
       </c>
       <c r="F96" t="n">
-        <v>22.93</v>
+        <v>23.26</v>
       </c>
       <c r="G96" t="n">
-        <v>23.19</v>
+        <v>23.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7194,22 +7194,22 @@
         <v>415</v>
       </c>
       <c r="E97" t="n">
-        <v>22.13</v>
+        <v>22.4</v>
       </c>
       <c r="F97" t="n">
-        <v>21.99</v>
+        <v>22.25</v>
       </c>
       <c r="G97" t="n">
-        <v>22.23</v>
+        <v>22.48</v>
       </c>
       <c r="H97" t="n">
-        <v>0.15999985</v>
+        <v>0.4300003</v>
       </c>
       <c r="I97" t="n">
-        <v>0.72826517</v>
+        <v>1.9572158</v>
       </c>
       <c r="J97" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K97" t="n">
         <v>568</v>
@@ -7267,10 +7267,10 @@
         <v>21.15</v>
       </c>
       <c r="F98" t="n">
-        <v>21.03</v>
+        <v>21.23</v>
       </c>
       <c r="G98" t="n">
-        <v>21.28</v>
+        <v>21.46</v>
       </c>
       <c r="H98" t="n">
         <v>2.959999</v>
@@ -7337,10 +7337,10 @@
         <v>19.15</v>
       </c>
       <c r="F99" t="n">
-        <v>20.03</v>
+        <v>20.17</v>
       </c>
       <c r="G99" t="n">
-        <v>20.28</v>
+        <v>20.41</v>
       </c>
       <c r="H99" t="n">
         <v>1.1399994</v>
@@ -7407,10 +7407,10 @@
         <v>17.95</v>
       </c>
       <c r="F100" t="n">
-        <v>19</v>
+        <v>19.17</v>
       </c>
       <c r="G100" t="n">
-        <v>19.25</v>
+        <v>19.39</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7477,10 +7477,10 @@
         <v>14.74</v>
       </c>
       <c r="F101" t="n">
-        <v>18.03</v>
+        <v>18.18</v>
       </c>
       <c r="G101" t="n">
-        <v>18.27</v>
+        <v>18.45</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7547,10 +7547,10 @@
         <v>17.57</v>
       </c>
       <c r="F102" t="n">
-        <v>17.03</v>
+        <v>17.14</v>
       </c>
       <c r="G102" t="n">
-        <v>17.29</v>
+        <v>17.37</v>
       </c>
       <c r="H102" t="n">
         <v>1.7599993</v>
@@ -7617,10 +7617,10 @@
         <v>17.3</v>
       </c>
       <c r="F103" t="n">
-        <v>15.93</v>
+        <v>16.24</v>
       </c>
       <c r="G103" t="n">
-        <v>16.18</v>
+        <v>16.5</v>
       </c>
       <c r="H103" t="n">
         <v>2.8099995</v>
@@ -7687,10 +7687,10 @@
         <v>14.82</v>
       </c>
       <c r="F104" t="n">
-        <v>15.01</v>
+        <v>15.17</v>
       </c>
       <c r="G104" t="n">
-        <v>15.26</v>
+        <v>15.43</v>
       </c>
       <c r="H104" t="n">
         <v>0.5799999</v>
@@ -7757,10 +7757,10 @@
         <v>14.84</v>
       </c>
       <c r="F105" t="n">
-        <v>13.94</v>
+        <v>14.2</v>
       </c>
       <c r="G105" t="n">
-        <v>14.18</v>
+        <v>14.44</v>
       </c>
       <c r="H105" t="n">
         <v>0.8400001499999999</v>
@@ -7827,10 +7827,10 @@
         <v>13.2</v>
       </c>
       <c r="F106" t="n">
-        <v>13.08</v>
+        <v>13.21</v>
       </c>
       <c r="G106" t="n">
-        <v>13.35</v>
+        <v>13.46</v>
       </c>
       <c r="H106" t="n">
         <v>1.3199997</v>
@@ -7897,10 +7897,10 @@
         <v>12.29</v>
       </c>
       <c r="F107" t="n">
-        <v>11.92</v>
+        <v>12.17</v>
       </c>
       <c r="G107" t="n">
-        <v>12.19</v>
+        <v>12.46</v>
       </c>
       <c r="H107" t="n">
         <v>1.4399996</v>
@@ -7967,10 +7967,10 @@
         <v>11.36</v>
       </c>
       <c r="F108" t="n">
-        <v>11.01</v>
+        <v>11.2</v>
       </c>
       <c r="G108" t="n">
-        <v>11.25</v>
+        <v>11.44</v>
       </c>
       <c r="H108" t="n">
         <v>1.1899996</v>
@@ -8037,10 +8037,10 @@
         <v>10.11</v>
       </c>
       <c r="F109" t="n">
-        <v>10.1</v>
+        <v>10.21</v>
       </c>
       <c r="G109" t="n">
-        <v>10.25</v>
+        <v>10.4</v>
       </c>
       <c r="H109" t="n">
         <v>0.069999695</v>
@@ -8107,10 +8107,10 @@
         <v>9.300000000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>9.039999999999999</v>
+        <v>9.19</v>
       </c>
       <c r="G110" t="n">
-        <v>9.279999999999999</v>
+        <v>9.43</v>
       </c>
       <c r="H110" t="n">
         <v>0.6500006</v>
@@ -8174,22 +8174,22 @@
         <v>429</v>
       </c>
       <c r="E111" t="n">
-        <v>8.15</v>
+        <v>8.34</v>
       </c>
       <c r="F111" t="n">
-        <v>8.050000000000001</v>
+        <v>8.23</v>
       </c>
       <c r="G111" t="n">
-        <v>8.289999999999999</v>
+        <v>8.44</v>
       </c>
       <c r="H111" t="n">
-        <v>0.14999962</v>
+        <v>0.34000015</v>
       </c>
       <c r="I111" t="n">
-        <v>1.8749952</v>
+        <v>4.250002</v>
       </c>
       <c r="J111" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="K111" t="n">
         <v>2052</v>
@@ -8244,28 +8244,28 @@
         <v>430</v>
       </c>
       <c r="E112" t="n">
-        <v>7.22</v>
+        <v>7.35</v>
       </c>
       <c r="F112" t="n">
-        <v>7.13</v>
+        <v>7.23</v>
       </c>
       <c r="G112" t="n">
-        <v>7.37</v>
+        <v>7.49</v>
       </c>
       <c r="H112" t="n">
-        <v>0.21999979</v>
+        <v>0.3499999</v>
       </c>
       <c r="I112" t="n">
-        <v>3.1428542</v>
+        <v>4.999999</v>
       </c>
       <c r="J112" t="n">
-        <v>2602</v>
+        <v>2622</v>
       </c>
       <c r="K112" t="n">
         <v>30216</v>
       </c>
       <c r="L112" t="n">
-        <v>0.09766527343750001</v>
+        <v>1e-05</v>
       </c>
       <c r="M112" t="b">
         <v>1</v>
@@ -8284,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="R112" t="n">
         <v>0</v>
@@ -8293,7 +8293,7 @@
         <v>0.012</v>
       </c>
       <c r="T112" t="n">
-        <v>-0.063</v>
+        <v>-0.062</v>
       </c>
     </row>
     <row r="113">
@@ -8314,22 +8314,22 @@
         <v>431</v>
       </c>
       <c r="E113" t="n">
-        <v>6.42</v>
+        <v>6.34</v>
       </c>
       <c r="F113" t="n">
-        <v>6.08</v>
+        <v>6.32</v>
       </c>
       <c r="G113" t="n">
-        <v>6.28</v>
+        <v>6.49</v>
       </c>
       <c r="H113" t="n">
-        <v>0.28999996</v>
+        <v>0.21000004</v>
       </c>
       <c r="I113" t="n">
-        <v>4.730831</v>
+        <v>3.4257755</v>
       </c>
       <c r="J113" t="n">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="K113" t="n">
         <v>2101</v>
@@ -8384,28 +8384,28 @@
         <v>432</v>
       </c>
       <c r="E114" t="n">
-        <v>5.18</v>
+        <v>5.5</v>
       </c>
       <c r="F114" t="n">
-        <v>5.16</v>
+        <v>5.37</v>
       </c>
       <c r="G114" t="n">
-        <v>5.37</v>
+        <v>5.55</v>
       </c>
       <c r="H114" t="n">
-        <v>-0.059999943</v>
+        <v>0.26000023</v>
       </c>
       <c r="I114" t="n">
-        <v>-1.1450372</v>
+        <v>4.961837</v>
       </c>
       <c r="J114" t="n">
-        <v>977</v>
+        <v>1026</v>
       </c>
       <c r="K114" t="n">
         <v>6856</v>
       </c>
       <c r="L114" t="n">
-        <v>0.07422800781250001</v>
+        <v>0.09180595703125</v>
       </c>
       <c r="M114" t="b">
         <v>1</v>
@@ -8421,19 +8421,19 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>0.999</v>
+        <v>0.996</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="R114" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="S114" t="n">
         <v>0.012</v>
       </c>
       <c r="T114" t="n">
-        <v>-0.064</v>
+        <v>-0.074</v>
       </c>
     </row>
     <row r="115">
@@ -8454,28 +8454,28 @@
         <v>433</v>
       </c>
       <c r="E115" t="n">
-        <v>4.31</v>
+        <v>4.5</v>
       </c>
       <c r="F115" t="n">
-        <v>4.25</v>
+        <v>4.38</v>
       </c>
       <c r="G115" t="n">
-        <v>4.43</v>
+        <v>4.54</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.07000017</v>
+        <v>0.119999886</v>
       </c>
       <c r="I115" t="n">
-        <v>-1.5981774</v>
+        <v>2.7397234</v>
       </c>
       <c r="J115" t="n">
-        <v>1472</v>
+        <v>1490</v>
       </c>
       <c r="K115" t="n">
         <v>13287</v>
       </c>
       <c r="L115" t="n">
-        <v>0.08643491699218751</v>
+        <v>0.073251455078125</v>
       </c>
       <c r="M115" t="b">
         <v>1</v>
@@ -8491,19 +8491,19 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>0.988</v>
+        <v>0.997</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="R115" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="S115" t="n">
         <v>0.012</v>
       </c>
       <c r="T115" t="n">
-        <v>-0.092</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="116">
@@ -8524,28 +8524,28 @@
         <v>434</v>
       </c>
       <c r="E116" t="n">
-        <v>3.43</v>
+        <v>3.62</v>
       </c>
       <c r="F116" t="n">
-        <v>3.42</v>
+        <v>3.53</v>
       </c>
       <c r="G116" t="n">
-        <v>3.45</v>
+        <v>3.67</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.20000005</v>
+        <v>-0.010000229</v>
       </c>
       <c r="I116" t="n">
-        <v>-5.5096426</v>
+        <v>-0.27548838</v>
       </c>
       <c r="J116" t="n">
-        <v>4640</v>
+        <v>4671</v>
       </c>
       <c r="K116" t="n">
         <v>19106</v>
       </c>
       <c r="L116" t="n">
-        <v>0.07471628417968751</v>
+        <v>0.0893645751953125</v>
       </c>
       <c r="M116" t="b">
         <v>1</v>
@@ -8561,19 +8561,19 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>0.979</v>
+        <v>0.961</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.029</v>
+        <v>0.041</v>
       </c>
       <c r="R116" t="n">
-        <v>0.012</v>
+        <v>0.019</v>
       </c>
       <c r="S116" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="T116" t="n">
-        <v>-0.104</v>
+        <v>-0.147</v>
       </c>
     </row>
     <row r="117">
@@ -8594,28 +8594,28 @@
         <v>435</v>
       </c>
       <c r="E117" t="n">
-        <v>2.69</v>
+        <v>2.77</v>
       </c>
       <c r="F117" t="n">
-        <v>2.61</v>
+        <v>2.8</v>
       </c>
       <c r="G117" t="n">
-        <v>2.69</v>
+        <v>2.82</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.23000002</v>
+        <v>-0.1500001</v>
       </c>
       <c r="I117" t="n">
-        <v>-7.876713</v>
+        <v>-5.1369896</v>
       </c>
       <c r="J117" t="n">
-        <v>29617</v>
+        <v>30143</v>
       </c>
       <c r="K117" t="n">
         <v>30201</v>
       </c>
       <c r="L117" t="n">
-        <v>0.08863216064453125</v>
+        <v>0.0893645751953125</v>
       </c>
       <c r="M117" t="b">
         <v>1</v>
@@ -8631,19 +8631,19 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>0.889</v>
+        <v>0.898</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.093</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="R117" t="n">
-        <v>0.043</v>
+        <v>0.041</v>
       </c>
       <c r="S117" t="n">
         <v>0.011</v>
       </c>
       <c r="T117" t="n">
-        <v>-0.248</v>
+        <v>-0.239</v>
       </c>
     </row>
     <row r="118">
@@ -8664,28 +8664,28 @@
         <v>436</v>
       </c>
       <c r="E118" t="n">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="F118" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.21000004</v>
+        <v>-0.119999886</v>
       </c>
       <c r="I118" t="n">
-        <v>-9.292037000000001</v>
+        <v>-5.3097296</v>
       </c>
       <c r="J118" t="n">
-        <v>64505</v>
+        <v>66970</v>
       </c>
       <c r="K118" t="n">
         <v>18735</v>
       </c>
       <c r="L118" t="n">
-        <v>0.09302664794921875</v>
+        <v>0.09327078613281251</v>
       </c>
       <c r="M118" t="b">
         <v>1</v>
@@ -8701,19 +8701,19 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>0.755</v>
+        <v>0.772</v>
       </c>
       <c r="Q118" t="n">
-        <v>0.148</v>
+        <v>0.142</v>
       </c>
       <c r="R118" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="S118" t="n">
         <v>0.008999999999999999</v>
       </c>
       <c r="T118" t="n">
-        <v>-0.382</v>
+        <v>-0.371</v>
       </c>
     </row>
     <row r="119">
@@ -8734,28 +8734,28 @@
         <v>437</v>
       </c>
       <c r="E119" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="F119" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="G119" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.25</v>
+        <v>-0.1500001</v>
       </c>
       <c r="I119" t="n">
-        <v>-14.792898</v>
+        <v>-8.875745</v>
       </c>
       <c r="J119" t="n">
-        <v>140362</v>
+        <v>143392</v>
       </c>
       <c r="K119" t="n">
         <v>17089</v>
       </c>
       <c r="L119" t="n">
-        <v>0.09851975708007812</v>
+        <v>0.09412526977539062</v>
       </c>
       <c r="M119" t="b">
         <v>1</v>
@@ -8771,19 +8771,19 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>0.582</v>
+        <v>0.608</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.173</v>
+        <v>0.178</v>
       </c>
       <c r="R119" t="n">
-        <v>0.089</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="S119" t="n">
         <v>0.007</v>
       </c>
       <c r="T119" t="n">
-        <v>-0.477</v>
+        <v>-0.452</v>
       </c>
     </row>
     <row r="120">
@@ -8804,28 +8804,28 @@
         <v>438</v>
       </c>
       <c r="E120" t="n">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="F120" t="n">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="G120" t="n">
-        <v>0.98</v>
+        <v>1.05</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.25</v>
+        <v>-0.19000006</v>
       </c>
       <c r="I120" t="n">
-        <v>-20.325203</v>
+        <v>-15.447159</v>
       </c>
       <c r="J120" t="n">
-        <v>163618</v>
+        <v>167479</v>
       </c>
       <c r="K120" t="n">
         <v>21427</v>
       </c>
       <c r="L120" t="n">
-        <v>0.098641826171875</v>
+        <v>0.09888596435546876</v>
       </c>
       <c r="M120" t="b">
         <v>0</v>
@@ -8841,19 +8841,19 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>0.407</v>
+        <v>0.428</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.172</v>
+        <v>0.173</v>
       </c>
       <c r="R120" t="n">
-        <v>0.089</v>
+        <v>0.09</v>
       </c>
       <c r="S120" t="n">
         <v>0.005</v>
       </c>
       <c r="T120" t="n">
-        <v>-0.464</v>
+        <v>-0.471</v>
       </c>
     </row>
     <row r="121">
@@ -8874,28 +8874,28 @@
         <v>439</v>
       </c>
       <c r="E121" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F121" t="n">
         <v>0.64</v>
       </c>
-      <c r="F121" t="n">
-        <v>0.63</v>
-      </c>
       <c r="G121" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.21000004</v>
+        <v>-0.19</v>
       </c>
       <c r="I121" t="n">
-        <v>-24.705887</v>
+        <v>-22.35294</v>
       </c>
       <c r="J121" t="n">
-        <v>70625</v>
+        <v>71417</v>
       </c>
       <c r="K121" t="n">
         <v>16838</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1003507934570312</v>
+        <v>0.09693285888671876</v>
       </c>
       <c r="M121" t="b">
         <v>0</v>
@@ -8911,19 +8911,19 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>0.253</v>
+        <v>0.263</v>
       </c>
       <c r="Q121" t="n">
-        <v>0.139</v>
+        <v>0.147</v>
       </c>
       <c r="R121" t="n">
-        <v>0.073</v>
+        <v>0.075</v>
       </c>
       <c r="S121" t="n">
         <v>0.003</v>
       </c>
       <c r="T121" t="n">
-        <v>-0.383</v>
+        <v>-0.379</v>
       </c>
     </row>
     <row r="122">
@@ -8944,28 +8944,28 @@
         <v>440</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="F122" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="G122" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.16999999</v>
+        <v>-0.15</v>
       </c>
       <c r="I122" t="n">
-        <v>-29.82456</v>
+        <v>-26.31579</v>
       </c>
       <c r="J122" t="n">
-        <v>85538</v>
+        <v>87395</v>
       </c>
       <c r="K122" t="n">
         <v>38206</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1020597607421875</v>
+        <v>0.100594931640625</v>
       </c>
       <c r="M122" t="b">
         <v>0</v>
@@ -8981,19 +8981,19 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>0.14</v>
+        <v>0.148</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.095</v>
+        <v>0.1</v>
       </c>
       <c r="R122" t="n">
-        <v>0.051</v>
+        <v>0.053</v>
       </c>
       <c r="S122" t="n">
         <v>0.002</v>
       </c>
       <c r="T122" t="n">
-        <v>-0.269</v>
+        <v>-0.276</v>
       </c>
     </row>
     <row r="123">
@@ -9014,28 +9014,28 @@
         <v>441</v>
       </c>
       <c r="E123" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F123" t="n">
         <v>0.24</v>
       </c>
-      <c r="F123" t="n">
-        <v>0.22</v>
-      </c>
       <c r="G123" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="H123" t="n">
-        <v>-0.13000001</v>
+        <v>-0.120000005</v>
       </c>
       <c r="I123" t="n">
-        <v>-35.13514</v>
+        <v>-32.432434</v>
       </c>
       <c r="J123" t="n">
-        <v>29711</v>
+        <v>31504</v>
       </c>
       <c r="K123" t="n">
         <v>13128</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1020597607421875</v>
+        <v>0.1018156225585937</v>
       </c>
       <c r="M123" t="b">
         <v>0</v>
@@ -9051,19 +9051,19 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>0.066</v>
+        <v>0.073</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.055</v>
+        <v>0.059</v>
       </c>
       <c r="R123" t="n">
-        <v>0.029</v>
+        <v>0.032</v>
       </c>
       <c r="S123" t="n">
         <v>0.001</v>
       </c>
       <c r="T123" t="n">
-        <v>-0.154</v>
+        <v>-0.165</v>
       </c>
     </row>
     <row r="124">
@@ -9084,28 +9084,28 @@
         <v>442</v>
       </c>
       <c r="E124" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F124" t="n">
         <v>0.14</v>
       </c>
-      <c r="F124" t="n">
-        <v>0.13</v>
-      </c>
       <c r="G124" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.08</v>
+        <v>-0.06999999</v>
       </c>
       <c r="I124" t="n">
-        <v>-36.363636</v>
+        <v>-31.818178</v>
       </c>
       <c r="J124" t="n">
-        <v>32111</v>
+        <v>32294</v>
       </c>
       <c r="K124" t="n">
         <v>36827</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1054776953125</v>
+        <v>0.1047452807617187</v>
       </c>
       <c r="M124" t="b">
         <v>0</v>
@@ -9121,19 +9121,19 @@
         </is>
       </c>
       <c r="P124" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="Q124" t="n">
         <v>0.031</v>
       </c>
-      <c r="Q124" t="n">
-        <v>0.029</v>
-      </c>
       <c r="R124" t="n">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
       </c>
       <c r="T124" t="n">
-        <v>-0.08599999999999999</v>
+        <v>-0.092</v>
       </c>
     </row>
     <row r="125">
@@ -9169,13 +9169,13 @@
         <v>-42.857143</v>
       </c>
       <c r="J125" t="n">
-        <v>13078</v>
+        <v>13143</v>
       </c>
       <c r="K125" t="n">
         <v>7898</v>
       </c>
       <c r="L125" t="n">
-        <v>0.110360458984375</v>
+        <v>0.1079190771484375</v>
       </c>
       <c r="M125" t="b">
         <v>0</v>
@@ -9203,7 +9203,7 @@
         <v>0</v>
       </c>
       <c r="T125" t="n">
-        <v>-0.048</v>
+        <v>-0.047</v>
       </c>
     </row>
     <row r="126">
@@ -9224,7 +9224,7 @@
         <v>444</v>
       </c>
       <c r="E126" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F126" t="n">
         <v>0.05</v>
@@ -9233,19 +9233,19 @@
         <v>0.06</v>
       </c>
       <c r="H126" t="n">
-        <v>-0.029999997</v>
+        <v>-0.02</v>
       </c>
       <c r="I126" t="n">
-        <v>-37.499996</v>
+        <v>-25</v>
       </c>
       <c r="J126" t="n">
-        <v>8924</v>
+        <v>9355</v>
       </c>
       <c r="K126" t="n">
         <v>6936</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1157314990234375</v>
+        <v>0.1132901171875</v>
       </c>
       <c r="M126" t="b">
         <v>0</v>
@@ -9273,7 +9273,7 @@
         <v>0</v>
       </c>
       <c r="T126" t="n">
-        <v>-0.027</v>
+        <v>-0.026</v>
       </c>
     </row>
     <row r="127">
@@ -9309,13 +9309,13 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>6837</v>
+        <v>6903</v>
       </c>
       <c r="K127" t="n">
         <v>21998</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1211025390625</v>
+        <v>0.11914943359375</v>
       </c>
       <c r="M127" t="b">
         <v>0</v>
@@ -9364,7 +9364,7 @@
         <v>446</v>
       </c>
       <c r="E128" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F128" t="n">
         <v>0.02</v>
@@ -9373,19 +9373,19 @@
         <v>0.03</v>
       </c>
       <c r="H128" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>-33.333336</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>4037</v>
+        <v>4058</v>
       </c>
       <c r="K128" t="n">
         <v>6800</v>
       </c>
       <c r="L128" t="n">
-        <v>0.127938408203125</v>
+        <v>0.125985302734375</v>
       </c>
       <c r="M128" t="b">
         <v>0</v>
@@ -9449,13 +9449,13 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>1160</v>
+        <v>1169</v>
       </c>
       <c r="K129" t="n">
         <v>5261</v>
       </c>
       <c r="L129" t="n">
-        <v>0.132821171875</v>
+        <v>0.13086806640625</v>
       </c>
       <c r="M129" t="b">
         <v>0</v>
@@ -9504,7 +9504,7 @@
         <v>448</v>
       </c>
       <c r="E130" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F130" t="n">
         <v>0.01</v>
@@ -9513,19 +9513,19 @@
         <v>0.02</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="J130" t="n">
-        <v>1225</v>
+        <v>1263</v>
       </c>
       <c r="K130" t="n">
         <v>5857</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1445398046875</v>
+        <v>0.14258669921875</v>
       </c>
       <c r="M130" t="b">
         <v>0</v>
@@ -9595,7 +9595,7 @@
         <v>4764</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1445398046875</v>
+        <v>0.14063359375</v>
       </c>
       <c r="M131" t="b">
         <v>0</v>
@@ -9623,7 +9623,7 @@
         <v>0</v>
       </c>
       <c r="T131" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="132">
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>1488</v>
+        <v>1494</v>
       </c>
       <c r="K132" t="n">
         <v>34672</v>
@@ -9693,7 +9693,7 @@
         <v>0</v>
       </c>
       <c r="T132" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="133">
@@ -9763,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="T133" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="134">
@@ -9805,7 +9805,7 @@
         <v>8042</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1757894921875</v>
+        <v>0.17188328125</v>
       </c>
       <c r="M134" t="b">
         <v>0</v>
@@ -10015,7 +10015,7 @@
         <v>15026</v>
       </c>
       <c r="L137" t="n">
-        <v>0.2070391796875</v>
+        <v>0.20313296875</v>
       </c>
       <c r="M137" t="b">
         <v>0</v>
@@ -10155,7 +10155,7 @@
         <v>256</v>
       </c>
       <c r="L139" t="n">
-        <v>0.226570234375</v>
+        <v>0.2226640234375</v>
       </c>
       <c r="M139" t="b">
         <v>0</v>
@@ -10295,7 +10295,7 @@
         <v>377</v>
       </c>
       <c r="L141" t="n">
-        <v>0.2461012890625</v>
+        <v>0.242195078125</v>
       </c>
       <c r="M141" t="b">
         <v>0</v>
@@ -10365,7 +10365,7 @@
         <v>70387</v>
       </c>
       <c r="L142" t="n">
-        <v>0.257819921875</v>
+        <v>0.2539137109375</v>
       </c>
       <c r="M142" t="b">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>2740</v>
       </c>
       <c r="L144" t="n">
-        <v>0.29688203125</v>
+        <v>0.2929758203124999</v>
       </c>
       <c r="M144" t="b">
         <v>0</v>
@@ -10715,7 +10715,7 @@
         <v>531</v>
       </c>
       <c r="L147" t="n">
-        <v>0.3320379296875</v>
+        <v>0.32813171875</v>
       </c>
       <c r="M147" t="b">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>267</v>
       </c>
       <c r="L150" t="n">
-        <v>0.39063109375</v>
+        <v>0.3867248828124999</v>
       </c>
       <c r="M150" t="b">
         <v>0</v>
@@ -11203,7 +11203,7 @@
         <v>3662</v>
       </c>
       <c r="L154" t="n">
-        <v>0.445318046875</v>
+        <v>0.437505625</v>
       </c>
       <c r="M154" t="b">
         <v>0</v>
@@ -11833,7 +11833,7 @@
         <v>19758</v>
       </c>
       <c r="L163" t="n">
-        <v>0.7812521875</v>
+        <v>0.7656273437500001</v>
       </c>
       <c r="M163" t="b">
         <v>0</v>
@@ -11903,7 +11903,7 @@
         <v>688</v>
       </c>
       <c r="L164" t="n">
-        <v>0.85937640625</v>
+        <v>0.851563984375</v>
       </c>
       <c r="M164" t="b">
         <v>0</v>

--- a/calls_output.xlsx
+++ b/calls_output.xlsx
@@ -551,10 +551,10 @@
         <v>182.25</v>
       </c>
       <c r="F2" t="n">
-        <v>182.01</v>
+        <v>182.42</v>
       </c>
       <c r="G2" t="n">
-        <v>182.26</v>
+        <v>182.68</v>
       </c>
       <c r="H2" t="n">
         <v>0.5299988</v>
@@ -691,10 +691,10 @@
         <v>166.37</v>
       </c>
       <c r="F4" t="n">
-        <v>172.04</v>
+        <v>172.45</v>
       </c>
       <c r="G4" t="n">
-        <v>172.3</v>
+        <v>172.7</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1e-05</v>
+        <v>2.1250046875</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
@@ -761,10 +761,10 @@
         <v>169.74</v>
       </c>
       <c r="F5" t="n">
-        <v>167.04</v>
+        <v>167.55</v>
       </c>
       <c r="G5" t="n">
-        <v>167.3</v>
+        <v>167.89</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>1e-05</v>
+        <v>2.24219189453125</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
@@ -807,7 +807,7 @@
         <v>0.007</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.039</v>
+        <v>-0.041</v>
       </c>
     </row>
     <row r="6">
@@ -831,10 +831,10 @@
         <v>166.53</v>
       </c>
       <c r="F6" t="n">
-        <v>162.11</v>
+        <v>162.48</v>
       </c>
       <c r="G6" t="n">
-        <v>162.38</v>
+        <v>162.72</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1e-05</v>
+        <v>2.16406708984375</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
@@ -877,7 +877,7 @@
         <v>0.008</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.04</v>
+        <v>-0.041</v>
       </c>
     </row>
     <row r="7">
@@ -901,10 +901,10 @@
         <v>160.69</v>
       </c>
       <c r="F7" t="n">
-        <v>157.04</v>
+        <v>157.54</v>
       </c>
       <c r="G7" t="n">
-        <v>157.29</v>
+        <v>157.9</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1e-05</v>
+        <v>2.085942285156249</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
@@ -947,7 +947,7 @@
         <v>0.008</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.04</v>
+        <v>-0.042</v>
       </c>
     </row>
     <row r="8">
@@ -971,10 +971,10 @@
         <v>156.53</v>
       </c>
       <c r="F8" t="n">
-        <v>152.06</v>
+        <v>152.48</v>
       </c>
       <c r="G8" t="n">
-        <v>152.3</v>
+        <v>152.74</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1e-05</v>
+        <v>2.1093797265625</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
@@ -1017,7 +1017,7 @@
         <v>0.008</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.041</v>
+        <v>-0.045</v>
       </c>
     </row>
     <row r="9">
@@ -1111,10 +1111,10 @@
         <v>127.3</v>
       </c>
       <c r="F10" t="n">
-        <v>142.15</v>
+        <v>142.46</v>
       </c>
       <c r="G10" t="n">
-        <v>142.38</v>
+        <v>142.86</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1e-05</v>
+        <v>2.236332534179687</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
@@ -1157,7 +1157,7 @@
         <v>0.008</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.042</v>
+        <v>-0.07099999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -1181,10 +1181,10 @@
         <v>134.86</v>
       </c>
       <c r="F11" t="n">
-        <v>137.07</v>
+        <v>137.49</v>
       </c>
       <c r="G11" t="n">
-        <v>137.31</v>
+        <v>137.75</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>12</v>
       </c>
       <c r="L11" t="n">
-        <v>1e-05</v>
+        <v>1.9140629296875</v>
       </c>
       <c r="M11" t="b">
         <v>1</v>
@@ -1227,7 +1227,7 @@
         <v>0.008</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.043</v>
+        <v>-0.049</v>
       </c>
     </row>
     <row r="12">
@@ -1251,10 +1251,10 @@
         <v>129.25</v>
       </c>
       <c r="F12" t="n">
-        <v>132.07</v>
+        <v>132.6</v>
       </c>
       <c r="G12" t="n">
-        <v>132.3</v>
+        <v>132.92</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>1e-05</v>
+        <v>1.8671881640625</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
@@ -1297,7 +1297,7 @@
         <v>0.008</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.044</v>
+        <v>-0.052</v>
       </c>
     </row>
     <row r="13">
@@ -1321,10 +1321,10 @@
         <v>121.41</v>
       </c>
       <c r="F13" t="n">
-        <v>127.1</v>
+        <v>127.52</v>
       </c>
       <c r="G13" t="n">
-        <v>127.38</v>
+        <v>127.8</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1e-05</v>
+        <v>1.87890685546875</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
@@ -1367,7 +1367,7 @@
         <v>0.008</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.045</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="14">
@@ -1391,10 +1391,10 @@
         <v>122.01</v>
       </c>
       <c r="F14" t="n">
-        <v>122.08</v>
+        <v>122.49</v>
       </c>
       <c r="G14" t="n">
-        <v>122.32</v>
+        <v>122.74</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1e-05</v>
+        <v>1.65234548828125</v>
       </c>
       <c r="M14" t="b">
         <v>1</v>
@@ -1437,7 +1437,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.045</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="15">
@@ -1461,10 +1461,10 @@
         <v>114.84</v>
       </c>
       <c r="F15" t="n">
-        <v>117.08</v>
+        <v>117.51</v>
       </c>
       <c r="G15" t="n">
-        <v>117.31</v>
+        <v>117.75</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>12</v>
       </c>
       <c r="L15" t="n">
-        <v>1e-05</v>
+        <v>1.609376953125</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
@@ -1507,7 +1507,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.046</v>
+        <v>-0.052</v>
       </c>
     </row>
     <row r="16">
@@ -1531,10 +1531,10 @@
         <v>111.8</v>
       </c>
       <c r="F16" t="n">
-        <v>112.15</v>
+        <v>112.55</v>
       </c>
       <c r="G16" t="n">
-        <v>112.41</v>
+        <v>112.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1e-05</v>
+        <v>1.646486142578125</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
@@ -1577,7 +1577,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.047</v>
+        <v>-0.063</v>
       </c>
     </row>
     <row r="17">
@@ -1601,10 +1601,10 @@
         <v>103.11</v>
       </c>
       <c r="F17" t="n">
-        <v>107.16</v>
+        <v>107.62</v>
       </c>
       <c r="G17" t="n">
-        <v>107.37</v>
+        <v>107.88</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>6</v>
       </c>
       <c r="L17" t="n">
-        <v>1e-05</v>
+        <v>1.46484642578125</v>
       </c>
       <c r="M17" t="b">
         <v>1</v>
@@ -1647,7 +1647,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.047</v>
+        <v>-0.054</v>
       </c>
     </row>
     <row r="18">
@@ -1671,10 +1671,10 @@
         <v>99.83</v>
       </c>
       <c r="F18" t="n">
-        <v>102.09</v>
+        <v>102.62</v>
       </c>
       <c r="G18" t="n">
-        <v>102.33</v>
+        <v>102.89</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>20</v>
       </c>
       <c r="L18" t="n">
-        <v>1e-05</v>
+        <v>1.40625296875</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
@@ -1717,7 +1717,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.048</v>
+        <v>-0.056</v>
       </c>
     </row>
     <row r="19">
@@ -1741,10 +1741,10 @@
         <v>100.75</v>
       </c>
       <c r="F19" t="n">
-        <v>100.16</v>
+        <v>100.48</v>
       </c>
       <c r="G19" t="n">
-        <v>100.38</v>
+        <v>100.73</v>
       </c>
       <c r="H19" t="n">
         <v>4.5699997</v>
@@ -1759,7 +1759,7 @@
         <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>1e-05</v>
+        <v>1.3125034375</v>
       </c>
       <c r="M19" t="b">
         <v>1</v>
@@ -1787,7 +1787,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.048</v>
+        <v>-0.052</v>
       </c>
     </row>
     <row r="20">
@@ -1811,10 +1811,10 @@
         <v>95.20999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>99.16</v>
+        <v>99.69</v>
       </c>
       <c r="G20" t="n">
-        <v>99.42</v>
+        <v>99.95</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1829,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>1e-05</v>
+        <v>1.48047134765625</v>
       </c>
       <c r="M20" t="b">
         <v>1</v>
@@ -1857,7 +1857,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.049</v>
+        <v>-0.07099999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1881,10 +1881,10 @@
         <v>98.77</v>
       </c>
       <c r="F21" t="n">
-        <v>98.11</v>
+        <v>98.51000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>98.39</v>
+        <v>98.76000000000001</v>
       </c>
       <c r="H21" t="n">
         <v>14.119995</v>
@@ -1899,7 +1899,7 @@
         <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>1e-05</v>
+        <v>1.36328443359375</v>
       </c>
       <c r="M21" t="b">
         <v>1</v>
@@ -1927,7 +1927,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.049</v>
+        <v>-0.058</v>
       </c>
     </row>
     <row r="22">
@@ -1951,10 +1951,10 @@
         <v>96.63</v>
       </c>
       <c r="F22" t="n">
-        <v>97.11</v>
+        <v>97.51000000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>97.39</v>
+        <v>97.76000000000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>7</v>
       </c>
       <c r="L22" t="n">
-        <v>1e-05</v>
+        <v>1.34765951171875</v>
       </c>
       <c r="M22" t="b">
         <v>1</v>
@@ -1997,7 +1997,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.049</v>
+        <v>-0.058</v>
       </c>
     </row>
     <row r="23">
@@ -2299,10 +2299,10 @@
         <v>97.31999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>92.17</v>
+        <v>92.63</v>
       </c>
       <c r="G27" t="n">
-        <v>92.38</v>
+        <v>92.89</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>1e-05</v>
+        <v>1.27734736328125</v>
       </c>
       <c r="M27" t="b">
         <v>1</v>
@@ -2345,7 +2345,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.05</v>
+        <v>-0.059</v>
       </c>
     </row>
     <row r="28">
@@ -2577,10 +2577,10 @@
         <v>93.37</v>
       </c>
       <c r="F31" t="n">
-        <v>88.13</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>88.34999999999999</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1e-05</v>
+        <v>1.19922275390625</v>
       </c>
       <c r="M31" t="b">
         <v>1</v>
@@ -2623,7 +2623,7 @@
         <v>0.01</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.05</v>
+        <v>-0.057</v>
       </c>
     </row>
     <row r="32">
@@ -2644,28 +2644,28 @@
         <v>350</v>
       </c>
       <c r="E32" t="n">
-        <v>87.59</v>
+        <v>87.61</v>
       </c>
       <c r="F32" t="n">
-        <v>87.09</v>
+        <v>87.55</v>
       </c>
       <c r="G32" t="n">
-        <v>87.34999999999999</v>
+        <v>87.84</v>
       </c>
       <c r="H32" t="n">
-        <v>1.6299973</v>
+        <v>1.6500015</v>
       </c>
       <c r="I32" t="n">
-        <v>1.8962276</v>
+        <v>1.9194993</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K32" t="n">
         <v>46</v>
       </c>
       <c r="L32" t="n">
-        <v>1e-05</v>
+        <v>0.937500625</v>
       </c>
       <c r="M32" t="b">
         <v>1</v>
@@ -2717,10 +2717,10 @@
         <v>79.75</v>
       </c>
       <c r="F33" t="n">
-        <v>86.17</v>
+        <v>86.52</v>
       </c>
       <c r="G33" t="n">
-        <v>86.39</v>
+        <v>86.77</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>1e-05</v>
+        <v>1.2109414453125</v>
       </c>
       <c r="M33" t="b">
         <v>1</v>
@@ -2763,7 +2763,7 @@
         <v>0.01</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.05</v>
+        <v>-0.062</v>
       </c>
     </row>
     <row r="34">
@@ -2787,10 +2787,10 @@
         <v>90.48999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>85.17</v>
+        <v>85.64</v>
       </c>
       <c r="G34" t="n">
-        <v>85.43000000000001</v>
+        <v>85.84999999999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2805,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>1e-05</v>
+        <v>1.1484417578125</v>
       </c>
       <c r="M34" t="b">
         <v>1</v>
@@ -2833,7 +2833,7 @@
         <v>0.01</v>
       </c>
       <c r="T34" t="n">
-        <v>-0.051</v>
+        <v>-0.057</v>
       </c>
     </row>
     <row r="35">
@@ -2857,10 +2857,10 @@
         <v>75.52</v>
       </c>
       <c r="F35" t="n">
-        <v>84.12</v>
+        <v>84.52</v>
       </c>
       <c r="G35" t="n">
-        <v>84.40000000000001</v>
+        <v>84.77</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1e-05</v>
+        <v>1.18359783203125</v>
       </c>
       <c r="M35" t="b">
         <v>1</v>
@@ -2903,7 +2903,7 @@
         <v>0.01</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.051</v>
+        <v>-0.062</v>
       </c>
     </row>
     <row r="36">
@@ -2945,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>2.199711531982421</v>
+        <v>2.166752630004883</v>
       </c>
       <c r="M36" t="b">
         <v>1</v>
@@ -2961,19 +2961,19 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.971</v>
+        <v>0.973</v>
       </c>
       <c r="Q36" t="n">
         <v>0.001</v>
       </c>
       <c r="R36" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="S36" t="n">
         <v>0.008999999999999999</v>
       </c>
       <c r="T36" t="n">
-        <v>-1.706</v>
+        <v>-1.591</v>
       </c>
     </row>
     <row r="37">
@@ -2997,10 +2997,10 @@
         <v>88.51000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>82.11</v>
+        <v>82.56</v>
       </c>
       <c r="G37" t="n">
-        <v>82.34999999999999</v>
+        <v>82.83</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>5</v>
       </c>
       <c r="L37" t="n">
-        <v>1e-05</v>
+        <v>0.87500125</v>
       </c>
       <c r="M37" t="b">
         <v>1</v>
@@ -3067,10 +3067,10 @@
         <v>81.72</v>
       </c>
       <c r="F38" t="n">
-        <v>81.11</v>
+        <v>81.52</v>
       </c>
       <c r="G38" t="n">
-        <v>81.34999999999999</v>
+        <v>81.77</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1e-05</v>
+        <v>1.142582412109375</v>
       </c>
       <c r="M38" t="b">
         <v>1</v>
@@ -3113,7 +3113,7 @@
         <v>0.01</v>
       </c>
       <c r="T38" t="n">
-        <v>-0.051</v>
+        <v>-0.063</v>
       </c>
     </row>
     <row r="39">
@@ -3207,10 +3207,10 @@
         <v>64.67</v>
       </c>
       <c r="F40" t="n">
-        <v>79.18000000000001</v>
+        <v>79.64</v>
       </c>
       <c r="G40" t="n">
-        <v>79.39</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3225,7 +3225,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1e-05</v>
+        <v>1.11328568359375</v>
       </c>
       <c r="M40" t="b">
         <v>1</v>
@@ -3253,7 +3253,7 @@
         <v>0.01</v>
       </c>
       <c r="T40" t="n">
-        <v>-0.051</v>
+        <v>-0.063</v>
       </c>
     </row>
     <row r="41">
@@ -3347,10 +3347,10 @@
         <v>75.97</v>
       </c>
       <c r="F42" t="n">
-        <v>77.09999999999999</v>
+        <v>77.56</v>
       </c>
       <c r="G42" t="n">
-        <v>77.34</v>
+        <v>77.83</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="L42" t="n">
-        <v>1e-05</v>
+        <v>0.8281267187499999</v>
       </c>
       <c r="M42" t="b">
         <v>1</v>
@@ -3627,10 +3627,10 @@
         <v>78.45999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>73.09999999999999</v>
+        <v>73.53</v>
       </c>
       <c r="G46" t="n">
-        <v>73.34</v>
+        <v>73.78</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3645,7 +3645,7 @@
         <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>1e-05</v>
+        <v>1.046879765625</v>
       </c>
       <c r="M46" t="b">
         <v>1</v>
@@ -3673,7 +3673,7 @@
         <v>0.01</v>
       </c>
       <c r="T46" t="n">
-        <v>-0.052</v>
+        <v>-0.067</v>
       </c>
     </row>
     <row r="47">
@@ -3697,10 +3697,10 @@
         <v>67.95999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>72.09999999999999</v>
+        <v>72.55</v>
       </c>
       <c r="G47" t="n">
-        <v>72.34</v>
+        <v>72.84</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>15</v>
       </c>
       <c r="L47" t="n">
-        <v>1e-05</v>
+        <v>0.7812521875</v>
       </c>
       <c r="M47" t="b">
         <v>1</v>
@@ -3743,7 +3743,7 @@
         <v>0.01</v>
       </c>
       <c r="T47" t="n">
-        <v>-0.052</v>
+        <v>-0.053</v>
       </c>
     </row>
     <row r="48">
@@ -3767,10 +3767,10 @@
         <v>71.03</v>
       </c>
       <c r="F48" t="n">
-        <v>71.13</v>
+        <v>71.53</v>
       </c>
       <c r="G48" t="n">
-        <v>71.41</v>
+        <v>71.78</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>1e-05</v>
+        <v>1.01953615234375</v>
       </c>
       <c r="M48" t="b">
         <v>1</v>
@@ -3813,7 +3813,7 @@
         <v>0.01</v>
       </c>
       <c r="T48" t="n">
-        <v>-0.053</v>
+        <v>-0.068</v>
       </c>
     </row>
     <row r="49">
@@ -3855,7 +3855,7 @@
         <v>13</v>
       </c>
       <c r="L49" t="n">
-        <v>0.8281267187499999</v>
+        <v>1.126957490234375</v>
       </c>
       <c r="M49" t="b">
         <v>1</v>
@@ -3871,19 +3871,19 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S49" t="n">
         <v>0.01</v>
       </c>
       <c r="T49" t="n">
-        <v>-0.054</v>
+        <v>-0.107</v>
       </c>
     </row>
     <row r="50">
@@ -3907,10 +3907,10 @@
         <v>68.55</v>
       </c>
       <c r="F50" t="n">
-        <v>69.11</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>69.34</v>
+        <v>69.84</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3925,7 +3925,7 @@
         <v>3</v>
       </c>
       <c r="L50" t="n">
-        <v>1e-05</v>
+        <v>0.8125018749999999</v>
       </c>
       <c r="M50" t="b">
         <v>1</v>
@@ -3953,7 +3953,7 @@
         <v>0.01</v>
       </c>
       <c r="T50" t="n">
-        <v>-0.053</v>
+        <v>-0.054</v>
       </c>
     </row>
     <row r="51">
@@ -3977,10 +3977,10 @@
         <v>73.09</v>
       </c>
       <c r="F51" t="n">
-        <v>68.11</v>
+        <v>68.65000000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>68.37</v>
+        <v>68.91</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>2</v>
       </c>
       <c r="L51" t="n">
-        <v>1e-05</v>
+        <v>0.9785158398437501</v>
       </c>
       <c r="M51" t="b">
         <v>1</v>
@@ -4023,7 +4023,7 @@
         <v>0.01</v>
       </c>
       <c r="T51" t="n">
-        <v>-0.053</v>
+        <v>-0.06900000000000001</v>
       </c>
     </row>
     <row r="52">
@@ -4044,28 +4044,28 @@
         <v>370</v>
       </c>
       <c r="E52" t="n">
-        <v>65.95999999999999</v>
+        <v>67.66</v>
       </c>
       <c r="F52" t="n">
-        <v>67.11</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="G52" t="n">
-        <v>67.36</v>
+        <v>67.91</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1.7000046</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2.5773265</v>
       </c>
       <c r="J52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K52" t="n">
         <v>34</v>
       </c>
       <c r="L52" t="n">
-        <v>1e-05</v>
+        <v>0.9648441015625</v>
       </c>
       <c r="M52" t="b">
         <v>1</v>
@@ -4093,7 +4093,7 @@
         <v>0.01</v>
       </c>
       <c r="T52" t="n">
-        <v>-0.053</v>
+        <v>-0.06900000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -4117,10 +4117,10 @@
         <v>72.03</v>
       </c>
       <c r="F53" t="n">
-        <v>66.19</v>
+        <v>66.65000000000001</v>
       </c>
       <c r="G53" t="n">
-        <v>66.40000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>1e-05</v>
+        <v>0.9511723632812499</v>
       </c>
       <c r="M53" t="b">
         <v>1</v>
@@ -4163,7 +4163,7 @@
         <v>0.01</v>
       </c>
       <c r="T53" t="n">
-        <v>-0.053</v>
+        <v>-0.06900000000000001</v>
       </c>
     </row>
     <row r="54">
@@ -4257,10 +4257,10 @@
         <v>63.18</v>
       </c>
       <c r="F55" t="n">
-        <v>64.11</v>
+        <v>64.56999999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>64.34999999999999</v>
+        <v>64.84</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4275,7 +4275,7 @@
         <v>2</v>
       </c>
       <c r="L55" t="n">
-        <v>1e-05</v>
+        <v>0.7578149218750001</v>
       </c>
       <c r="M55" t="b">
         <v>1</v>
@@ -4303,7 +4303,7 @@
         <v>0.01</v>
       </c>
       <c r="T55" t="n">
-        <v>-0.054</v>
+        <v>-0.055</v>
       </c>
     </row>
     <row r="56">
@@ -4327,10 +4327,10 @@
         <v>49.11</v>
       </c>
       <c r="F56" t="n">
-        <v>63.13</v>
+        <v>63.66</v>
       </c>
       <c r="G56" t="n">
-        <v>63.35</v>
+        <v>63.98</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4345,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>1e-05</v>
+        <v>0.95507857421875</v>
       </c>
       <c r="M56" t="b">
         <v>1</v>
@@ -4361,19 +4361,19 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S56" t="n">
         <v>0.01</v>
       </c>
       <c r="T56" t="n">
-        <v>-0.054</v>
+        <v>-0.082</v>
       </c>
     </row>
     <row r="57">
@@ -4397,10 +4397,10 @@
         <v>68.31</v>
       </c>
       <c r="F57" t="n">
-        <v>62.11</v>
+        <v>62.54</v>
       </c>
       <c r="G57" t="n">
-        <v>62.37</v>
+        <v>62.79</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4415,7 +4415,7 @@
         <v>3</v>
       </c>
       <c r="L57" t="n">
-        <v>1e-05</v>
+        <v>0.9082040429687499</v>
       </c>
       <c r="M57" t="b">
         <v>1</v>
@@ -4431,7 +4431,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>0.01</v>
       </c>
       <c r="T57" t="n">
-        <v>-0.054</v>
+        <v>-0.073</v>
       </c>
     </row>
     <row r="58">
@@ -4467,10 +4467,10 @@
         <v>60.19</v>
       </c>
       <c r="F58" t="n">
-        <v>61.13</v>
+        <v>61.72</v>
       </c>
       <c r="G58" t="n">
-        <v>61.36</v>
+        <v>61.92</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4485,7 +4485,7 @@
         <v>1</v>
       </c>
       <c r="L58" t="n">
-        <v>1e-05</v>
+        <v>0.9257819921875</v>
       </c>
       <c r="M58" t="b">
         <v>1</v>
@@ -4501,19 +4501,19 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S58" t="n">
         <v>0.01</v>
       </c>
       <c r="T58" t="n">
-        <v>-0.054</v>
+        <v>-0.083</v>
       </c>
     </row>
     <row r="59">
@@ -4537,10 +4537,10 @@
         <v>59.51</v>
       </c>
       <c r="F59" t="n">
-        <v>60.11</v>
+        <v>60.64</v>
       </c>
       <c r="G59" t="n">
-        <v>60.35</v>
+        <v>60.87</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>1e-05</v>
+        <v>0.8339860351562498</v>
       </c>
       <c r="M59" t="b">
         <v>1</v>
@@ -4583,7 +4583,7 @@
         <v>0.01</v>
       </c>
       <c r="T59" t="n">
-        <v>-0.054</v>
+        <v>-0.064</v>
       </c>
     </row>
     <row r="60">
@@ -4607,10 +4607,10 @@
         <v>58.56</v>
       </c>
       <c r="F60" t="n">
-        <v>59.12</v>
+        <v>59.66</v>
       </c>
       <c r="G60" t="n">
-        <v>59.35</v>
+        <v>59.89</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>1e-05</v>
+        <v>0.8476577734374999</v>
       </c>
       <c r="M60" t="b">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         <v>0.01</v>
       </c>
       <c r="T60" t="n">
-        <v>-0.054</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="61">
@@ -4677,10 +4677,10 @@
         <v>57.86</v>
       </c>
       <c r="F61" t="n">
-        <v>58.1</v>
+        <v>58.65</v>
       </c>
       <c r="G61" t="n">
-        <v>58.34</v>
+        <v>58.89</v>
       </c>
       <c r="H61" t="n">
         <v>0.3199997</v>
@@ -4695,7 +4695,7 @@
         <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>1e-05</v>
+        <v>0.8281267187499999</v>
       </c>
       <c r="M61" t="b">
         <v>1</v>
@@ -4723,7 +4723,7 @@
         <v>0.01</v>
       </c>
       <c r="T61" t="n">
-        <v>-0.055</v>
+        <v>-0.06900000000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4747,10 +4747,10 @@
         <v>57.38</v>
       </c>
       <c r="F62" t="n">
-        <v>57.16</v>
+        <v>57.54</v>
       </c>
       <c r="G62" t="n">
-        <v>57.46</v>
+        <v>57.79</v>
       </c>
       <c r="H62" t="n">
         <v>1.5400009</v>
@@ -4765,7 +4765,7 @@
         <v>68</v>
       </c>
       <c r="L62" t="n">
-        <v>1e-05</v>
+        <v>0.8398453515625</v>
       </c>
       <c r="M62" t="b">
         <v>1</v>
@@ -4781,7 +4781,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="Q62" t="n">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         <v>0.01</v>
       </c>
       <c r="T62" t="n">
-        <v>-0.055</v>
+        <v>-0.075</v>
       </c>
     </row>
     <row r="63">
@@ -4817,10 +4817,10 @@
         <v>49.22</v>
       </c>
       <c r="F63" t="n">
-        <v>56.16</v>
+        <v>56.76</v>
       </c>
       <c r="G63" t="n">
-        <v>56.39</v>
+        <v>57.03</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>1e-05</v>
+        <v>0.9140633593750001</v>
       </c>
       <c r="M63" t="b">
         <v>1</v>
@@ -4851,19 +4851,19 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="Q63" t="n">
         <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S63" t="n">
         <v>0.01</v>
       </c>
       <c r="T63" t="n">
-        <v>-0.055</v>
+        <v>-0.113</v>
       </c>
     </row>
     <row r="64">
@@ -4887,10 +4887,10 @@
         <v>58.71</v>
       </c>
       <c r="F64" t="n">
-        <v>55.13</v>
+        <v>55.56</v>
       </c>
       <c r="G64" t="n">
-        <v>55.38</v>
+        <v>55.79</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4905,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>1e-05</v>
+        <v>0.8125018749999999</v>
       </c>
       <c r="M64" t="b">
         <v>1</v>
@@ -4921,19 +4921,19 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S64" t="n">
         <v>0.01</v>
       </c>
       <c r="T64" t="n">
-        <v>-0.055</v>
+        <v>-0.075</v>
       </c>
     </row>
     <row r="65">
@@ -4957,10 +4957,10 @@
         <v>59.92</v>
       </c>
       <c r="F65" t="n">
-        <v>54.2</v>
+        <v>54.66</v>
       </c>
       <c r="G65" t="n">
-        <v>54.41</v>
+        <v>54.92</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4975,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>1e-05</v>
+        <v>0.79883013671875</v>
       </c>
       <c r="M65" t="b">
         <v>1</v>
@@ -4991,19 +4991,19 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S65" t="n">
         <v>0.01</v>
       </c>
       <c r="T65" t="n">
-        <v>-0.055</v>
+        <v>-0.076</v>
       </c>
     </row>
     <row r="66">
@@ -5027,10 +5027,10 @@
         <v>58.15</v>
       </c>
       <c r="F66" t="n">
-        <v>53.2</v>
+        <v>53.57</v>
       </c>
       <c r="G66" t="n">
-        <v>53.41</v>
+        <v>53.82</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5045,7 +5045,7 @@
         <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>1e-05</v>
+        <v>0.5625043750000001</v>
       </c>
       <c r="M66" t="b">
         <v>1</v>
@@ -5097,10 +5097,10 @@
         <v>51.46</v>
       </c>
       <c r="F67" t="n">
-        <v>52.14</v>
+        <v>52.67</v>
       </c>
       <c r="G67" t="n">
-        <v>52.36</v>
+        <v>52.93</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5115,7 +5115,7 @@
         <v>21</v>
       </c>
       <c r="L67" t="n">
-        <v>1e-05</v>
+        <v>0.7812521875</v>
       </c>
       <c r="M67" t="b">
         <v>1</v>
@@ -5131,19 +5131,19 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S67" t="n">
         <v>0.011</v>
       </c>
       <c r="T67" t="n">
-        <v>-0.055</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="68">
@@ -5167,10 +5167,10 @@
         <v>50.32</v>
       </c>
       <c r="F68" t="n">
-        <v>51.14</v>
+        <v>51.63</v>
       </c>
       <c r="G68" t="n">
-        <v>51.37</v>
+        <v>51.93</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5185,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>1e-05</v>
+        <v>0.7460962890625</v>
       </c>
       <c r="M68" t="b">
         <v>1</v>
@@ -5201,7 +5201,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
@@ -5213,7 +5213,7 @@
         <v>0.011</v>
       </c>
       <c r="T68" t="n">
-        <v>-0.056</v>
+        <v>-0.073</v>
       </c>
     </row>
     <row r="69">
@@ -5237,10 +5237,10 @@
         <v>49.56</v>
       </c>
       <c r="F69" t="n">
-        <v>50.23</v>
+        <v>50.65</v>
       </c>
       <c r="G69" t="n">
-        <v>50.48</v>
+        <v>50.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5255,7 +5255,7 @@
         <v>5</v>
       </c>
       <c r="L69" t="n">
-        <v>1e-05</v>
+        <v>0.6523472265625001</v>
       </c>
       <c r="M69" t="b">
         <v>1</v>
@@ -5283,7 +5283,7 @@
         <v>0.011</v>
       </c>
       <c r="T69" t="n">
-        <v>-0.056</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="70">
@@ -5307,10 +5307,10 @@
         <v>54.01</v>
       </c>
       <c r="F70" t="n">
-        <v>49.12</v>
+        <v>49.77</v>
       </c>
       <c r="G70" t="n">
-        <v>49.36</v>
+        <v>49.88</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5325,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>1e-05</v>
+        <v>0.7617211328125001</v>
       </c>
       <c r="M70" t="b">
         <v>1</v>
@@ -5341,19 +5341,19 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S70" t="n">
         <v>0.011</v>
       </c>
       <c r="T70" t="n">
-        <v>-0.056</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="71">
@@ -5377,10 +5377,10 @@
         <v>46.92</v>
       </c>
       <c r="F71" t="n">
-        <v>48.13</v>
+        <v>48.67</v>
       </c>
       <c r="G71" t="n">
-        <v>48.36</v>
+        <v>48.88</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5395,7 +5395,7 @@
         <v>2</v>
       </c>
       <c r="L71" t="n">
-        <v>1e-05</v>
+        <v>0.70117486328125</v>
       </c>
       <c r="M71" t="b">
         <v>1</v>
@@ -5411,7 +5411,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="Q71" t="n">
         <v>0</v>
@@ -5423,7 +5423,7 @@
         <v>0.011</v>
       </c>
       <c r="T71" t="n">
-        <v>-0.056</v>
+        <v>-0.073</v>
       </c>
     </row>
     <row r="72">
@@ -5444,28 +5444,28 @@
         <v>390</v>
       </c>
       <c r="E72" t="n">
-        <v>46.01</v>
+        <v>47.5</v>
       </c>
       <c r="F72" t="n">
-        <v>47.11</v>
+        <v>47.45</v>
       </c>
       <c r="G72" t="n">
-        <v>47.35</v>
+        <v>47.99</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1.4900017</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>3.2384303</v>
       </c>
       <c r="J72" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K72" t="n">
         <v>9</v>
       </c>
       <c r="L72" t="n">
-        <v>1e-05</v>
+        <v>0.6054726953125001</v>
       </c>
       <c r="M72" t="b">
         <v>1</v>
@@ -5493,7 +5493,7 @@
         <v>0.011</v>
       </c>
       <c r="T72" t="n">
-        <v>-0.056</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="73">
@@ -5517,10 +5517,10 @@
         <v>44.92</v>
       </c>
       <c r="F73" t="n">
-        <v>46.23</v>
+        <v>46.59</v>
       </c>
       <c r="G73" t="n">
-        <v>46.48</v>
+        <v>46.86</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5535,7 +5535,7 @@
         <v>4</v>
       </c>
       <c r="L73" t="n">
-        <v>1e-05</v>
+        <v>0.6054726953125001</v>
       </c>
       <c r="M73" t="b">
         <v>1</v>
@@ -5563,7 +5563,7 @@
         <v>0.011</v>
       </c>
       <c r="T73" t="n">
-        <v>-0.056</v>
+        <v>-0.061</v>
       </c>
     </row>
     <row r="74">
@@ -5587,10 +5587,10 @@
         <v>50.98</v>
       </c>
       <c r="F74" t="n">
-        <v>45.21</v>
+        <v>45.54</v>
       </c>
       <c r="G74" t="n">
-        <v>45.4</v>
+        <v>46.04</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5605,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>1e-05</v>
+        <v>0.6757844921875001</v>
       </c>
       <c r="M74" t="b">
         <v>1</v>
@@ -5621,19 +5621,19 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
       </c>
       <c r="R74" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S74" t="n">
         <v>0.011</v>
       </c>
       <c r="T74" t="n">
-        <v>-0.056</v>
+        <v>-0.079</v>
       </c>
     </row>
     <row r="75">
@@ -5657,10 +5657,10 @@
         <v>47.66</v>
       </c>
       <c r="F75" t="n">
-        <v>44.13</v>
+        <v>44.67</v>
       </c>
       <c r="G75" t="n">
-        <v>44.39</v>
+        <v>44.93</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>1</v>
       </c>
       <c r="L75" t="n">
-        <v>1e-05</v>
+        <v>0.6699251757812501</v>
       </c>
       <c r="M75" t="b">
         <v>1</v>
@@ -5691,19 +5691,19 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="Q75" t="n">
         <v>0</v>
       </c>
       <c r="R75" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S75" t="n">
         <v>0.011</v>
       </c>
       <c r="T75" t="n">
-        <v>-0.057</v>
+        <v>-0.082</v>
       </c>
     </row>
     <row r="76">
@@ -5727,10 +5727,10 @@
         <v>42.08</v>
       </c>
       <c r="F76" t="n">
-        <v>43.14</v>
+        <v>43.67</v>
       </c>
       <c r="G76" t="n">
-        <v>43.37</v>
+        <v>43.93</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5745,7 +5745,7 @@
         <v>1</v>
       </c>
       <c r="L76" t="n">
-        <v>1e-05</v>
+        <v>0.6562534375000001</v>
       </c>
       <c r="M76" t="b">
         <v>1</v>
@@ -5761,19 +5761,19 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="Q76" t="n">
         <v>0</v>
       </c>
       <c r="R76" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S76" t="n">
         <v>0.011</v>
       </c>
       <c r="T76" t="n">
-        <v>-0.057</v>
+        <v>-0.083</v>
       </c>
     </row>
     <row r="77">
@@ -5797,10 +5797,10 @@
         <v>41.89</v>
       </c>
       <c r="F77" t="n">
-        <v>42.16</v>
+        <v>42.67</v>
       </c>
       <c r="G77" t="n">
-        <v>42.37</v>
+        <v>42.94</v>
       </c>
       <c r="H77" t="n">
         <v>3.8999977</v>
@@ -5815,7 +5815,7 @@
         <v>17</v>
       </c>
       <c r="L77" t="n">
-        <v>1e-05</v>
+        <v>0.647464462890625</v>
       </c>
       <c r="M77" t="b">
         <v>1</v>
@@ -5831,19 +5831,19 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="Q77" t="n">
         <v>0</v>
       </c>
       <c r="R77" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S77" t="n">
         <v>0.011</v>
       </c>
       <c r="T77" t="n">
-        <v>-0.057</v>
+        <v>-0.08500000000000001</v>
       </c>
     </row>
     <row r="78">
@@ -5867,10 +5867,10 @@
         <v>44.4</v>
       </c>
       <c r="F78" t="n">
-        <v>41.15</v>
+        <v>41.74</v>
       </c>
       <c r="G78" t="n">
-        <v>41.37</v>
+        <v>42</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="L78" t="n">
-        <v>1e-05</v>
+        <v>0.6777375976562501</v>
       </c>
       <c r="M78" t="b">
         <v>1</v>
@@ -5901,19 +5901,19 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="Q78" t="n">
         <v>0</v>
       </c>
       <c r="R78" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="S78" t="n">
         <v>0.011</v>
       </c>
       <c r="T78" t="n">
-        <v>-0.057</v>
+        <v>-0.111</v>
       </c>
     </row>
     <row r="79">
@@ -5937,10 +5937,10 @@
         <v>38.75</v>
       </c>
       <c r="F79" t="n">
-        <v>40.15</v>
+        <v>40.64</v>
       </c>
       <c r="G79" t="n">
-        <v>40.38</v>
+        <v>40.94</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5955,7 +5955,7 @@
         <v>6</v>
       </c>
       <c r="L79" t="n">
-        <v>1e-05</v>
+        <v>0.6074258007812501</v>
       </c>
       <c r="M79" t="b">
         <v>1</v>
@@ -5971,19 +5971,19 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="Q79" t="n">
         <v>0</v>
       </c>
       <c r="R79" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S79" t="n">
         <v>0.011</v>
       </c>
       <c r="T79" t="n">
-        <v>-0.057</v>
+        <v>-0.081</v>
       </c>
     </row>
     <row r="80">
@@ -6007,10 +6007,10 @@
         <v>37.95</v>
       </c>
       <c r="F80" t="n">
-        <v>39.13</v>
+        <v>39.56</v>
       </c>
       <c r="G80" t="n">
-        <v>39.37</v>
+        <v>39.81</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6025,7 +6025,7 @@
         <v>5</v>
       </c>
       <c r="L80" t="n">
-        <v>1e-05</v>
+        <v>0.6093789062500001</v>
       </c>
       <c r="M80" t="b">
         <v>1</v>
@@ -6041,19 +6041,19 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="Q80" t="n">
         <v>0</v>
       </c>
       <c r="R80" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S80" t="n">
         <v>0.011</v>
       </c>
       <c r="T80" t="n">
-        <v>-0.057</v>
+        <v>-0.08799999999999999</v>
       </c>
     </row>
     <row r="81">
@@ -6077,10 +6077,10 @@
         <v>37.36</v>
       </c>
       <c r="F81" t="n">
-        <v>38.14</v>
+        <v>38.68</v>
       </c>
       <c r="G81" t="n">
-        <v>38.37</v>
+        <v>38.89</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6095,7 +6095,7 @@
         <v>45</v>
       </c>
       <c r="L81" t="n">
-        <v>1e-05</v>
+        <v>0.57617611328125</v>
       </c>
       <c r="M81" t="b">
         <v>1</v>
@@ -6111,19 +6111,19 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="Q81" t="n">
         <v>0</v>
       </c>
       <c r="R81" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S81" t="n">
         <v>0.011</v>
       </c>
       <c r="T81" t="n">
-        <v>-0.057</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="82">
@@ -6147,10 +6147,10 @@
         <v>37.43</v>
       </c>
       <c r="F82" t="n">
-        <v>37.15</v>
+        <v>37.46</v>
       </c>
       <c r="G82" t="n">
-        <v>37.4</v>
+        <v>38</v>
       </c>
       <c r="H82" t="n">
         <v>1.0999985</v>
@@ -6165,7 +6165,7 @@
         <v>139</v>
       </c>
       <c r="L82" t="n">
-        <v>1e-05</v>
+        <v>0.5039112109375</v>
       </c>
       <c r="M82" t="b">
         <v>1</v>
@@ -6193,7 +6193,7 @@
         <v>0.011</v>
       </c>
       <c r="T82" t="n">
-        <v>-0.058</v>
+        <v>-0.064</v>
       </c>
     </row>
     <row r="83">
@@ -6217,10 +6217,10 @@
         <v>34.54</v>
       </c>
       <c r="F83" t="n">
-        <v>36.15</v>
+        <v>36.6</v>
       </c>
       <c r="G83" t="n">
-        <v>36.39</v>
+        <v>36.87</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6235,7 +6235,7 @@
         <v>2</v>
       </c>
       <c r="L83" t="n">
-        <v>1e-05</v>
+        <v>0.6054726953125001</v>
       </c>
       <c r="M83" t="b">
         <v>1</v>
@@ -6251,19 +6251,19 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="Q83" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="R83" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="S83" t="n">
         <v>0.011</v>
       </c>
       <c r="T83" t="n">
-        <v>-0.058</v>
+        <v>-0.115</v>
       </c>
     </row>
     <row r="84">
@@ -6284,28 +6284,28 @@
         <v>402</v>
       </c>
       <c r="E84" t="n">
-        <v>34.82</v>
+        <v>35.7</v>
       </c>
       <c r="F84" t="n">
-        <v>35.18</v>
+        <v>35.57</v>
       </c>
       <c r="G84" t="n">
-        <v>35.41</v>
+        <v>35.81</v>
       </c>
       <c r="H84" t="n">
-        <v>4.029999</v>
+        <v>4.91</v>
       </c>
       <c r="I84" t="n">
-        <v>13.088661</v>
+        <v>15.946735</v>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K84" t="n">
         <v>5</v>
       </c>
       <c r="L84" t="n">
-        <v>1e-05</v>
+        <v>0.5546919531250001</v>
       </c>
       <c r="M84" t="b">
         <v>1</v>
@@ -6321,19 +6321,19 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="Q84" t="n">
         <v>0</v>
       </c>
       <c r="R84" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S84" t="n">
         <v>0.011</v>
       </c>
       <c r="T84" t="n">
-        <v>-0.058</v>
+        <v>-0.091</v>
       </c>
     </row>
     <row r="85">
@@ -6354,28 +6354,28 @@
         <v>403</v>
       </c>
       <c r="E85" t="n">
-        <v>31.88</v>
+        <v>34.76</v>
       </c>
       <c r="F85" t="n">
-        <v>34.22</v>
+        <v>34.68</v>
       </c>
       <c r="G85" t="n">
-        <v>34.43</v>
+        <v>34.94</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2.8799992</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>9.0338745</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K85" t="n">
         <v>4</v>
       </c>
       <c r="L85" t="n">
-        <v>1e-05</v>
+        <v>0.5400436621093752</v>
       </c>
       <c r="M85" t="b">
         <v>1</v>
@@ -6391,19 +6391,19 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="Q85" t="n">
         <v>0</v>
       </c>
       <c r="R85" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S85" t="n">
         <v>0.011</v>
       </c>
       <c r="T85" t="n">
-        <v>-0.058</v>
+        <v>-0.091</v>
       </c>
     </row>
     <row r="86">
@@ -6427,10 +6427,10 @@
         <v>29.31</v>
       </c>
       <c r="F86" t="n">
-        <v>33.22</v>
+        <v>33.6</v>
       </c>
       <c r="G86" t="n">
-        <v>33.43</v>
+        <v>33.87</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6445,7 +6445,7 @@
         <v>2</v>
       </c>
       <c r="L86" t="n">
-        <v>1e-05</v>
+        <v>0.561527822265625</v>
       </c>
       <c r="M86" t="b">
         <v>1</v>
@@ -6461,19 +6461,19 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="Q86" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="R86" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="S86" t="n">
         <v>0.011</v>
       </c>
       <c r="T86" t="n">
-        <v>-0.058</v>
+        <v>-0.118</v>
       </c>
     </row>
     <row r="87">
@@ -6497,10 +6497,10 @@
         <v>28.54</v>
       </c>
       <c r="F87" t="n">
-        <v>32.16</v>
+        <v>32.69</v>
       </c>
       <c r="G87" t="n">
-        <v>32.43</v>
+        <v>32.99</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6515,7 +6515,7 @@
         <v>27</v>
       </c>
       <c r="L87" t="n">
-        <v>1e-05</v>
+        <v>0.5312546875</v>
       </c>
       <c r="M87" t="b">
         <v>1</v>
@@ -6531,19 +6531,19 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="Q87" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="R87" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="S87" t="n">
         <v>0.011</v>
       </c>
       <c r="T87" t="n">
-        <v>-0.058</v>
+        <v>-0.105</v>
       </c>
     </row>
     <row r="88">
@@ -6567,10 +6567,10 @@
         <v>30.88</v>
       </c>
       <c r="F88" t="n">
-        <v>31.17</v>
+        <v>31.75</v>
       </c>
       <c r="G88" t="n">
-        <v>31.38</v>
+        <v>32.01</v>
       </c>
       <c r="H88" t="n">
         <v>1.3799992</v>
@@ -6585,7 +6585,7 @@
         <v>18</v>
       </c>
       <c r="L88" t="n">
-        <v>1e-05</v>
+        <v>0.5371140039062501</v>
       </c>
       <c r="M88" t="b">
         <v>1</v>
@@ -6601,19 +6601,19 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="Q88" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="R88" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="S88" t="n">
         <v>0.011</v>
       </c>
       <c r="T88" t="n">
-        <v>-0.058</v>
+        <v>-0.124</v>
       </c>
     </row>
     <row r="89">
@@ -6637,10 +6637,10 @@
         <v>28.72</v>
       </c>
       <c r="F89" t="n">
-        <v>30.14</v>
+        <v>30.58</v>
       </c>
       <c r="G89" t="n">
-        <v>30.38</v>
+        <v>30.82</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6655,7 +6655,7 @@
         <v>19</v>
       </c>
       <c r="L89" t="n">
-        <v>1e-05</v>
+        <v>0.4902394726562501</v>
       </c>
       <c r="M89" t="b">
         <v>1</v>
@@ -6671,19 +6671,19 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="S89" t="n">
         <v>0.011</v>
       </c>
       <c r="T89" t="n">
-        <v>-0.059</v>
+        <v>-0.097</v>
       </c>
     </row>
     <row r="90">
@@ -6707,10 +6707,10 @@
         <v>27.86</v>
       </c>
       <c r="F90" t="n">
-        <v>29.18</v>
+        <v>29.59</v>
       </c>
       <c r="G90" t="n">
-        <v>29.48</v>
+        <v>30.01</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6725,7 +6725,7 @@
         <v>32</v>
       </c>
       <c r="L90" t="n">
-        <v>1e-05</v>
+        <v>0.5585981640625001</v>
       </c>
       <c r="M90" t="b">
         <v>1</v>
@@ -6741,19 +6741,19 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="Q90" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="R90" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S90" t="n">
         <v>0.011</v>
       </c>
       <c r="T90" t="n">
-        <v>-0.059</v>
+        <v>-0.195</v>
       </c>
     </row>
     <row r="91">
@@ -6777,10 +6777,10 @@
         <v>27.24</v>
       </c>
       <c r="F91" t="n">
-        <v>28.13</v>
+        <v>28.45</v>
       </c>
       <c r="G91" t="n">
-        <v>28.37</v>
+        <v>29.01</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6795,7 +6795,7 @@
         <v>11</v>
       </c>
       <c r="L91" t="n">
-        <v>1e-05</v>
+        <v>0.5424850439453126</v>
       </c>
       <c r="M91" t="b">
         <v>1</v>
@@ -6811,19 +6811,19 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="Q91" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="R91" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S91" t="n">
         <v>0.011</v>
       </c>
       <c r="T91" t="n">
-        <v>-0.059</v>
+        <v>-0.196</v>
       </c>
     </row>
     <row r="92">
@@ -6844,28 +6844,28 @@
         <v>410</v>
       </c>
       <c r="E92" t="n">
-        <v>27.44</v>
+        <v>27.45</v>
       </c>
       <c r="F92" t="n">
-        <v>27.19</v>
+        <v>27.63</v>
       </c>
       <c r="G92" t="n">
-        <v>27.42</v>
+        <v>27.87</v>
       </c>
       <c r="H92" t="n">
-        <v>0.32999992</v>
+        <v>0.34000015</v>
       </c>
       <c r="I92" t="n">
-        <v>1.2172627</v>
+        <v>1.2541503</v>
       </c>
       <c r="J92" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K92" t="n">
         <v>3239</v>
       </c>
       <c r="L92" t="n">
-        <v>1e-05</v>
+        <v>0.473638076171875</v>
       </c>
       <c r="M92" t="b">
         <v>1</v>
@@ -6881,19 +6881,19 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="Q92" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="R92" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="S92" t="n">
         <v>0.011</v>
       </c>
       <c r="T92" t="n">
-        <v>-0.059</v>
+        <v>-0.123</v>
       </c>
     </row>
     <row r="93">
@@ -6917,10 +6917,10 @@
         <v>26.83</v>
       </c>
       <c r="F93" t="n">
-        <v>26.23</v>
+        <v>26.61</v>
       </c>
       <c r="G93" t="n">
-        <v>26.49</v>
+        <v>26.88</v>
       </c>
       <c r="H93" t="n">
         <v>1.2700005</v>
@@ -6935,7 +6935,7 @@
         <v>53</v>
       </c>
       <c r="L93" t="n">
-        <v>1e-05</v>
+        <v>0.46289599609375</v>
       </c>
       <c r="M93" t="b">
         <v>1</v>
@@ -6951,19 +6951,19 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="Q93" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="R93" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="S93" t="n">
         <v>0.011</v>
       </c>
       <c r="T93" t="n">
-        <v>-0.059</v>
+        <v>-0.129</v>
       </c>
     </row>
     <row r="94">
@@ -6987,10 +6987,10 @@
         <v>25.82</v>
       </c>
       <c r="F94" t="n">
-        <v>25.23</v>
+        <v>25.61</v>
       </c>
       <c r="G94" t="n">
-        <v>25.44</v>
+        <v>25.88</v>
       </c>
       <c r="H94" t="n">
         <v>2.0900002</v>
@@ -7005,7 +7005,7 @@
         <v>15</v>
       </c>
       <c r="L94" t="n">
-        <v>1e-05</v>
+        <v>0.4482477050781249</v>
       </c>
       <c r="M94" t="b">
         <v>1</v>
@@ -7021,19 +7021,19 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="Q94" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="R94" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="S94" t="n">
         <v>0.011</v>
       </c>
       <c r="T94" t="n">
-        <v>-0.059</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="95">
@@ -7057,10 +7057,10 @@
         <v>24.91</v>
       </c>
       <c r="F95" t="n">
-        <v>24.17</v>
+        <v>24.7</v>
       </c>
       <c r="G95" t="n">
-        <v>24.44</v>
+        <v>24.9</v>
       </c>
       <c r="H95" t="n">
         <v>1.7600002</v>
@@ -7075,7 +7075,7 @@
         <v>10</v>
       </c>
       <c r="L95" t="n">
-        <v>1e-05</v>
+        <v>0.4414118359375</v>
       </c>
       <c r="M95" t="b">
         <v>1</v>
@@ -7091,19 +7091,19 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="Q95" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="R95" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="S95" t="n">
         <v>0.011</v>
       </c>
       <c r="T95" t="n">
-        <v>-0.059</v>
+        <v>-0.142</v>
       </c>
     </row>
     <row r="96">
@@ -7127,10 +7127,10 @@
         <v>22.63</v>
       </c>
       <c r="F96" t="n">
-        <v>23.26</v>
+        <v>23.76</v>
       </c>
       <c r="G96" t="n">
-        <v>23.5</v>
+        <v>23.96</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7145,7 +7145,7 @@
         <v>88</v>
       </c>
       <c r="L96" t="n">
-        <v>1e-05</v>
+        <v>0.44727115234375</v>
       </c>
       <c r="M96" t="b">
         <v>1</v>
@@ -7161,19 +7161,19 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="Q96" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="R96" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S96" t="n">
         <v>0.011</v>
       </c>
       <c r="T96" t="n">
-        <v>-0.06</v>
+        <v>-0.176</v>
       </c>
     </row>
     <row r="97">
@@ -7197,10 +7197,10 @@
         <v>22.4</v>
       </c>
       <c r="F97" t="n">
-        <v>22.25</v>
+        <v>22.7</v>
       </c>
       <c r="G97" t="n">
-        <v>22.48</v>
+        <v>22.91</v>
       </c>
       <c r="H97" t="n">
         <v>0.4300003</v>
@@ -7215,7 +7215,7 @@
         <v>568</v>
       </c>
       <c r="L97" t="n">
-        <v>1e-05</v>
+        <v>0.4145566357421875</v>
       </c>
       <c r="M97" t="b">
         <v>1</v>
@@ -7231,19 +7231,19 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="Q97" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="R97" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="S97" t="n">
         <v>0.011</v>
       </c>
       <c r="T97" t="n">
-        <v>-0.06</v>
+        <v>-0.149</v>
       </c>
     </row>
     <row r="98">
@@ -7267,10 +7267,10 @@
         <v>21.15</v>
       </c>
       <c r="F98" t="n">
-        <v>21.23</v>
+        <v>21.6</v>
       </c>
       <c r="G98" t="n">
-        <v>21.46</v>
+        <v>21.83</v>
       </c>
       <c r="H98" t="n">
         <v>2.959999</v>
@@ -7285,7 +7285,7 @@
         <v>121</v>
       </c>
       <c r="L98" t="n">
-        <v>1e-05</v>
+        <v>0.368170380859375</v>
       </c>
       <c r="M98" t="b">
         <v>1</v>
@@ -7301,19 +7301,19 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="Q98" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="R98" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="S98" t="n">
         <v>0.011</v>
       </c>
       <c r="T98" t="n">
-        <v>-0.06</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="99">
@@ -7337,10 +7337,10 @@
         <v>19.15</v>
       </c>
       <c r="F99" t="n">
-        <v>20.17</v>
+        <v>20.64</v>
       </c>
       <c r="G99" t="n">
-        <v>20.41</v>
+        <v>20.88</v>
       </c>
       <c r="H99" t="n">
         <v>1.1399994</v>
@@ -7355,7 +7355,7 @@
         <v>22</v>
       </c>
       <c r="L99" t="n">
-        <v>1e-05</v>
+        <v>0.37305314453125</v>
       </c>
       <c r="M99" t="b">
         <v>1</v>
@@ -7371,19 +7371,19 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="Q99" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="R99" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="S99" t="n">
         <v>0.011</v>
       </c>
       <c r="T99" t="n">
-        <v>-0.06</v>
+        <v>-0.136</v>
       </c>
     </row>
     <row r="100">
@@ -7407,10 +7407,10 @@
         <v>17.95</v>
       </c>
       <c r="F100" t="n">
-        <v>19.17</v>
+        <v>19.7</v>
       </c>
       <c r="G100" t="n">
-        <v>19.39</v>
+        <v>19.96</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7425,7 +7425,7 @@
         <v>46</v>
       </c>
       <c r="L100" t="n">
-        <v>1e-05</v>
+        <v>0.383795224609375</v>
       </c>
       <c r="M100" t="b">
         <v>1</v>
@@ -7441,19 +7441,19 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="Q100" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="R100" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="S100" t="n">
         <v>0.011</v>
       </c>
       <c r="T100" t="n">
-        <v>-0.06</v>
+        <v>-0.182</v>
       </c>
     </row>
     <row r="101">
@@ -7477,10 +7477,10 @@
         <v>14.74</v>
       </c>
       <c r="F101" t="n">
-        <v>18.18</v>
+        <v>18.6</v>
       </c>
       <c r="G101" t="n">
-        <v>18.45</v>
+        <v>18.84</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7495,7 +7495,7 @@
         <v>54</v>
       </c>
       <c r="L101" t="n">
-        <v>1e-05</v>
+        <v>0.32813171875</v>
       </c>
       <c r="M101" t="b">
         <v>1</v>
@@ -7511,19 +7511,19 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="Q101" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="R101" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="S101" t="n">
         <v>0.011</v>
       </c>
       <c r="T101" t="n">
-        <v>-0.06</v>
+        <v>-0.117</v>
       </c>
     </row>
     <row r="102">
@@ -7544,28 +7544,28 @@
         <v>420</v>
       </c>
       <c r="E102" t="n">
-        <v>17.57</v>
+        <v>17.5</v>
       </c>
       <c r="F102" t="n">
-        <v>17.14</v>
+        <v>17.62</v>
       </c>
       <c r="G102" t="n">
-        <v>17.37</v>
+        <v>17.89</v>
       </c>
       <c r="H102" t="n">
-        <v>1.7599993</v>
+        <v>1.6899996</v>
       </c>
       <c r="I102" t="n">
-        <v>11.13219</v>
+        <v>10.689434</v>
       </c>
       <c r="J102" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K102" t="n">
         <v>5924</v>
       </c>
       <c r="L102" t="n">
-        <v>1e-05</v>
+        <v>0.331061376953125</v>
       </c>
       <c r="M102" t="b">
         <v>1</v>
@@ -7581,19 +7581,19 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="Q102" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="R102" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S102" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="T102" t="n">
-        <v>-0.06</v>
+        <v>-0.146</v>
       </c>
     </row>
     <row r="103">
@@ -7617,10 +7617,10 @@
         <v>17.3</v>
       </c>
       <c r="F103" t="n">
-        <v>16.24</v>
+        <v>16.64</v>
       </c>
       <c r="G103" t="n">
-        <v>16.5</v>
+        <v>17.03</v>
       </c>
       <c r="H103" t="n">
         <v>2.8099995</v>
@@ -7635,7 +7635,7 @@
         <v>116</v>
       </c>
       <c r="L103" t="n">
-        <v>1e-05</v>
+        <v>0.3535220898437499</v>
       </c>
       <c r="M103" t="b">
         <v>1</v>
@@ -7651,19 +7651,19 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>1</v>
+        <v>0.983</v>
       </c>
       <c r="Q103" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="R103" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S103" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="T103" t="n">
-        <v>-0.061</v>
+        <v>-0.232</v>
       </c>
     </row>
     <row r="104">
@@ -7687,10 +7687,10 @@
         <v>14.82</v>
       </c>
       <c r="F104" t="n">
-        <v>15.17</v>
+        <v>15.59</v>
       </c>
       <c r="G104" t="n">
-        <v>15.43</v>
+        <v>15.84</v>
       </c>
       <c r="H104" t="n">
         <v>0.5799999</v>
@@ -7705,7 +7705,7 @@
         <v>105</v>
       </c>
       <c r="L104" t="n">
-        <v>1e-05</v>
+        <v>0.2832102929687499</v>
       </c>
       <c r="M104" t="b">
         <v>1</v>
@@ -7721,19 +7721,19 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="Q104" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="R104" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="S104" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="T104" t="n">
-        <v>-0.061</v>
+        <v>-0.121</v>
       </c>
     </row>
     <row r="105">
@@ -7754,28 +7754,28 @@
         <v>423</v>
       </c>
       <c r="E105" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="F105" t="n">
+        <v>14.61</v>
+      </c>
+      <c r="G105" t="n">
         <v>14.84</v>
       </c>
-      <c r="F105" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="G105" t="n">
-        <v>14.44</v>
-      </c>
       <c r="H105" t="n">
-        <v>0.8400001499999999</v>
+        <v>0.6700001</v>
       </c>
       <c r="I105" t="n">
-        <v>6.000001</v>
+        <v>4.7857146</v>
       </c>
       <c r="J105" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K105" t="n">
         <v>293</v>
       </c>
       <c r="L105" t="n">
-        <v>1e-05</v>
+        <v>0.268562001953125</v>
       </c>
       <c r="M105" t="b">
         <v>1</v>
@@ -7791,19 +7791,19 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="Q105" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="R105" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S105" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="T105" t="n">
-        <v>-0.061</v>
+        <v>-0.123</v>
       </c>
     </row>
     <row r="106">
@@ -7824,28 +7824,28 @@
         <v>424</v>
       </c>
       <c r="E106" t="n">
-        <v>13.2</v>
+        <v>13.7</v>
       </c>
       <c r="F106" t="n">
-        <v>13.21</v>
+        <v>13.72</v>
       </c>
       <c r="G106" t="n">
-        <v>13.46</v>
+        <v>13.97</v>
       </c>
       <c r="H106" t="n">
-        <v>1.3199997</v>
+        <v>1.8199997</v>
       </c>
       <c r="I106" t="n">
-        <v>11.111109</v>
+        <v>15.319862</v>
       </c>
       <c r="J106" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K106" t="n">
         <v>723</v>
       </c>
       <c r="L106" t="n">
-        <v>1e-05</v>
+        <v>0.2890696093749999</v>
       </c>
       <c r="M106" t="b">
         <v>1</v>
@@ -7861,19 +7861,19 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>1</v>
+        <v>0.983</v>
       </c>
       <c r="Q106" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="R106" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S106" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="T106" t="n">
-        <v>-0.061</v>
+        <v>-0.201</v>
       </c>
     </row>
     <row r="107">
@@ -7894,28 +7894,28 @@
         <v>425</v>
       </c>
       <c r="E107" t="n">
-        <v>12.29</v>
+        <v>12.7</v>
       </c>
       <c r="F107" t="n">
-        <v>12.17</v>
+        <v>12.52</v>
       </c>
       <c r="G107" t="n">
-        <v>12.46</v>
+        <v>13.03</v>
       </c>
       <c r="H107" t="n">
-        <v>1.4399996</v>
+        <v>1.8499994</v>
       </c>
       <c r="I107" t="n">
-        <v>13.271885</v>
+        <v>17.050686</v>
       </c>
       <c r="J107" t="n">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="K107" t="n">
         <v>1152</v>
       </c>
       <c r="L107" t="n">
-        <v>1e-05</v>
+        <v>0.2856516748046874</v>
       </c>
       <c r="M107" t="b">
         <v>1</v>
@@ -7931,19 +7931,19 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>1</v>
+        <v>0.976</v>
       </c>
       <c r="Q107" t="n">
-        <v>0</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="R107" t="n">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="S107" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="T107" t="n">
-        <v>-0.061</v>
+        <v>-0.243</v>
       </c>
     </row>
     <row r="108">
@@ -7964,28 +7964,28 @@
         <v>426</v>
       </c>
       <c r="E108" t="n">
-        <v>11.36</v>
+        <v>11.67</v>
       </c>
       <c r="F108" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="G108" t="n">
-        <v>11.44</v>
+        <v>12.04</v>
       </c>
       <c r="H108" t="n">
-        <v>1.1899996</v>
+        <v>1.5</v>
       </c>
       <c r="I108" t="n">
-        <v>11.701077</v>
+        <v>14.749263</v>
       </c>
       <c r="J108" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K108" t="n">
         <v>1952</v>
       </c>
       <c r="L108" t="n">
-        <v>1e-05</v>
+        <v>0.2700268310546875</v>
       </c>
       <c r="M108" t="b">
         <v>1</v>
@@ -8001,19 +8001,19 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>1</v>
+        <v>0.973</v>
       </c>
       <c r="Q108" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R108" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="S108" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="T108" t="n">
-        <v>-0.061</v>
+        <v>-0.252</v>
       </c>
     </row>
     <row r="109">
@@ -8034,28 +8034,28 @@
         <v>427</v>
       </c>
       <c r="E109" t="n">
-        <v>10.11</v>
+        <v>10.92</v>
       </c>
       <c r="F109" t="n">
-        <v>10.21</v>
+        <v>10.79</v>
       </c>
       <c r="G109" t="n">
-        <v>10.4</v>
+        <v>10.91</v>
       </c>
       <c r="H109" t="n">
-        <v>0.069999695</v>
+        <v>0.8800001</v>
       </c>
       <c r="I109" t="n">
-        <v>0.6972081</v>
+        <v>8.764942</v>
       </c>
       <c r="J109" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K109" t="n">
         <v>2220</v>
       </c>
       <c r="L109" t="n">
-        <v>1e-05</v>
+        <v>0.2251054052734375</v>
       </c>
       <c r="M109" t="b">
         <v>1</v>
@@ -8071,19 +8071,19 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1</v>
+        <v>0.983</v>
       </c>
       <c r="Q109" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="R109" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S109" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="T109" t="n">
-        <v>-0.061</v>
+        <v>-0.171</v>
       </c>
     </row>
     <row r="110">
@@ -8104,28 +8104,28 @@
         <v>428</v>
       </c>
       <c r="E110" t="n">
-        <v>9.300000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>9.19</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="G110" t="n">
-        <v>9.43</v>
+        <v>9.94</v>
       </c>
       <c r="H110" t="n">
-        <v>0.6500006</v>
+        <v>1.0500002</v>
       </c>
       <c r="I110" t="n">
-        <v>7.514458</v>
+        <v>12.138731</v>
       </c>
       <c r="J110" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K110" t="n">
         <v>2784</v>
       </c>
       <c r="L110" t="n">
-        <v>1e-05</v>
+        <v>0.2153398779296875</v>
       </c>
       <c r="M110" t="b">
         <v>1</v>
@@ -8141,19 +8141,19 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>1</v>
+        <v>0.977</v>
       </c>
       <c r="Q110" t="n">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="R110" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="S110" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="T110" t="n">
-        <v>-0.062</v>
+        <v>-0.193</v>
       </c>
     </row>
     <row r="111">
@@ -8174,28 +8174,28 @@
         <v>429</v>
       </c>
       <c r="E111" t="n">
-        <v>8.34</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>8.23</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="G111" t="n">
-        <v>8.44</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="H111" t="n">
-        <v>0.34000015</v>
+        <v>0.77999973</v>
       </c>
       <c r="I111" t="n">
-        <v>4.250002</v>
+        <v>9.749995999999999</v>
       </c>
       <c r="J111" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K111" t="n">
         <v>2052</v>
       </c>
       <c r="L111" t="n">
-        <v>1e-05</v>
+        <v>0.2182695361328125</v>
       </c>
       <c r="M111" t="b">
         <v>1</v>
@@ -8211,19 +8211,19 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>1</v>
+        <v>0.962</v>
       </c>
       <c r="Q111" t="n">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="R111" t="n">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="S111" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="T111" t="n">
-        <v>-0.062</v>
+        <v>-0.268</v>
       </c>
     </row>
     <row r="112">
@@ -8244,28 +8244,28 @@
         <v>430</v>
       </c>
       <c r="E112" t="n">
-        <v>7.35</v>
+        <v>7.81</v>
       </c>
       <c r="F112" t="n">
-        <v>7.23</v>
+        <v>7.61</v>
       </c>
       <c r="G112" t="n">
-        <v>7.49</v>
+        <v>7.85</v>
       </c>
       <c r="H112" t="n">
-        <v>0.3499999</v>
+        <v>0.80999994</v>
       </c>
       <c r="I112" t="n">
-        <v>4.999999</v>
+        <v>11.571427</v>
       </c>
       <c r="J112" t="n">
-        <v>2622</v>
+        <v>2660</v>
       </c>
       <c r="K112" t="n">
         <v>30216</v>
       </c>
       <c r="L112" t="n">
-        <v>1e-05</v>
+        <v>0.16211775390625</v>
       </c>
       <c r="M112" t="b">
         <v>1</v>
@@ -8281,19 +8281,19 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>1</v>
+        <v>0.982</v>
       </c>
       <c r="Q112" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="R112" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S112" t="n">
         <v>0.012</v>
       </c>
       <c r="T112" t="n">
-        <v>-0.062</v>
+        <v>-0.142</v>
       </c>
     </row>
     <row r="113">
@@ -8314,28 +8314,28 @@
         <v>431</v>
       </c>
       <c r="E113" t="n">
-        <v>6.34</v>
+        <v>6.75</v>
       </c>
       <c r="F113" t="n">
-        <v>6.32</v>
+        <v>6.83</v>
       </c>
       <c r="G113" t="n">
-        <v>6.49</v>
+        <v>7</v>
       </c>
       <c r="H113" t="n">
-        <v>0.21000004</v>
+        <v>0.6199999</v>
       </c>
       <c r="I113" t="n">
-        <v>3.4257755</v>
+        <v>10.11419</v>
       </c>
       <c r="J113" t="n">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="K113" t="n">
         <v>2101</v>
       </c>
       <c r="L113" t="n">
-        <v>1e-05</v>
+        <v>0.172859833984375</v>
       </c>
       <c r="M113" t="b">
         <v>1</v>
@@ -8351,19 +8351,19 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>1</v>
+        <v>0.957</v>
       </c>
       <c r="Q113" t="n">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="R113" t="n">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="S113" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="T113" t="n">
-        <v>-0.062</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="114">
@@ -8384,28 +8384,28 @@
         <v>432</v>
       </c>
       <c r="E114" t="n">
-        <v>5.5</v>
+        <v>5.94</v>
       </c>
       <c r="F114" t="n">
-        <v>5.37</v>
+        <v>5.58</v>
       </c>
       <c r="G114" t="n">
-        <v>5.55</v>
+        <v>6</v>
       </c>
       <c r="H114" t="n">
-        <v>0.26000023</v>
+        <v>0.7000003</v>
       </c>
       <c r="I114" t="n">
-        <v>4.961837</v>
+        <v>13.358786</v>
       </c>
       <c r="J114" t="n">
-        <v>1026</v>
+        <v>1071</v>
       </c>
       <c r="K114" t="n">
         <v>6856</v>
       </c>
       <c r="L114" t="n">
-        <v>0.09180595703125</v>
+        <v>0.1540611938476563</v>
       </c>
       <c r="M114" t="b">
         <v>1</v>
@@ -8421,19 +8421,19 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>0.996</v>
+        <v>0.949</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.005</v>
+        <v>0.03</v>
       </c>
       <c r="R114" t="n">
-        <v>0.003</v>
+        <v>0.024</v>
       </c>
       <c r="S114" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="T114" t="n">
-        <v>-0.074</v>
+        <v>-0.243</v>
       </c>
     </row>
     <row r="115">
@@ -8454,28 +8454,28 @@
         <v>433</v>
       </c>
       <c r="E115" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="F115" t="n">
-        <v>4.38</v>
+        <v>4.71</v>
       </c>
       <c r="G115" t="n">
-        <v>4.54</v>
+        <v>4.99</v>
       </c>
       <c r="H115" t="n">
-        <v>0.119999886</v>
+        <v>0.52</v>
       </c>
       <c r="I115" t="n">
-        <v>2.7397234</v>
+        <v>11.872146</v>
       </c>
       <c r="J115" t="n">
-        <v>1490</v>
+        <v>1533</v>
       </c>
       <c r="K115" t="n">
         <v>13287</v>
       </c>
       <c r="L115" t="n">
-        <v>0.073251455078125</v>
+        <v>0.1333094482421875</v>
       </c>
       <c r="M115" t="b">
         <v>1</v>
@@ -8491,19 +8491,19 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>0.997</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.005</v>
+        <v>0.039</v>
       </c>
       <c r="R115" t="n">
-        <v>0.002</v>
+        <v>0.027</v>
       </c>
       <c r="S115" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="T115" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.239</v>
       </c>
     </row>
     <row r="116">
@@ -8524,28 +8524,28 @@
         <v>434</v>
       </c>
       <c r="E116" t="n">
-        <v>3.62</v>
+        <v>4</v>
       </c>
       <c r="F116" t="n">
-        <v>3.53</v>
+        <v>3.9</v>
       </c>
       <c r="G116" t="n">
-        <v>3.67</v>
+        <v>4.1</v>
       </c>
       <c r="H116" t="n">
-        <v>-0.010000229</v>
+        <v>0.3699999</v>
       </c>
       <c r="I116" t="n">
-        <v>-0.27548838</v>
+        <v>10.192834</v>
       </c>
       <c r="J116" t="n">
-        <v>4671</v>
+        <v>4838</v>
       </c>
       <c r="K116" t="n">
         <v>19106</v>
       </c>
       <c r="L116" t="n">
-        <v>0.0893645751953125</v>
+        <v>0.12696185546875</v>
       </c>
       <c r="M116" t="b">
         <v>1</v>
@@ -8561,19 +8561,19 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>0.961</v>
+        <v>0.902</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.041</v>
+        <v>0.06</v>
       </c>
       <c r="R116" t="n">
-        <v>0.019</v>
+        <v>0.04</v>
       </c>
       <c r="S116" t="n">
         <v>0.011</v>
       </c>
       <c r="T116" t="n">
-        <v>-0.147</v>
+        <v>-0.309</v>
       </c>
     </row>
     <row r="117">
@@ -8594,28 +8594,28 @@
         <v>435</v>
       </c>
       <c r="E117" t="n">
-        <v>2.77</v>
+        <v>3.29</v>
       </c>
       <c r="F117" t="n">
-        <v>2.8</v>
+        <v>3.22</v>
       </c>
       <c r="G117" t="n">
-        <v>2.82</v>
+        <v>3.29</v>
       </c>
       <c r="H117" t="n">
-        <v>-0.1500001</v>
+        <v>0.3699999</v>
       </c>
       <c r="I117" t="n">
-        <v>-5.1369896</v>
+        <v>12.671228</v>
       </c>
       <c r="J117" t="n">
-        <v>30143</v>
+        <v>30393</v>
       </c>
       <c r="K117" t="n">
         <v>30201</v>
       </c>
       <c r="L117" t="n">
-        <v>0.0893645751953125</v>
+        <v>0.124032197265625</v>
       </c>
       <c r="M117" t="b">
         <v>1</v>
@@ -8631,19 +8631,19 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>0.898</v>
+        <v>0.833</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="R117" t="n">
-        <v>0.041</v>
+        <v>0.057</v>
       </c>
       <c r="S117" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="T117" t="n">
-        <v>-0.239</v>
+        <v>-0.407</v>
       </c>
     </row>
     <row r="118">
@@ -8664,28 +8664,28 @@
         <v>436</v>
       </c>
       <c r="E118" t="n">
-        <v>2.14</v>
+        <v>2.37</v>
       </c>
       <c r="F118" t="n">
-        <v>2.1</v>
+        <v>2.49</v>
       </c>
       <c r="G118" t="n">
-        <v>2.11</v>
+        <v>2.52</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.119999886</v>
+        <v>0.109999895</v>
       </c>
       <c r="I118" t="n">
-        <v>-5.3097296</v>
+        <v>4.867252</v>
       </c>
       <c r="J118" t="n">
-        <v>66970</v>
+        <v>68847</v>
       </c>
       <c r="K118" t="n">
         <v>18735</v>
       </c>
       <c r="L118" t="n">
-        <v>0.09327078613281251</v>
+        <v>0.1184170190429688</v>
       </c>
       <c r="M118" t="b">
         <v>1</v>
@@ -8701,19 +8701,19 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>0.772</v>
+        <v>0.739</v>
       </c>
       <c r="Q118" t="n">
-        <v>0.142</v>
+        <v>0.12</v>
       </c>
       <c r="R118" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.074</v>
       </c>
       <c r="S118" t="n">
         <v>0.008999999999999999</v>
       </c>
       <c r="T118" t="n">
-        <v>-0.371</v>
+        <v>-0.487</v>
       </c>
     </row>
     <row r="119">
@@ -8734,28 +8734,28 @@
         <v>437</v>
       </c>
       <c r="E119" t="n">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="F119" t="n">
-        <v>1.48</v>
+        <v>1.79</v>
       </c>
       <c r="G119" t="n">
-        <v>1.49</v>
+        <v>1.8</v>
       </c>
       <c r="H119" t="n">
-        <v>-0.1500001</v>
+        <v>0.01999998</v>
       </c>
       <c r="I119" t="n">
-        <v>-8.875745</v>
+        <v>1.1834308</v>
       </c>
       <c r="J119" t="n">
-        <v>143392</v>
+        <v>150147</v>
       </c>
       <c r="K119" t="n">
         <v>17089</v>
       </c>
       <c r="L119" t="n">
-        <v>0.09412526977539062</v>
+        <v>0.1106045971679687</v>
       </c>
       <c r="M119" t="b">
         <v>1</v>
@@ -8771,10 +8771,10 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>0.608</v>
+        <v>0.614</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.178</v>
+        <v>0.151</v>
       </c>
       <c r="R119" t="n">
         <v>0.08799999999999999</v>
@@ -8783,7 +8783,7 @@
         <v>0.007</v>
       </c>
       <c r="T119" t="n">
-        <v>-0.452</v>
+        <v>-0.523</v>
       </c>
     </row>
     <row r="120">
@@ -8804,28 +8804,28 @@
         <v>438</v>
       </c>
       <c r="E120" t="n">
-        <v>1.04</v>
+        <v>1.2</v>
       </c>
       <c r="F120" t="n">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="G120" t="n">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.19000006</v>
+        <v>-0.029999971</v>
       </c>
       <c r="I120" t="n">
-        <v>-15.447159</v>
+        <v>-2.439022</v>
       </c>
       <c r="J120" t="n">
-        <v>167479</v>
+        <v>179470</v>
       </c>
       <c r="K120" t="n">
         <v>21427</v>
       </c>
       <c r="L120" t="n">
-        <v>0.09888596435546876</v>
+        <v>0.1027921752929687</v>
       </c>
       <c r="M120" t="b">
         <v>0</v>
@@ -8841,19 +8841,19 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>0.428</v>
+        <v>0.455</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.173</v>
+        <v>0.168</v>
       </c>
       <c r="R120" t="n">
-        <v>0.09</v>
+        <v>0.091</v>
       </c>
       <c r="S120" t="n">
         <v>0.005</v>
       </c>
       <c r="T120" t="n">
-        <v>-0.471</v>
+        <v>-0.495</v>
       </c>
     </row>
     <row r="121">
@@ -8874,28 +8874,28 @@
         <v>439</v>
       </c>
       <c r="E121" t="n">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
       <c r="F121" t="n">
-        <v>0.64</v>
+        <v>0.82</v>
       </c>
       <c r="G121" t="n">
-        <v>0.65</v>
+        <v>0.83</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.19</v>
+        <v>-0.09000002999999999</v>
       </c>
       <c r="I121" t="n">
-        <v>-22.35294</v>
+        <v>-10.588239</v>
       </c>
       <c r="J121" t="n">
-        <v>71417</v>
+        <v>74884</v>
       </c>
       <c r="K121" t="n">
         <v>16838</v>
       </c>
       <c r="L121" t="n">
-        <v>0.09693285888671876</v>
+        <v>0.1071866625976562</v>
       </c>
       <c r="M121" t="b">
         <v>0</v>
@@ -8911,19 +8911,19 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>0.263</v>
+        <v>0.303</v>
       </c>
       <c r="Q121" t="n">
-        <v>0.147</v>
+        <v>0.142</v>
       </c>
       <c r="R121" t="n">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
       <c r="S121" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="T121" t="n">
-        <v>-0.379</v>
+        <v>-0.448</v>
       </c>
     </row>
     <row r="122">
@@ -8944,28 +8944,28 @@
         <v>440</v>
       </c>
       <c r="E122" t="n">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
       <c r="F122" t="n">
-        <v>0.41</v>
+        <v>0.51</v>
       </c>
       <c r="G122" t="n">
-        <v>0.42</v>
+        <v>0.52</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.15</v>
+        <v>-0.07999998</v>
       </c>
       <c r="I122" t="n">
-        <v>-26.31579</v>
+        <v>-14.035085</v>
       </c>
       <c r="J122" t="n">
-        <v>87395</v>
+        <v>89737</v>
       </c>
       <c r="K122" t="n">
         <v>38206</v>
       </c>
       <c r="L122" t="n">
-        <v>0.100594931640625</v>
+        <v>0.1063321789550781</v>
       </c>
       <c r="M122" t="b">
         <v>0</v>
@@ -8981,19 +8981,19 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>0.148</v>
+        <v>0.177</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.1</v>
+        <v>0.107</v>
       </c>
       <c r="R122" t="n">
-        <v>0.053</v>
+        <v>0.059</v>
       </c>
       <c r="S122" t="n">
         <v>0.002</v>
       </c>
       <c r="T122" t="n">
-        <v>-0.276</v>
+        <v>-0.327</v>
       </c>
     </row>
     <row r="123">
@@ -9014,28 +9014,28 @@
         <v>441</v>
       </c>
       <c r="E123" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="F123" t="n">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="G123" t="n">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="H123" t="n">
-        <v>-0.120000005</v>
+        <v>-0.08000001</v>
       </c>
       <c r="I123" t="n">
-        <v>-32.432434</v>
+        <v>-21.621626</v>
       </c>
       <c r="J123" t="n">
-        <v>31504</v>
+        <v>33461</v>
       </c>
       <c r="K123" t="n">
         <v>13128</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1018156225585937</v>
+        <v>0.1071866625976562</v>
       </c>
       <c r="M123" t="b">
         <v>0</v>
@@ -9051,19 +9051,19 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>0.073</v>
+        <v>0.093</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.059</v>
+        <v>0.068</v>
       </c>
       <c r="R123" t="n">
-        <v>0.032</v>
+        <v>0.038</v>
       </c>
       <c r="S123" t="n">
         <v>0.001</v>
       </c>
       <c r="T123" t="n">
-        <v>-0.165</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="124">
@@ -9084,28 +9084,28 @@
         <v>442</v>
       </c>
       <c r="E124" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="F124" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G124" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.06999999</v>
+        <v>-0.030000001</v>
       </c>
       <c r="I124" t="n">
-        <v>-31.818178</v>
+        <v>-13.636364</v>
       </c>
       <c r="J124" t="n">
-        <v>32294</v>
+        <v>32915</v>
       </c>
       <c r="K124" t="n">
         <v>36827</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1047452807617187</v>
+        <v>0.1069425244140625</v>
       </c>
       <c r="M124" t="b">
         <v>0</v>
@@ -9121,19 +9121,19 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>0.034</v>
+        <v>0.042</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.031</v>
+        <v>0.036</v>
       </c>
       <c r="R124" t="n">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
       </c>
       <c r="T124" t="n">
-        <v>-0.092</v>
+        <v>-0.112</v>
       </c>
     </row>
     <row r="125">
@@ -9154,28 +9154,28 @@
         <v>443</v>
       </c>
       <c r="E125" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="F125" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.060000002</v>
+        <v>-0.030000001</v>
       </c>
       <c r="I125" t="n">
-        <v>-42.857143</v>
+        <v>-21.428572</v>
       </c>
       <c r="J125" t="n">
-        <v>13143</v>
+        <v>14102</v>
       </c>
       <c r="K125" t="n">
         <v>7898</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1079190771484375</v>
+        <v>0.1098721826171875</v>
       </c>
       <c r="M125" t="b">
         <v>0</v>
@@ -9191,19 +9191,19 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>0.015</v>
+        <v>0.019</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.015</v>
+        <v>0.018</v>
       </c>
       <c r="R125" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.011</v>
       </c>
       <c r="S125" t="n">
         <v>0</v>
       </c>
       <c r="T125" t="n">
-        <v>-0.047</v>
+        <v>-0.059</v>
       </c>
     </row>
     <row r="126">
@@ -9239,13 +9239,13 @@
         <v>-25</v>
       </c>
       <c r="J126" t="n">
-        <v>9355</v>
+        <v>9867</v>
       </c>
       <c r="K126" t="n">
         <v>6936</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1132901171875</v>
+        <v>0.11133701171875</v>
       </c>
       <c r="M126" t="b">
         <v>0</v>
@@ -9309,13 +9309,13 @@
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>6903</v>
+        <v>7214</v>
       </c>
       <c r="K127" t="n">
         <v>21998</v>
       </c>
       <c r="L127" t="n">
-        <v>0.11914943359375</v>
+        <v>0.116219775390625</v>
       </c>
       <c r="M127" t="b">
         <v>0</v>
@@ -9331,7 +9331,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="Q127" t="n">
         <v>0.004</v>
@@ -9343,7 +9343,7 @@
         <v>0</v>
       </c>
       <c r="T127" t="n">
-        <v>-0.015</v>
+        <v>-0.014</v>
       </c>
     </row>
     <row r="128">
@@ -9364,7 +9364,7 @@
         <v>446</v>
       </c>
       <c r="E128" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F128" t="n">
         <v>0.02</v>
@@ -9373,19 +9373,19 @@
         <v>0.03</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>-33.333336</v>
       </c>
       <c r="J128" t="n">
-        <v>4058</v>
+        <v>4220</v>
       </c>
       <c r="K128" t="n">
         <v>6800</v>
       </c>
       <c r="L128" t="n">
-        <v>0.125985302734375</v>
+        <v>0.124032197265625</v>
       </c>
       <c r="M128" t="b">
         <v>0</v>
@@ -9449,13 +9449,13 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>1169</v>
+        <v>1722</v>
       </c>
       <c r="K129" t="n">
         <v>5261</v>
       </c>
       <c r="L129" t="n">
-        <v>0.13086806640625</v>
+        <v>0.1289149609375</v>
       </c>
       <c r="M129" t="b">
         <v>0</v>
@@ -9504,7 +9504,7 @@
         <v>448</v>
       </c>
       <c r="E130" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F130" t="n">
         <v>0.01</v>
@@ -9513,19 +9513,19 @@
         <v>0.02</v>
       </c>
       <c r="H130" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>1263</v>
+        <v>1414</v>
       </c>
       <c r="K130" t="n">
         <v>5857</v>
       </c>
       <c r="L130" t="n">
-        <v>0.14258669921875</v>
+        <v>0.14063359375</v>
       </c>
       <c r="M130" t="b">
         <v>0</v>
@@ -9589,7 +9589,7 @@
         <v>-50</v>
       </c>
       <c r="J131" t="n">
-        <v>1578</v>
+        <v>1829</v>
       </c>
       <c r="K131" t="n">
         <v>4764</v>
@@ -9623,7 +9623,7 @@
         <v>0</v>
       </c>
       <c r="T131" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="132">
@@ -9659,13 +9659,13 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>1494</v>
+        <v>1512</v>
       </c>
       <c r="K132" t="n">
         <v>34672</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1523522265625</v>
+        <v>0.148446015625</v>
       </c>
       <c r="M132" t="b">
         <v>0</v>
@@ -9693,7 +9693,7 @@
         <v>0</v>
       </c>
       <c r="T132" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="133">
@@ -9735,7 +9735,7 @@
         <v>8782</v>
       </c>
       <c r="L133" t="n">
-        <v>0.164070859375</v>
+        <v>0.1601646484375</v>
       </c>
       <c r="M133" t="b">
         <v>0</v>
@@ -9763,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="T133" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="134">
@@ -9875,7 +9875,7 @@
         <v>1589</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1836019140625</v>
+        <v>0.179695703125</v>
       </c>
       <c r="M135" t="b">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>2946</v>
       </c>
       <c r="L136" t="n">
-        <v>0.195320546875</v>
+        <v>0.1914143359375</v>
       </c>
       <c r="M136" t="b">
         <v>0</v>
@@ -10085,7 +10085,7 @@
         <v>4161</v>
       </c>
       <c r="L138" t="n">
-        <v>0.2148516015625</v>
+        <v>0.210945390625</v>
       </c>
       <c r="M138" t="b">
         <v>0</v>
@@ -10359,13 +10359,13 @@
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="K142" t="n">
         <v>70387</v>
       </c>
       <c r="L142" t="n">
-        <v>0.2539137109375</v>
+        <v>0.2500075</v>
       </c>
       <c r="M142" t="b">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>2740</v>
       </c>
       <c r="L144" t="n">
-        <v>0.2929758203124999</v>
+        <v>0.2890696093749999</v>
       </c>
       <c r="M144" t="b">
         <v>0</v>
@@ -10575,7 +10575,7 @@
         <v>4514</v>
       </c>
       <c r="L145" t="n">
-        <v>0.304694453125</v>
+        <v>0.3007882421875</v>
       </c>
       <c r="M145" t="b">
         <v>0</v>
@@ -10785,7 +10785,7 @@
         <v>12025</v>
       </c>
       <c r="L148" t="n">
-        <v>0.3515689843749999</v>
+        <v>0.3476627734375</v>
       </c>
       <c r="M148" t="b">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>267</v>
       </c>
       <c r="L150" t="n">
-        <v>0.3867248828124999</v>
+        <v>0.382818671875</v>
       </c>
       <c r="M150" t="b">
         <v>0</v>
@@ -10995,7 +10995,7 @@
         <v>5838</v>
       </c>
       <c r="L151" t="n">
-        <v>0.398443515625</v>
+        <v>0.39063109375</v>
       </c>
       <c r="M151" t="b">
         <v>0</v>
@@ -11763,7 +11763,7 @@
         <v>1069</v>
       </c>
       <c r="L162" t="n">
-        <v>0.73437765625</v>
+        <v>0.7187528125</v>
       </c>
       <c r="M162" t="b">
         <v>0</v>
@@ -11903,7 +11903,7 @@
         <v>688</v>
       </c>
       <c r="L164" t="n">
-        <v>0.851563984375</v>
+        <v>0.8437515624999999</v>
       </c>
       <c r="M164" t="b">
         <v>0</v>

--- a/calls_output.xlsx
+++ b/calls_output.xlsx
@@ -548,19 +548,19 @@
         <v>255</v>
       </c>
       <c r="E2" t="n">
-        <v>182.25</v>
+        <v>187.93</v>
       </c>
       <c r="F2" t="n">
-        <v>182.42</v>
+        <v>188.68</v>
       </c>
       <c r="G2" t="n">
-        <v>182.68</v>
+        <v>188.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5299988</v>
+        <v>5.6799927</v>
       </c>
       <c r="I2" t="n">
-        <v>0.29165682</v>
+        <v>3.116594</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -587,18 +587,14 @@
       <c r="P2" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-0.037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -657,18 +653,14 @@
       <c r="P3" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="T3" t="n">
-        <v>-0.037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -691,10 +683,10 @@
         <v>166.37</v>
       </c>
       <c r="F4" t="n">
-        <v>172.45</v>
+        <v>178.7</v>
       </c>
       <c r="G4" t="n">
-        <v>172.7</v>
+        <v>178.83</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -709,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.1250046875</v>
+        <v>1e-05</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
@@ -727,18 +719,14 @@
       <c r="P4" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="T4" t="n">
-        <v>-0.038</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -761,10 +749,10 @@
         <v>169.74</v>
       </c>
       <c r="F5" t="n">
-        <v>167.55</v>
+        <v>173.64</v>
       </c>
       <c r="G5" t="n">
-        <v>167.89</v>
+        <v>173.82</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -779,7 +767,7 @@
         <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>2.24219189453125</v>
+        <v>1e-05</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
@@ -797,18 +785,14 @@
       <c r="P5" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="T5" t="n">
-        <v>-0.041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -831,10 +815,10 @@
         <v>166.53</v>
       </c>
       <c r="F6" t="n">
-        <v>162.48</v>
+        <v>168.67</v>
       </c>
       <c r="G6" t="n">
-        <v>162.72</v>
+        <v>168.83</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -849,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2.16406708984375</v>
+        <v>1e-05</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
@@ -867,18 +851,14 @@
       <c r="P6" t="n">
         <v>1</v>
       </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="T6" t="n">
-        <v>-0.041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -901,10 +881,10 @@
         <v>160.69</v>
       </c>
       <c r="F7" t="n">
-        <v>157.54</v>
+        <v>163.74</v>
       </c>
       <c r="G7" t="n">
-        <v>157.9</v>
+        <v>163.88</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -919,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.085942285156249</v>
+        <v>1e-05</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
@@ -937,18 +917,14 @@
       <c r="P7" t="n">
         <v>1</v>
       </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="T7" t="n">
-        <v>-0.042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -971,10 +947,10 @@
         <v>156.53</v>
       </c>
       <c r="F8" t="n">
-        <v>152.48</v>
+        <v>158.69</v>
       </c>
       <c r="G8" t="n">
-        <v>152.74</v>
+        <v>158.84</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -989,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2.1093797265625</v>
+        <v>1e-05</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
@@ -1007,18 +983,14 @@
       <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="T8" t="n">
-        <v>-0.045</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1077,18 +1049,14 @@
       <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="T9" t="n">
-        <v>-0.042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1111,10 +1079,10 @@
         <v>127.3</v>
       </c>
       <c r="F10" t="n">
-        <v>142.46</v>
+        <v>148.7</v>
       </c>
       <c r="G10" t="n">
-        <v>142.86</v>
+        <v>148.87</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1129,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>2.236332534179687</v>
+        <v>1e-05</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
@@ -1147,18 +1115,14 @@
       <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="T10" t="n">
-        <v>-0.07099999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1181,10 +1145,10 @@
         <v>134.86</v>
       </c>
       <c r="F11" t="n">
-        <v>137.49</v>
+        <v>143.65</v>
       </c>
       <c r="G11" t="n">
-        <v>137.75</v>
+        <v>143.82</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1199,7 +1163,7 @@
         <v>12</v>
       </c>
       <c r="L11" t="n">
-        <v>1.9140629296875</v>
+        <v>1e-05</v>
       </c>
       <c r="M11" t="b">
         <v>1</v>
@@ -1217,18 +1181,14 @@
       <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="T11" t="n">
-        <v>-0.049</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1251,10 +1211,10 @@
         <v>129.25</v>
       </c>
       <c r="F12" t="n">
-        <v>132.6</v>
+        <v>138.69</v>
       </c>
       <c r="G12" t="n">
-        <v>132.92</v>
+        <v>138.84</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1269,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.8671881640625</v>
+        <v>1e-05</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
@@ -1287,18 +1247,14 @@
       <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="T12" t="n">
-        <v>-0.052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1321,10 +1277,10 @@
         <v>121.41</v>
       </c>
       <c r="F13" t="n">
-        <v>127.52</v>
+        <v>133.68</v>
       </c>
       <c r="G13" t="n">
-        <v>127.8</v>
+        <v>133.84</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1339,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.87890685546875</v>
+        <v>1e-05</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
@@ -1357,18 +1313,14 @@
       <c r="P13" t="n">
         <v>1</v>
       </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="T13" t="n">
-        <v>-0.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1391,10 +1343,10 @@
         <v>122.01</v>
       </c>
       <c r="F14" t="n">
-        <v>122.49</v>
+        <v>128.73</v>
       </c>
       <c r="G14" t="n">
-        <v>122.74</v>
+        <v>128.9</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1409,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1.65234548828125</v>
+        <v>1e-05</v>
       </c>
       <c r="M14" t="b">
         <v>1</v>
@@ -1427,18 +1379,14 @@
       <c r="P14" t="n">
         <v>1</v>
       </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="T14" t="n">
-        <v>-0.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1461,10 +1409,10 @@
         <v>114.84</v>
       </c>
       <c r="F15" t="n">
-        <v>117.51</v>
+        <v>123.68</v>
       </c>
       <c r="G15" t="n">
-        <v>117.75</v>
+        <v>123.84</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1479,7 +1427,7 @@
         <v>12</v>
       </c>
       <c r="L15" t="n">
-        <v>1.609376953125</v>
+        <v>1e-05</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
@@ -1497,18 +1445,14 @@
       <c r="P15" t="n">
         <v>1</v>
       </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="T15" t="n">
-        <v>-0.052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1531,10 +1475,10 @@
         <v>111.8</v>
       </c>
       <c r="F16" t="n">
-        <v>112.55</v>
+        <v>118.69</v>
       </c>
       <c r="G16" t="n">
-        <v>112.8</v>
+        <v>118.86</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1549,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.646486142578125</v>
+        <v>1e-05</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
@@ -1567,18 +1511,14 @@
       <c r="P16" t="n">
         <v>1</v>
       </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="T16" t="n">
-        <v>-0.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1598,28 +1538,28 @@
         <v>330</v>
       </c>
       <c r="E17" t="n">
-        <v>103.11</v>
+        <v>112.8</v>
       </c>
       <c r="F17" t="n">
-        <v>107.62</v>
+        <v>113.71</v>
       </c>
       <c r="G17" t="n">
-        <v>107.88</v>
+        <v>113.88</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>9.690002</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>9.397733000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
         <v>6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.46484642578125</v>
+        <v>1e-05</v>
       </c>
       <c r="M17" t="b">
         <v>1</v>
@@ -1637,18 +1577,14 @@
       <c r="P17" t="n">
         <v>1</v>
       </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="T17" t="n">
-        <v>-0.054</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1668,28 +1604,28 @@
         <v>335</v>
       </c>
       <c r="E18" t="n">
-        <v>99.83</v>
+        <v>107.75</v>
       </c>
       <c r="F18" t="n">
-        <v>102.62</v>
+        <v>108.71</v>
       </c>
       <c r="G18" t="n">
-        <v>102.89</v>
+        <v>108.88</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>7.919998</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.933485</v>
       </c>
       <c r="J18" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K18" t="n">
         <v>20</v>
       </c>
       <c r="L18" t="n">
-        <v>1.40625296875</v>
+        <v>1e-05</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
@@ -1707,18 +1643,14 @@
       <c r="P18" t="n">
         <v>1</v>
       </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="T18" t="n">
-        <v>-0.056</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1741,25 +1673,25 @@
         <v>100.75</v>
       </c>
       <c r="F19" t="n">
-        <v>100.48</v>
+        <v>106.72</v>
       </c>
       <c r="G19" t="n">
-        <v>100.73</v>
+        <v>106.88</v>
       </c>
       <c r="H19" t="n">
-        <v>4.5699997</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>4.7515073</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.3125034375</v>
+        <v>1e-05</v>
       </c>
       <c r="M19" t="b">
         <v>1</v>
@@ -1777,18 +1709,14 @@
       <c r="P19" t="n">
         <v>1</v>
       </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="T19" t="n">
-        <v>-0.052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1811,10 +1739,10 @@
         <v>95.20999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>99.69</v>
+        <v>105.69</v>
       </c>
       <c r="G20" t="n">
-        <v>99.95</v>
+        <v>105.85</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1829,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.48047134765625</v>
+        <v>1e-05</v>
       </c>
       <c r="M20" t="b">
         <v>1</v>
@@ -1847,18 +1775,14 @@
       <c r="P20" t="n">
         <v>1</v>
       </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="T20" t="n">
-        <v>-0.07099999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1881,25 +1805,25 @@
         <v>98.77</v>
       </c>
       <c r="F21" t="n">
-        <v>98.51000000000001</v>
+        <v>104.69</v>
       </c>
       <c r="G21" t="n">
-        <v>98.76000000000001</v>
+        <v>104.85</v>
       </c>
       <c r="H21" t="n">
-        <v>14.119995</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.680443</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.36328443359375</v>
+        <v>1e-05</v>
       </c>
       <c r="M21" t="b">
         <v>1</v>
@@ -1917,18 +1841,14 @@
       <c r="P21" t="n">
         <v>1</v>
       </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="T21" t="n">
-        <v>-0.058</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1951,10 +1871,10 @@
         <v>96.63</v>
       </c>
       <c r="F22" t="n">
-        <v>97.51000000000001</v>
+        <v>103.7</v>
       </c>
       <c r="G22" t="n">
-        <v>97.76000000000001</v>
+        <v>103.85</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1969,7 +1889,7 @@
         <v>7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.34765951171875</v>
+        <v>1e-05</v>
       </c>
       <c r="M22" t="b">
         <v>1</v>
@@ -1987,18 +1907,14 @@
       <c r="P22" t="n">
         <v>1</v>
       </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="T22" t="n">
-        <v>-0.058</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2055,18 +1971,14 @@
       <c r="P23" t="n">
         <v>1</v>
       </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="T23" t="n">
-        <v>-0.049</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2125,18 +2037,14 @@
       <c r="P24" t="n">
         <v>1</v>
       </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="T24" t="n">
-        <v>-0.049</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2195,18 +2103,14 @@
       <c r="P25" t="n">
         <v>1</v>
       </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="T25" t="n">
-        <v>-0.049</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2265,18 +2169,14 @@
       <c r="P26" t="n">
         <v>1</v>
       </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="T26" t="n">
-        <v>-0.049</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2299,10 +2199,10 @@
         <v>97.31999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>92.63</v>
+        <v>98.69</v>
       </c>
       <c r="G27" t="n">
-        <v>92.89</v>
+        <v>98.84999999999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2317,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>1.27734736328125</v>
+        <v>1e-05</v>
       </c>
       <c r="M27" t="b">
         <v>1</v>
@@ -2335,18 +2235,14 @@
       <c r="P27" t="n">
         <v>1</v>
       </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="T27" t="n">
-        <v>-0.059</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2405,18 +2301,14 @@
       <c r="P28" t="n">
         <v>1</v>
       </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q28" t="inlineStr"/>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="T28" t="n">
-        <v>-0.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2473,18 +2365,14 @@
       <c r="P29" t="n">
         <v>1</v>
       </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T29" t="n">
-        <v>-0.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2543,18 +2431,14 @@
       <c r="P30" t="n">
         <v>1</v>
       </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T30" t="n">
-        <v>-0.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2577,10 +2461,10 @@
         <v>93.37</v>
       </c>
       <c r="F31" t="n">
-        <v>88.59999999999999</v>
+        <v>94.75</v>
       </c>
       <c r="G31" t="n">
-        <v>88.90000000000001</v>
+        <v>94.91</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2595,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.19922275390625</v>
+        <v>1e-05</v>
       </c>
       <c r="M31" t="b">
         <v>1</v>
@@ -2613,18 +2497,14 @@
       <c r="P31" t="n">
         <v>1</v>
       </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T31" t="n">
-        <v>-0.057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2644,28 +2524,28 @@
         <v>350</v>
       </c>
       <c r="E32" t="n">
-        <v>87.61</v>
+        <v>93.43000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>87.55</v>
+        <v>93.75</v>
       </c>
       <c r="G32" t="n">
-        <v>87.84</v>
+        <v>93.91</v>
       </c>
       <c r="H32" t="n">
-        <v>1.6500015</v>
+        <v>5.8199997</v>
       </c>
       <c r="I32" t="n">
-        <v>1.9194993</v>
+        <v>6.6430774</v>
       </c>
       <c r="J32" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="K32" t="n">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="L32" t="n">
-        <v>0.937500625</v>
+        <v>1e-05</v>
       </c>
       <c r="M32" t="b">
         <v>1</v>
@@ -2683,18 +2563,14 @@
       <c r="P32" t="n">
         <v>1</v>
       </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T32" t="n">
-        <v>-0.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2717,10 +2593,10 @@
         <v>79.75</v>
       </c>
       <c r="F33" t="n">
-        <v>86.52</v>
+        <v>92.75</v>
       </c>
       <c r="G33" t="n">
-        <v>86.77</v>
+        <v>92.91</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2735,7 +2611,7 @@
         <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>1.2109414453125</v>
+        <v>1e-05</v>
       </c>
       <c r="M33" t="b">
         <v>1</v>
@@ -2753,18 +2629,14 @@
       <c r="P33" t="n">
         <v>1</v>
       </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T33" t="n">
-        <v>-0.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2787,10 +2659,10 @@
         <v>90.48999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>85.64</v>
+        <v>91.7</v>
       </c>
       <c r="G34" t="n">
-        <v>85.84999999999999</v>
+        <v>91.84999999999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2805,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>1.1484417578125</v>
+        <v>1e-05</v>
       </c>
       <c r="M34" t="b">
         <v>1</v>
@@ -2823,18 +2695,14 @@
       <c r="P34" t="n">
         <v>1</v>
       </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q34" t="inlineStr"/>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T34" t="n">
-        <v>-0.057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2857,10 +2725,10 @@
         <v>75.52</v>
       </c>
       <c r="F35" t="n">
-        <v>84.52</v>
+        <v>90.70999999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>84.77</v>
+        <v>90.86</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2875,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1.18359783203125</v>
+        <v>1e-05</v>
       </c>
       <c r="M35" t="b">
         <v>1</v>
@@ -2893,18 +2761,14 @@
       <c r="P35" t="n">
         <v>1</v>
       </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T35" t="n">
-        <v>-0.062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2945,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>2.166752630004883</v>
+        <v>1e-05</v>
       </c>
       <c r="M36" t="b">
         <v>1</v>
@@ -2961,20 +2825,16 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.973</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="T36" t="n">
-        <v>-1.591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2994,28 +2854,28 @@
         <v>355</v>
       </c>
       <c r="E37" t="n">
-        <v>88.51000000000001</v>
+        <v>88.94</v>
       </c>
       <c r="F37" t="n">
-        <v>82.56</v>
+        <v>88.73</v>
       </c>
       <c r="G37" t="n">
-        <v>82.83</v>
+        <v>88.89</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.4300003</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.48582116</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
         <v>5</v>
       </c>
       <c r="L37" t="n">
-        <v>0.87500125</v>
+        <v>1e-05</v>
       </c>
       <c r="M37" t="b">
         <v>1</v>
@@ -3033,18 +2893,14 @@
       <c r="P37" t="n">
         <v>1</v>
       </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T37" t="n">
-        <v>-0.051</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3067,10 +2923,10 @@
         <v>81.72</v>
       </c>
       <c r="F38" t="n">
-        <v>81.52</v>
+        <v>87.7</v>
       </c>
       <c r="G38" t="n">
-        <v>81.77</v>
+        <v>87.86</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3085,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1.142582412109375</v>
+        <v>1e-05</v>
       </c>
       <c r="M38" t="b">
         <v>1</v>
@@ -3103,18 +2959,14 @@
       <c r="P38" t="n">
         <v>1</v>
       </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T38" t="n">
-        <v>-0.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3173,18 +3025,14 @@
       <c r="P39" t="n">
         <v>1</v>
       </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q39" t="inlineStr"/>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T39" t="n">
-        <v>-0.051</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3207,10 +3055,10 @@
         <v>64.67</v>
       </c>
       <c r="F40" t="n">
-        <v>79.64</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>79.90000000000001</v>
+        <v>85.87</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3225,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.11328568359375</v>
+        <v>1e-05</v>
       </c>
       <c r="M40" t="b">
         <v>1</v>
@@ -3243,18 +3091,14 @@
       <c r="P40" t="n">
         <v>1</v>
       </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q40" t="inlineStr"/>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T40" t="n">
-        <v>-0.063</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -3313,18 +3157,14 @@
       <c r="P41" t="n">
         <v>1</v>
       </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T41" t="n">
-        <v>-0.052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3347,10 +3187,10 @@
         <v>75.97</v>
       </c>
       <c r="F42" t="n">
-        <v>77.56</v>
+        <v>83.7</v>
       </c>
       <c r="G42" t="n">
-        <v>77.83</v>
+        <v>83.87</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3365,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="L42" t="n">
-        <v>0.8281267187499999</v>
+        <v>1e-05</v>
       </c>
       <c r="M42" t="b">
         <v>1</v>
@@ -3383,18 +3223,14 @@
       <c r="P42" t="n">
         <v>1</v>
       </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q42" t="inlineStr"/>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T42" t="n">
-        <v>-0.052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -3453,18 +3289,14 @@
       <c r="P43" t="n">
         <v>1</v>
       </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q43" t="inlineStr"/>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T43" t="n">
-        <v>-0.052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3523,18 +3355,14 @@
       <c r="P44" t="n">
         <v>1</v>
       </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q44" t="inlineStr"/>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T44" t="n">
-        <v>-0.052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3593,18 +3421,14 @@
       <c r="P45" t="n">
         <v>1</v>
       </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T45" t="n">
-        <v>-0.052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3627,10 +3451,10 @@
         <v>78.45999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>73.53</v>
+        <v>79.7</v>
       </c>
       <c r="G46" t="n">
-        <v>73.78</v>
+        <v>79.87</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3645,7 +3469,7 @@
         <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>1.046879765625</v>
+        <v>1e-05</v>
       </c>
       <c r="M46" t="b">
         <v>1</v>
@@ -3663,18 +3487,14 @@
       <c r="P46" t="n">
         <v>1</v>
       </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q46" t="inlineStr"/>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T46" t="n">
-        <v>-0.067</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3697,10 +3517,10 @@
         <v>67.95999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>72.55</v>
+        <v>78.7</v>
       </c>
       <c r="G47" t="n">
-        <v>72.84</v>
+        <v>78.87</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3715,7 +3535,7 @@
         <v>15</v>
       </c>
       <c r="L47" t="n">
-        <v>0.7812521875</v>
+        <v>1e-05</v>
       </c>
       <c r="M47" t="b">
         <v>1</v>
@@ -3733,18 +3553,14 @@
       <c r="P47" t="n">
         <v>1</v>
       </c>
-      <c r="Q47" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T47" t="n">
-        <v>-0.053</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3767,10 +3583,10 @@
         <v>71.03</v>
       </c>
       <c r="F48" t="n">
-        <v>71.53</v>
+        <v>77.70999999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>71.78</v>
+        <v>77.86</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3785,7 +3601,7 @@
         <v>2</v>
       </c>
       <c r="L48" t="n">
-        <v>1.01953615234375</v>
+        <v>1e-05</v>
       </c>
       <c r="M48" t="b">
         <v>1</v>
@@ -3803,18 +3619,14 @@
       <c r="P48" t="n">
         <v>1</v>
       </c>
-      <c r="Q48" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q48" t="inlineStr"/>
       <c r="R48" t="n">
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T48" t="n">
-        <v>-0.068</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3855,7 +3667,7 @@
         <v>13</v>
       </c>
       <c r="L49" t="n">
-        <v>1.126957490234375</v>
+        <v>1e-05</v>
       </c>
       <c r="M49" t="b">
         <v>1</v>
@@ -3871,20 +3683,16 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q49" t="inlineStr"/>
       <c r="R49" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T49" t="n">
-        <v>-0.107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3907,10 +3715,10 @@
         <v>68.55</v>
       </c>
       <c r="F50" t="n">
-        <v>69.56999999999999</v>
+        <v>75.73999999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>69.84</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3925,7 +3733,7 @@
         <v>3</v>
       </c>
       <c r="L50" t="n">
-        <v>0.8125018749999999</v>
+        <v>1e-05</v>
       </c>
       <c r="M50" t="b">
         <v>1</v>
@@ -3943,18 +3751,14 @@
       <c r="P50" t="n">
         <v>1</v>
       </c>
-      <c r="Q50" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q50" t="inlineStr"/>
       <c r="R50" t="n">
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T50" t="n">
-        <v>-0.054</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3977,10 +3781,10 @@
         <v>73.09</v>
       </c>
       <c r="F51" t="n">
-        <v>68.65000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="G51" t="n">
-        <v>68.91</v>
+        <v>74.86</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3995,7 +3799,7 @@
         <v>2</v>
       </c>
       <c r="L51" t="n">
-        <v>0.9785158398437501</v>
+        <v>1e-05</v>
       </c>
       <c r="M51" t="b">
         <v>1</v>
@@ -4013,18 +3817,14 @@
       <c r="P51" t="n">
         <v>1</v>
       </c>
-      <c r="Q51" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q51" t="inlineStr"/>
       <c r="R51" t="n">
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T51" t="n">
-        <v>-0.06900000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -4044,28 +3844,28 @@
         <v>370</v>
       </c>
       <c r="E52" t="n">
-        <v>67.66</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>67.65000000000001</v>
+        <v>73.70999999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>67.91</v>
+        <v>73.87</v>
       </c>
       <c r="H52" t="n">
-        <v>1.7000046</v>
+        <v>5.439995</v>
       </c>
       <c r="I52" t="n">
-        <v>2.5773265</v>
+        <v>8.040194</v>
       </c>
       <c r="J52" t="n">
         <v>3</v>
       </c>
       <c r="K52" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L52" t="n">
-        <v>0.9648441015625</v>
+        <v>1e-05</v>
       </c>
       <c r="M52" t="b">
         <v>1</v>
@@ -4083,18 +3883,14 @@
       <c r="P52" t="n">
         <v>1</v>
       </c>
-      <c r="Q52" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q52" t="inlineStr"/>
       <c r="R52" t="n">
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T52" t="n">
-        <v>-0.06900000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -4117,10 +3913,10 @@
         <v>72.03</v>
       </c>
       <c r="F53" t="n">
-        <v>66.65000000000001</v>
+        <v>72.70999999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>66.91</v>
+        <v>72.87</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4135,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0.9511723632812499</v>
+        <v>1e-05</v>
       </c>
       <c r="M53" t="b">
         <v>1</v>
@@ -4153,18 +3949,14 @@
       <c r="P53" t="n">
         <v>1</v>
       </c>
-      <c r="Q53" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q53" t="inlineStr"/>
       <c r="R53" t="n">
         <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T53" t="n">
-        <v>-0.06900000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -4223,18 +4015,14 @@
       <c r="P54" t="n">
         <v>1</v>
       </c>
-      <c r="Q54" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q54" t="inlineStr"/>
       <c r="R54" t="n">
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T54" t="n">
-        <v>-0.053</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -4257,10 +4045,10 @@
         <v>63.18</v>
       </c>
       <c r="F55" t="n">
-        <v>64.56999999999999</v>
+        <v>70.73</v>
       </c>
       <c r="G55" t="n">
-        <v>64.84</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4275,7 +4063,7 @@
         <v>2</v>
       </c>
       <c r="L55" t="n">
-        <v>0.7578149218750001</v>
+        <v>1e-05</v>
       </c>
       <c r="M55" t="b">
         <v>1</v>
@@ -4293,18 +4081,14 @@
       <c r="P55" t="n">
         <v>1</v>
       </c>
-      <c r="Q55" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q55" t="inlineStr"/>
       <c r="R55" t="n">
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T55" t="n">
-        <v>-0.055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -4327,10 +4111,10 @@
         <v>49.11</v>
       </c>
       <c r="F56" t="n">
-        <v>63.66</v>
+        <v>69.70999999999999</v>
       </c>
       <c r="G56" t="n">
-        <v>63.98</v>
+        <v>69.86</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4345,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0.95507857421875</v>
+        <v>1e-05</v>
       </c>
       <c r="M56" t="b">
         <v>1</v>
@@ -4361,20 +4145,16 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q56" t="inlineStr"/>
       <c r="R56" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T56" t="n">
-        <v>-0.082</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -4397,10 +4177,10 @@
         <v>68.31</v>
       </c>
       <c r="F57" t="n">
-        <v>62.54</v>
+        <v>68.72</v>
       </c>
       <c r="G57" t="n">
-        <v>62.79</v>
+        <v>68.88</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4415,7 +4195,7 @@
         <v>3</v>
       </c>
       <c r="L57" t="n">
-        <v>0.9082040429687499</v>
+        <v>1e-05</v>
       </c>
       <c r="M57" t="b">
         <v>1</v>
@@ -4431,20 +4211,16 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q57" t="inlineStr"/>
       <c r="R57" t="n">
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T57" t="n">
-        <v>-0.073</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -4467,10 +4243,10 @@
         <v>60.19</v>
       </c>
       <c r="F58" t="n">
-        <v>61.72</v>
+        <v>67.72</v>
       </c>
       <c r="G58" t="n">
-        <v>61.92</v>
+        <v>67.88</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4485,7 +4261,7 @@
         <v>1</v>
       </c>
       <c r="L58" t="n">
-        <v>0.9257819921875</v>
+        <v>1e-05</v>
       </c>
       <c r="M58" t="b">
         <v>1</v>
@@ -4501,20 +4277,16 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q58" t="inlineStr"/>
       <c r="R58" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T58" t="n">
-        <v>-0.083</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -4537,10 +4309,10 @@
         <v>59.51</v>
       </c>
       <c r="F59" t="n">
-        <v>60.64</v>
+        <v>66.68000000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>60.87</v>
+        <v>66.81999999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4555,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0.8339860351562498</v>
+        <v>1e-05</v>
       </c>
       <c r="M59" t="b">
         <v>1</v>
@@ -4573,18 +4345,14 @@
       <c r="P59" t="n">
         <v>1</v>
       </c>
-      <c r="Q59" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q59" t="inlineStr"/>
       <c r="R59" t="n">
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T59" t="n">
-        <v>-0.064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -4607,10 +4375,10 @@
         <v>58.56</v>
       </c>
       <c r="F60" t="n">
-        <v>59.66</v>
+        <v>65.7</v>
       </c>
       <c r="G60" t="n">
-        <v>59.89</v>
+        <v>65.86</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4625,7 +4393,7 @@
         <v>2</v>
       </c>
       <c r="L60" t="n">
-        <v>0.8476577734374999</v>
+        <v>1e-05</v>
       </c>
       <c r="M60" t="b">
         <v>1</v>
@@ -4643,18 +4411,14 @@
       <c r="P60" t="n">
         <v>1</v>
       </c>
-      <c r="Q60" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q60" t="inlineStr"/>
       <c r="R60" t="n">
         <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T60" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -4677,16 +4441,16 @@
         <v>57.86</v>
       </c>
       <c r="F61" t="n">
-        <v>58.65</v>
+        <v>64.68000000000001</v>
       </c>
       <c r="G61" t="n">
-        <v>58.89</v>
+        <v>64.81999999999999</v>
       </c>
       <c r="H61" t="n">
-        <v>0.3199997</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.5561343399999999</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
         <v>2</v>
@@ -4695,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>0.8281267187499999</v>
+        <v>1e-05</v>
       </c>
       <c r="M61" t="b">
         <v>1</v>
@@ -4713,18 +4477,14 @@
       <c r="P61" t="n">
         <v>1</v>
       </c>
-      <c r="Q61" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q61" t="inlineStr"/>
       <c r="R61" t="n">
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T61" t="n">
-        <v>-0.06900000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -4744,28 +4504,28 @@
         <v>380</v>
       </c>
       <c r="E62" t="n">
-        <v>57.38</v>
+        <v>62.22</v>
       </c>
       <c r="F62" t="n">
-        <v>57.54</v>
+        <v>63.72</v>
       </c>
       <c r="G62" t="n">
-        <v>57.79</v>
+        <v>63.88</v>
       </c>
       <c r="H62" t="n">
-        <v>1.5400009</v>
+        <v>4.84</v>
       </c>
       <c r="I62" t="n">
-        <v>2.7578814</v>
+        <v>8.434995000000001</v>
       </c>
       <c r="J62" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K62" t="n">
         <v>68</v>
       </c>
       <c r="L62" t="n">
-        <v>0.8398453515625</v>
+        <v>1e-05</v>
       </c>
       <c r="M62" t="b">
         <v>1</v>
@@ -4781,20 +4541,16 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q62" t="inlineStr"/>
       <c r="R62" t="n">
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T62" t="n">
-        <v>-0.075</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -4817,10 +4573,10 @@
         <v>49.22</v>
       </c>
       <c r="F63" t="n">
-        <v>56.76</v>
+        <v>62.75</v>
       </c>
       <c r="G63" t="n">
-        <v>57.03</v>
+        <v>62.92</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4835,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>0.9140633593750001</v>
+        <v>1e-05</v>
       </c>
       <c r="M63" t="b">
         <v>1</v>
@@ -4851,20 +4607,16 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.998</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q63" t="inlineStr"/>
       <c r="R63" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T63" t="n">
-        <v>-0.113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -4887,10 +4639,10 @@
         <v>58.71</v>
       </c>
       <c r="F64" t="n">
-        <v>55.56</v>
+        <v>61.76</v>
       </c>
       <c r="G64" t="n">
-        <v>55.79</v>
+        <v>61.92</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4905,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0.8125018749999999</v>
+        <v>1e-05</v>
       </c>
       <c r="M64" t="b">
         <v>1</v>
@@ -4921,20 +4673,16 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q64" t="inlineStr"/>
       <c r="R64" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T64" t="n">
-        <v>-0.075</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -4957,10 +4705,10 @@
         <v>59.92</v>
       </c>
       <c r="F65" t="n">
-        <v>54.66</v>
+        <v>60.76</v>
       </c>
       <c r="G65" t="n">
-        <v>54.92</v>
+        <v>60.92</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4975,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0.79883013671875</v>
+        <v>1e-05</v>
       </c>
       <c r="M65" t="b">
         <v>1</v>
@@ -4991,20 +4739,16 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q65" t="inlineStr"/>
       <c r="R65" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T65" t="n">
-        <v>-0.076</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -5027,10 +4771,10 @@
         <v>58.15</v>
       </c>
       <c r="F66" t="n">
-        <v>53.57</v>
+        <v>59.7</v>
       </c>
       <c r="G66" t="n">
-        <v>53.82</v>
+        <v>59.86</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5045,7 +4789,7 @@
         <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>0.5625043750000001</v>
+        <v>1e-05</v>
       </c>
       <c r="M66" t="b">
         <v>1</v>
@@ -5063,18 +4807,14 @@
       <c r="P66" t="n">
         <v>1</v>
       </c>
-      <c r="Q66" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q66" t="inlineStr"/>
       <c r="R66" t="n">
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T66" t="n">
-        <v>-0.055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -5097,10 +4837,10 @@
         <v>51.46</v>
       </c>
       <c r="F67" t="n">
-        <v>52.67</v>
+        <v>58.74</v>
       </c>
       <c r="G67" t="n">
-        <v>52.93</v>
+        <v>58.89</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5115,7 +4855,7 @@
         <v>21</v>
       </c>
       <c r="L67" t="n">
-        <v>0.7812521875</v>
+        <v>1e-05</v>
       </c>
       <c r="M67" t="b">
         <v>1</v>
@@ -5131,20 +4871,16 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q67" t="inlineStr"/>
       <c r="R67" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T67" t="n">
-        <v>-0.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -5167,10 +4903,10 @@
         <v>50.32</v>
       </c>
       <c r="F68" t="n">
-        <v>51.63</v>
+        <v>57.74</v>
       </c>
       <c r="G68" t="n">
-        <v>51.93</v>
+        <v>57.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5185,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>0.7460962890625</v>
+        <v>1e-05</v>
       </c>
       <c r="M68" t="b">
         <v>1</v>
@@ -5201,20 +4937,16 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q68" t="inlineStr"/>
       <c r="R68" t="n">
         <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T68" t="n">
-        <v>-0.073</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -5237,10 +4969,10 @@
         <v>49.56</v>
       </c>
       <c r="F69" t="n">
-        <v>50.65</v>
+        <v>56.72</v>
       </c>
       <c r="G69" t="n">
-        <v>50.8</v>
+        <v>56.88</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5255,7 +4987,7 @@
         <v>5</v>
       </c>
       <c r="L69" t="n">
-        <v>0.6523472265625001</v>
+        <v>1e-05</v>
       </c>
       <c r="M69" t="b">
         <v>1</v>
@@ -5273,18 +5005,14 @@
       <c r="P69" t="n">
         <v>1</v>
       </c>
-      <c r="Q69" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q69" t="inlineStr"/>
       <c r="R69" t="n">
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T69" t="n">
-        <v>-0.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -5307,10 +5035,10 @@
         <v>54.01</v>
       </c>
       <c r="F70" t="n">
-        <v>49.77</v>
+        <v>55.71</v>
       </c>
       <c r="G70" t="n">
-        <v>49.88</v>
+        <v>55.86</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5325,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0.7617211328125001</v>
+        <v>1e-05</v>
       </c>
       <c r="M70" t="b">
         <v>1</v>
@@ -5341,20 +5069,16 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q70" t="inlineStr"/>
       <c r="R70" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T70" t="n">
-        <v>-0.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -5377,10 +5101,10 @@
         <v>46.92</v>
       </c>
       <c r="F71" t="n">
-        <v>48.67</v>
+        <v>54.72</v>
       </c>
       <c r="G71" t="n">
-        <v>48.88</v>
+        <v>54.88</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5395,7 +5119,7 @@
         <v>2</v>
       </c>
       <c r="L71" t="n">
-        <v>0.70117486328125</v>
+        <v>1e-05</v>
       </c>
       <c r="M71" t="b">
         <v>1</v>
@@ -5411,20 +5135,16 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q71" t="inlineStr"/>
       <c r="R71" t="n">
         <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T71" t="n">
-        <v>-0.073</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -5447,25 +5167,25 @@
         <v>47.5</v>
       </c>
       <c r="F72" t="n">
-        <v>47.45</v>
+        <v>53.68</v>
       </c>
       <c r="G72" t="n">
-        <v>47.99</v>
+        <v>53.84</v>
       </c>
       <c r="H72" t="n">
-        <v>1.4900017</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>3.2384303</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
         <v>10</v>
       </c>
       <c r="K72" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="L72" t="n">
-        <v>0.6054726953125001</v>
+        <v>1e-05</v>
       </c>
       <c r="M72" t="b">
         <v>1</v>
@@ -5483,18 +5203,14 @@
       <c r="P72" t="n">
         <v>1</v>
       </c>
-      <c r="Q72" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q72" t="inlineStr"/>
       <c r="R72" t="n">
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T72" t="n">
-        <v>-0.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -5517,10 +5233,10 @@
         <v>44.92</v>
       </c>
       <c r="F73" t="n">
-        <v>46.59</v>
+        <v>52.68</v>
       </c>
       <c r="G73" t="n">
-        <v>46.86</v>
+        <v>52.83</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5535,7 +5251,7 @@
         <v>4</v>
       </c>
       <c r="L73" t="n">
-        <v>0.6054726953125001</v>
+        <v>1e-05</v>
       </c>
       <c r="M73" t="b">
         <v>1</v>
@@ -5553,18 +5269,14 @@
       <c r="P73" t="n">
         <v>1</v>
       </c>
-      <c r="Q73" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q73" t="inlineStr"/>
       <c r="R73" t="n">
         <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T73" t="n">
-        <v>-0.061</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -5587,10 +5299,10 @@
         <v>50.98</v>
       </c>
       <c r="F74" t="n">
-        <v>45.54</v>
+        <v>51.73</v>
       </c>
       <c r="G74" t="n">
-        <v>46.04</v>
+        <v>51.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5605,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0.6757844921875001</v>
+        <v>1e-05</v>
       </c>
       <c r="M74" t="b">
         <v>1</v>
@@ -5621,20 +5333,16 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q74" t="inlineStr"/>
       <c r="R74" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S74" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T74" t="n">
-        <v>-0.079</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -5654,19 +5362,19 @@
         <v>393</v>
       </c>
       <c r="E75" t="n">
-        <v>47.66</v>
+        <v>50.07</v>
       </c>
       <c r="F75" t="n">
-        <v>44.67</v>
+        <v>50.68</v>
       </c>
       <c r="G75" t="n">
-        <v>44.93</v>
+        <v>50.84</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2.4099998</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>5.056651</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -5675,7 +5383,7 @@
         <v>1</v>
       </c>
       <c r="L75" t="n">
-        <v>0.6699251757812501</v>
+        <v>1e-05</v>
       </c>
       <c r="M75" t="b">
         <v>1</v>
@@ -5691,20 +5399,16 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q75" t="inlineStr"/>
       <c r="R75" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T75" t="n">
-        <v>-0.082</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -5727,10 +5431,10 @@
         <v>42.08</v>
       </c>
       <c r="F76" t="n">
-        <v>43.67</v>
+        <v>49.71</v>
       </c>
       <c r="G76" t="n">
-        <v>43.93</v>
+        <v>49.88</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5745,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="L76" t="n">
-        <v>0.6562534375000001</v>
+        <v>1e-05</v>
       </c>
       <c r="M76" t="b">
         <v>1</v>
@@ -5761,20 +5465,16 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q76" t="inlineStr"/>
       <c r="R76" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S76" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T76" t="n">
-        <v>-0.083</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -5794,28 +5494,28 @@
         <v>395</v>
       </c>
       <c r="E77" t="n">
-        <v>41.89</v>
+        <v>48.72</v>
       </c>
       <c r="F77" t="n">
-        <v>42.67</v>
+        <v>48.71</v>
       </c>
       <c r="G77" t="n">
-        <v>42.94</v>
+        <v>48.88</v>
       </c>
       <c r="H77" t="n">
-        <v>3.8999977</v>
+        <v>6.830002</v>
       </c>
       <c r="I77" t="n">
-        <v>10.265853</v>
+        <v>16.304611</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K77" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L77" t="n">
-        <v>0.647464462890625</v>
+        <v>1e-05</v>
       </c>
       <c r="M77" t="b">
         <v>1</v>
@@ -5831,20 +5531,16 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q77" t="inlineStr"/>
       <c r="R77" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S77" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T77" t="n">
-        <v>-0.08500000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -5867,10 +5563,10 @@
         <v>44.4</v>
       </c>
       <c r="F78" t="n">
-        <v>41.74</v>
+        <v>47.67</v>
       </c>
       <c r="G78" t="n">
-        <v>42</v>
+        <v>47.83</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5885,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="L78" t="n">
-        <v>0.6777375976562501</v>
+        <v>1e-05</v>
       </c>
       <c r="M78" t="b">
         <v>1</v>
@@ -5901,20 +5597,16 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.998</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q78" t="inlineStr"/>
       <c r="R78" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T78" t="n">
-        <v>-0.111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -5937,10 +5629,10 @@
         <v>38.75</v>
       </c>
       <c r="F79" t="n">
-        <v>40.64</v>
+        <v>46.71</v>
       </c>
       <c r="G79" t="n">
-        <v>40.94</v>
+        <v>46.88</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5955,7 +5647,7 @@
         <v>6</v>
       </c>
       <c r="L79" t="n">
-        <v>0.6074258007812501</v>
+        <v>1e-05</v>
       </c>
       <c r="M79" t="b">
         <v>1</v>
@@ -5971,20 +5663,16 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q79" t="inlineStr"/>
       <c r="R79" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S79" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T79" t="n">
-        <v>-0.081</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -6007,10 +5695,10 @@
         <v>37.95</v>
       </c>
       <c r="F80" t="n">
-        <v>39.56</v>
+        <v>45.71</v>
       </c>
       <c r="G80" t="n">
-        <v>39.81</v>
+        <v>45.88</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6025,7 +5713,7 @@
         <v>5</v>
       </c>
       <c r="L80" t="n">
-        <v>0.6093789062500001</v>
+        <v>1e-05</v>
       </c>
       <c r="M80" t="b">
         <v>1</v>
@@ -6041,20 +5729,16 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q80" t="inlineStr"/>
       <c r="R80" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T80" t="n">
-        <v>-0.08799999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -6074,28 +5758,28 @@
         <v>399</v>
       </c>
       <c r="E81" t="n">
-        <v>37.36</v>
+        <v>43.38</v>
       </c>
       <c r="F81" t="n">
-        <v>38.68</v>
+        <v>44.67</v>
       </c>
       <c r="G81" t="n">
-        <v>38.89</v>
+        <v>44.83</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>6.0200005</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>16.113491</v>
       </c>
       <c r="J81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K81" t="n">
         <v>45</v>
       </c>
       <c r="L81" t="n">
-        <v>0.57617611328125</v>
+        <v>1e-05</v>
       </c>
       <c r="M81" t="b">
         <v>1</v>
@@ -6111,20 +5795,16 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q81" t="inlineStr"/>
       <c r="R81" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T81" t="n">
-        <v>-0.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -6144,28 +5824,28 @@
         <v>400</v>
       </c>
       <c r="E82" t="n">
-        <v>37.43</v>
+        <v>43.85</v>
       </c>
       <c r="F82" t="n">
-        <v>37.46</v>
+        <v>43.71</v>
       </c>
       <c r="G82" t="n">
-        <v>38</v>
+        <v>43.88</v>
       </c>
       <c r="H82" t="n">
-        <v>1.0999985</v>
+        <v>6.419998</v>
       </c>
       <c r="I82" t="n">
-        <v>3.0277963</v>
+        <v>17.152012</v>
       </c>
       <c r="J82" t="n">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="K82" t="n">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="L82" t="n">
-        <v>0.5039112109375</v>
+        <v>1e-05</v>
       </c>
       <c r="M82" t="b">
         <v>1</v>
@@ -6183,18 +5863,14 @@
       <c r="P82" t="n">
         <v>1</v>
       </c>
-      <c r="Q82" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q82" t="inlineStr"/>
       <c r="R82" t="n">
         <v>0</v>
       </c>
       <c r="S82" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T82" t="n">
-        <v>-0.064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -6214,19 +5890,19 @@
         <v>401</v>
       </c>
       <c r="E83" t="n">
-        <v>34.54</v>
+        <v>42.23</v>
       </c>
       <c r="F83" t="n">
-        <v>36.6</v>
+        <v>42.67</v>
       </c>
       <c r="G83" t="n">
-        <v>36.87</v>
+        <v>42.83</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>7.6899986</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>22.264038</v>
       </c>
       <c r="J83" t="n">
         <v>1</v>
@@ -6235,7 +5911,7 @@
         <v>2</v>
       </c>
       <c r="L83" t="n">
-        <v>0.6054726953125001</v>
+        <v>1e-05</v>
       </c>
       <c r="M83" t="b">
         <v>1</v>
@@ -6251,20 +5927,16 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.997</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>0.001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q83" t="inlineStr"/>
       <c r="R83" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T83" t="n">
-        <v>-0.115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -6284,28 +5956,28 @@
         <v>402</v>
       </c>
       <c r="E84" t="n">
-        <v>35.7</v>
+        <v>41.7</v>
       </c>
       <c r="F84" t="n">
-        <v>35.57</v>
+        <v>41.68</v>
       </c>
       <c r="G84" t="n">
-        <v>35.81</v>
+        <v>41.85</v>
       </c>
       <c r="H84" t="n">
-        <v>4.91</v>
+        <v>6.3899994</v>
       </c>
       <c r="I84" t="n">
-        <v>15.946735</v>
+        <v>18.096853</v>
       </c>
       <c r="J84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K84" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L84" t="n">
-        <v>0.5546919531250001</v>
+        <v>1e-05</v>
       </c>
       <c r="M84" t="b">
         <v>1</v>
@@ -6321,20 +5993,16 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.998</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q84" t="inlineStr"/>
       <c r="R84" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T84" t="n">
-        <v>-0.091</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -6354,28 +6022,28 @@
         <v>403</v>
       </c>
       <c r="E85" t="n">
-        <v>34.76</v>
+        <v>39.41</v>
       </c>
       <c r="F85" t="n">
-        <v>34.68</v>
+        <v>40.72</v>
       </c>
       <c r="G85" t="n">
-        <v>34.94</v>
+        <v>40.87</v>
       </c>
       <c r="H85" t="n">
-        <v>2.8799992</v>
+        <v>4.709999</v>
       </c>
       <c r="I85" t="n">
-        <v>9.0338745</v>
+        <v>13.573484</v>
       </c>
       <c r="J85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L85" t="n">
-        <v>0.5400436621093752</v>
+        <v>1e-05</v>
       </c>
       <c r="M85" t="b">
         <v>1</v>
@@ -6391,20 +6059,16 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.998</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q85" t="inlineStr"/>
       <c r="R85" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T85" t="n">
-        <v>-0.091</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -6424,13 +6088,13 @@
         <v>404</v>
       </c>
       <c r="E86" t="n">
-        <v>29.31</v>
+        <v>33.35</v>
       </c>
       <c r="F86" t="n">
-        <v>33.6</v>
+        <v>39.71</v>
       </c>
       <c r="G86" t="n">
-        <v>33.87</v>
+        <v>39.87</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6442,10 +6106,10 @@
         <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L86" t="n">
-        <v>0.561527822265625</v>
+        <v>1e-05</v>
       </c>
       <c r="M86" t="b">
         <v>1</v>
@@ -6461,20 +6125,16 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.997</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>0.001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q86" t="inlineStr"/>
       <c r="R86" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="S86" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T86" t="n">
-        <v>-0.118</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -6494,28 +6154,28 @@
         <v>405</v>
       </c>
       <c r="E87" t="n">
-        <v>28.54</v>
+        <v>38.92</v>
       </c>
       <c r="F87" t="n">
-        <v>32.69</v>
+        <v>38.68</v>
       </c>
       <c r="G87" t="n">
-        <v>32.99</v>
+        <v>38.86</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>10.379997</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>36.37</v>
       </c>
       <c r="J87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K87" t="n">
         <v>27</v>
       </c>
       <c r="L87" t="n">
-        <v>0.5312546875</v>
+        <v>1e-05</v>
       </c>
       <c r="M87" t="b">
         <v>1</v>
@@ -6531,20 +6191,16 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.998</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>0.001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q87" t="inlineStr"/>
       <c r="R87" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="S87" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T87" t="n">
-        <v>-0.105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -6564,28 +6220,28 @@
         <v>406</v>
       </c>
       <c r="E88" t="n">
-        <v>30.88</v>
+        <v>38.32</v>
       </c>
       <c r="F88" t="n">
-        <v>31.75</v>
+        <v>37.72</v>
       </c>
       <c r="G88" t="n">
-        <v>32.01</v>
+        <v>37.87</v>
       </c>
       <c r="H88" t="n">
-        <v>1.3799992</v>
+        <v>7.4400005</v>
       </c>
       <c r="I88" t="n">
-        <v>4.677963</v>
+        <v>24.093267</v>
       </c>
       <c r="J88" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="K88" t="n">
         <v>18</v>
       </c>
       <c r="L88" t="n">
-        <v>0.5371140039062501</v>
+        <v>1e-05</v>
       </c>
       <c r="M88" t="b">
         <v>1</v>
@@ -6601,20 +6257,16 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.996</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>0.001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q88" t="inlineStr"/>
       <c r="R88" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="S88" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T88" t="n">
-        <v>-0.124</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -6637,10 +6289,10 @@
         <v>28.72</v>
       </c>
       <c r="F89" t="n">
-        <v>30.58</v>
+        <v>36.76</v>
       </c>
       <c r="G89" t="n">
-        <v>30.82</v>
+        <v>36.93</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6655,7 +6307,7 @@
         <v>19</v>
       </c>
       <c r="L89" t="n">
-        <v>0.4902394726562501</v>
+        <v>1e-05</v>
       </c>
       <c r="M89" t="b">
         <v>1</v>
@@ -6671,20 +6323,16 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.998</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>0.001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q89" t="inlineStr"/>
       <c r="R89" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="S89" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T89" t="n">
-        <v>-0.097</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -6704,28 +6352,28 @@
         <v>408</v>
       </c>
       <c r="E90" t="n">
-        <v>27.86</v>
+        <v>33.4</v>
       </c>
       <c r="F90" t="n">
-        <v>29.59</v>
+        <v>35.69</v>
       </c>
       <c r="G90" t="n">
-        <v>30.01</v>
+        <v>35.83</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>5.540001</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>19.885143</v>
       </c>
       <c r="J90" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K90" t="n">
         <v>32</v>
       </c>
       <c r="L90" t="n">
-        <v>0.5585981640625001</v>
+        <v>1e-05</v>
       </c>
       <c r="M90" t="b">
         <v>1</v>
@@ -6741,20 +6389,16 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.992</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>0.002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q90" t="inlineStr"/>
       <c r="R90" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T90" t="n">
-        <v>-0.195</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -6774,28 +6418,28 @@
         <v>409</v>
       </c>
       <c r="E91" t="n">
-        <v>27.24</v>
+        <v>33.31</v>
       </c>
       <c r="F91" t="n">
-        <v>28.45</v>
+        <v>34.73</v>
       </c>
       <c r="G91" t="n">
-        <v>29.01</v>
+        <v>34.89</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>4.6000023</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>16.0223</v>
       </c>
       <c r="J91" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K91" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L91" t="n">
-        <v>0.5424850439453126</v>
+        <v>1e-05</v>
       </c>
       <c r="M91" t="b">
         <v>1</v>
@@ -6811,20 +6455,16 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.992</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>0.002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q91" t="inlineStr"/>
       <c r="R91" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S91" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T91" t="n">
-        <v>-0.196</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -6844,28 +6484,28 @@
         <v>410</v>
       </c>
       <c r="E92" t="n">
-        <v>27.45</v>
+        <v>33.65</v>
       </c>
       <c r="F92" t="n">
-        <v>27.63</v>
+        <v>33.73</v>
       </c>
       <c r="G92" t="n">
-        <v>27.87</v>
+        <v>33.89</v>
       </c>
       <c r="H92" t="n">
-        <v>0.34000015</v>
+        <v>6.200001</v>
       </c>
       <c r="I92" t="n">
-        <v>1.2541503</v>
+        <v>22.586523</v>
       </c>
       <c r="J92" t="n">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="K92" t="n">
-        <v>3239</v>
+        <v>3342</v>
       </c>
       <c r="L92" t="n">
-        <v>0.473638076171875</v>
+        <v>1e-05</v>
       </c>
       <c r="M92" t="b">
         <v>1</v>
@@ -6881,20 +6521,16 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.996</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>0.001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q92" t="inlineStr"/>
       <c r="R92" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="S92" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T92" t="n">
-        <v>-0.123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -6914,28 +6550,28 @@
         <v>411</v>
       </c>
       <c r="E93" t="n">
-        <v>26.83</v>
+        <v>31.07</v>
       </c>
       <c r="F93" t="n">
-        <v>26.61</v>
+        <v>32.73</v>
       </c>
       <c r="G93" t="n">
-        <v>26.88</v>
+        <v>32.89</v>
       </c>
       <c r="H93" t="n">
-        <v>1.2700005</v>
+        <v>4.24</v>
       </c>
       <c r="I93" t="n">
-        <v>4.968703</v>
+        <v>15.803205</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K93" t="n">
         <v>53</v>
       </c>
       <c r="L93" t="n">
-        <v>0.46289599609375</v>
+        <v>1e-05</v>
       </c>
       <c r="M93" t="b">
         <v>1</v>
@@ -6951,20 +6587,16 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.996</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>0.001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q93" t="inlineStr"/>
       <c r="R93" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="S93" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T93" t="n">
-        <v>-0.129</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -6984,28 +6616,28 @@
         <v>412</v>
       </c>
       <c r="E94" t="n">
-        <v>25.82</v>
+        <v>31.66</v>
       </c>
       <c r="F94" t="n">
-        <v>25.61</v>
+        <v>31.69</v>
       </c>
       <c r="G94" t="n">
-        <v>25.88</v>
+        <v>31.84</v>
       </c>
       <c r="H94" t="n">
-        <v>2.0900002</v>
+        <v>5.66</v>
       </c>
       <c r="I94" t="n">
-        <v>8.807418</v>
+        <v>21.76923</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K94" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L94" t="n">
-        <v>0.4482477050781249</v>
+        <v>1e-05</v>
       </c>
       <c r="M94" t="b">
         <v>1</v>
@@ -7021,20 +6653,16 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>0.001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q94" t="inlineStr"/>
       <c r="R94" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="S94" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T94" t="n">
-        <v>-0.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -7057,16 +6685,16 @@
         <v>24.91</v>
       </c>
       <c r="F95" t="n">
-        <v>24.7</v>
+        <v>30.71</v>
       </c>
       <c r="G95" t="n">
-        <v>24.9</v>
+        <v>30.87</v>
       </c>
       <c r="H95" t="n">
-        <v>1.7600002</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>7.6025934</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
         <v>1</v>
@@ -7075,7 +6703,7 @@
         <v>10</v>
       </c>
       <c r="L95" t="n">
-        <v>0.4414118359375</v>
+        <v>1e-05</v>
       </c>
       <c r="M95" t="b">
         <v>1</v>
@@ -7091,20 +6719,16 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.994</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>0.002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q95" t="inlineStr"/>
       <c r="R95" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="S95" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T95" t="n">
-        <v>-0.142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -7124,28 +6748,28 @@
         <v>414</v>
       </c>
       <c r="E96" t="n">
-        <v>22.63</v>
+        <v>29.69</v>
       </c>
       <c r="F96" t="n">
-        <v>23.76</v>
+        <v>29.75</v>
       </c>
       <c r="G96" t="n">
-        <v>23.96</v>
+        <v>29.91</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>5.380001</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>22.130816</v>
       </c>
       <c r="J96" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="K96" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="L96" t="n">
-        <v>0.44727115234375</v>
+        <v>1e-05</v>
       </c>
       <c r="M96" t="b">
         <v>1</v>
@@ -7161,20 +6785,16 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.992</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>0.002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q96" t="inlineStr"/>
       <c r="R96" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S96" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T96" t="n">
-        <v>-0.176</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -7194,28 +6814,28 @@
         <v>415</v>
       </c>
       <c r="E97" t="n">
-        <v>22.4</v>
+        <v>28.77</v>
       </c>
       <c r="F97" t="n">
-        <v>22.7</v>
+        <v>28.69</v>
       </c>
       <c r="G97" t="n">
-        <v>22.91</v>
+        <v>28.85</v>
       </c>
       <c r="H97" t="n">
-        <v>0.4300003</v>
+        <v>5.76</v>
       </c>
       <c r="I97" t="n">
-        <v>1.9572158</v>
+        <v>25.032595</v>
       </c>
       <c r="J97" t="n">
-        <v>454</v>
+        <v>43</v>
       </c>
       <c r="K97" t="n">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="L97" t="n">
-        <v>0.4145566357421875</v>
+        <v>1e-05</v>
       </c>
       <c r="M97" t="b">
         <v>1</v>
@@ -7231,20 +6851,16 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.993</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>0.002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q97" t="inlineStr"/>
       <c r="R97" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="S97" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T97" t="n">
-        <v>-0.149</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -7264,28 +6880,28 @@
         <v>416</v>
       </c>
       <c r="E98" t="n">
-        <v>21.15</v>
+        <v>27.57</v>
       </c>
       <c r="F98" t="n">
-        <v>21.6</v>
+        <v>27.73</v>
       </c>
       <c r="G98" t="n">
-        <v>21.83</v>
+        <v>27.89</v>
       </c>
       <c r="H98" t="n">
-        <v>2.959999</v>
+        <v>6.42</v>
       </c>
       <c r="I98" t="n">
-        <v>16.272673</v>
+        <v>30.35461</v>
       </c>
       <c r="J98" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K98" t="n">
         <v>121</v>
       </c>
       <c r="L98" t="n">
-        <v>0.368170380859375</v>
+        <v>1e-05</v>
       </c>
       <c r="M98" t="b">
         <v>1</v>
@@ -7301,20 +6917,16 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.996</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>0.001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q98" t="inlineStr"/>
       <c r="R98" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="S98" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T98" t="n">
-        <v>-0.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -7334,28 +6946,28 @@
         <v>417</v>
       </c>
       <c r="E99" t="n">
-        <v>19.15</v>
+        <v>26.69</v>
       </c>
       <c r="F99" t="n">
-        <v>20.64</v>
+        <v>26.71</v>
       </c>
       <c r="G99" t="n">
-        <v>20.88</v>
+        <v>26.87</v>
       </c>
       <c r="H99" t="n">
-        <v>1.1399994</v>
+        <v>6.25</v>
       </c>
       <c r="I99" t="n">
-        <v>6.3298135</v>
+        <v>30.5773</v>
       </c>
       <c r="J99" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K99" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L99" t="n">
-        <v>0.37305314453125</v>
+        <v>1e-05</v>
       </c>
       <c r="M99" t="b">
         <v>1</v>
@@ -7371,20 +6983,16 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.994</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>0.002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q99" t="inlineStr"/>
       <c r="R99" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="S99" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T99" t="n">
-        <v>-0.136</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -7404,28 +7012,28 @@
         <v>418</v>
       </c>
       <c r="E100" t="n">
-        <v>17.95</v>
+        <v>25.29</v>
       </c>
       <c r="F100" t="n">
-        <v>19.7</v>
+        <v>25.67</v>
       </c>
       <c r="G100" t="n">
-        <v>19.96</v>
+        <v>25.83</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>5.9800014</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>30.968418</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K100" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L100" t="n">
-        <v>0.383795224609375</v>
+        <v>1e-05</v>
       </c>
       <c r="M100" t="b">
         <v>1</v>
@@ -7441,20 +7049,16 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.989</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>0.003</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q100" t="inlineStr"/>
       <c r="R100" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="S100" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T100" t="n">
-        <v>-0.182</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -7474,28 +7078,28 @@
         <v>419</v>
       </c>
       <c r="E101" t="n">
-        <v>14.74</v>
+        <v>25.01</v>
       </c>
       <c r="F101" t="n">
-        <v>18.6</v>
+        <v>24.76</v>
       </c>
       <c r="G101" t="n">
-        <v>18.84</v>
+        <v>24.93</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>10.27</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>69.67435500000001</v>
       </c>
       <c r="J101" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K101" t="n">
         <v>54</v>
       </c>
       <c r="L101" t="n">
-        <v>0.32813171875</v>
+        <v>1e-05</v>
       </c>
       <c r="M101" t="b">
         <v>1</v>
@@ -7511,20 +7115,16 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>0.002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q101" t="inlineStr"/>
       <c r="R101" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="S101" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T101" t="n">
-        <v>-0.117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -7544,28 +7144,28 @@
         <v>420</v>
       </c>
       <c r="E102" t="n">
-        <v>17.5</v>
+        <v>24.04</v>
       </c>
       <c r="F102" t="n">
-        <v>17.62</v>
+        <v>23.67</v>
       </c>
       <c r="G102" t="n">
-        <v>17.89</v>
+        <v>23.84</v>
       </c>
       <c r="H102" t="n">
-        <v>1.6899996</v>
+        <v>6.51</v>
       </c>
       <c r="I102" t="n">
-        <v>10.689434</v>
+        <v>37.136337</v>
       </c>
       <c r="J102" t="n">
-        <v>31</v>
+        <v>714</v>
       </c>
       <c r="K102" t="n">
-        <v>5924</v>
+        <v>5903</v>
       </c>
       <c r="L102" t="n">
-        <v>0.331061376953125</v>
+        <v>1e-05</v>
       </c>
       <c r="M102" t="b">
         <v>1</v>
@@ -7581,20 +7181,16 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>0.992</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>0.003</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q102" t="inlineStr"/>
       <c r="R102" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S102" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T102" t="n">
-        <v>-0.146</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -7614,28 +7210,28 @@
         <v>421</v>
       </c>
       <c r="E103" t="n">
-        <v>17.3</v>
+        <v>22.89</v>
       </c>
       <c r="F103" t="n">
-        <v>16.64</v>
+        <v>22.74</v>
       </c>
       <c r="G103" t="n">
-        <v>17.03</v>
+        <v>22.91</v>
       </c>
       <c r="H103" t="n">
-        <v>2.8099995</v>
+        <v>5.59</v>
       </c>
       <c r="I103" t="n">
-        <v>19.392681</v>
+        <v>32.31214</v>
       </c>
       <c r="J103" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K103" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L103" t="n">
-        <v>0.3535220898437499</v>
+        <v>1e-05</v>
       </c>
       <c r="M103" t="b">
         <v>1</v>
@@ -7651,20 +7247,16 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>0.983</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>0.005</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q103" t="inlineStr"/>
       <c r="R103" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="S103" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T103" t="n">
-        <v>-0.232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -7684,28 +7276,28 @@
         <v>422</v>
       </c>
       <c r="E104" t="n">
-        <v>14.82</v>
+        <v>21.76</v>
       </c>
       <c r="F104" t="n">
-        <v>15.59</v>
+        <v>21.74</v>
       </c>
       <c r="G104" t="n">
-        <v>15.84</v>
+        <v>21.91</v>
       </c>
       <c r="H104" t="n">
-        <v>0.5799999</v>
+        <v>6.2800007</v>
       </c>
       <c r="I104" t="n">
-        <v>4.0730333</v>
+        <v>40.56848</v>
       </c>
       <c r="J104" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K104" t="n">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="L104" t="n">
-        <v>0.2832102929687499</v>
+        <v>1e-05</v>
       </c>
       <c r="M104" t="b">
         <v>1</v>
@@ -7721,20 +7313,16 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>0.993</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>0.003</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q104" t="inlineStr"/>
       <c r="R104" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="S104" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T104" t="n">
-        <v>-0.121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -7754,28 +7342,28 @@
         <v>423</v>
       </c>
       <c r="E105" t="n">
-        <v>14.67</v>
+        <v>20.85</v>
       </c>
       <c r="F105" t="n">
-        <v>14.61</v>
+        <v>20.75</v>
       </c>
       <c r="G105" t="n">
-        <v>14.84</v>
+        <v>20.91</v>
       </c>
       <c r="H105" t="n">
-        <v>0.6700001</v>
+        <v>6.370001</v>
       </c>
       <c r="I105" t="n">
-        <v>4.7857146</v>
+        <v>43.99172</v>
       </c>
       <c r="J105" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K105" t="n">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="L105" t="n">
-        <v>0.268562001953125</v>
+        <v>1e-05</v>
       </c>
       <c r="M105" t="b">
         <v>1</v>
@@ -7791,20 +7379,16 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>0.993</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>0.003</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q105" t="inlineStr"/>
       <c r="R105" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S105" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T105" t="n">
-        <v>-0.123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -7824,28 +7408,28 @@
         <v>424</v>
       </c>
       <c r="E106" t="n">
-        <v>13.7</v>
+        <v>19.97</v>
       </c>
       <c r="F106" t="n">
-        <v>13.72</v>
+        <v>19.72</v>
       </c>
       <c r="G106" t="n">
-        <v>13.97</v>
+        <v>19.89</v>
       </c>
       <c r="H106" t="n">
-        <v>1.8199997</v>
+        <v>6.2699995</v>
       </c>
       <c r="I106" t="n">
-        <v>15.319862</v>
+        <v>45.76642</v>
       </c>
       <c r="J106" t="n">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="K106" t="n">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="L106" t="n">
-        <v>0.2890696093749999</v>
+        <v>1e-05</v>
       </c>
       <c r="M106" t="b">
         <v>1</v>
@@ -7861,20 +7445,16 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>0.983</v>
-      </c>
-      <c r="Q106" t="n">
-        <v>0.006</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q106" t="inlineStr"/>
       <c r="R106" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="S106" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T106" t="n">
-        <v>-0.201</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -7894,28 +7474,28 @@
         <v>425</v>
       </c>
       <c r="E107" t="n">
-        <v>12.7</v>
+        <v>18.76</v>
       </c>
       <c r="F107" t="n">
-        <v>12.52</v>
+        <v>18.77</v>
       </c>
       <c r="G107" t="n">
-        <v>13.03</v>
+        <v>18.94</v>
       </c>
       <c r="H107" t="n">
-        <v>1.8499994</v>
+        <v>6.2300005</v>
       </c>
       <c r="I107" t="n">
-        <v>17.050686</v>
+        <v>49.720676</v>
       </c>
       <c r="J107" t="n">
-        <v>780</v>
+        <v>182</v>
       </c>
       <c r="K107" t="n">
-        <v>1152</v>
+        <v>1018</v>
       </c>
       <c r="L107" t="n">
-        <v>0.2856516748046874</v>
+        <v>1e-05</v>
       </c>
       <c r="M107" t="b">
         <v>1</v>
@@ -7931,20 +7511,16 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>0.976</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>0.008999999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q107" t="inlineStr"/>
       <c r="R107" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="S107" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T107" t="n">
-        <v>-0.243</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -7964,28 +7540,28 @@
         <v>426</v>
       </c>
       <c r="E108" t="n">
-        <v>11.67</v>
+        <v>18.01</v>
       </c>
       <c r="F108" t="n">
-        <v>11.5</v>
+        <v>17.77</v>
       </c>
       <c r="G108" t="n">
-        <v>12.04</v>
+        <v>17.94</v>
       </c>
       <c r="H108" t="n">
-        <v>1.5</v>
+        <v>5.92</v>
       </c>
       <c r="I108" t="n">
-        <v>14.749263</v>
+        <v>48.966087</v>
       </c>
       <c r="J108" t="n">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="K108" t="n">
-        <v>1952</v>
+        <v>2004</v>
       </c>
       <c r="L108" t="n">
-        <v>0.2700268310546875</v>
+        <v>1e-05</v>
       </c>
       <c r="M108" t="b">
         <v>1</v>
@@ -8001,20 +7577,16 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>0.973</v>
-      </c>
-      <c r="Q108" t="n">
-        <v>0.01</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q108" t="inlineStr"/>
       <c r="R108" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="S108" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T108" t="n">
-        <v>-0.252</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -8034,28 +7606,28 @@
         <v>427</v>
       </c>
       <c r="E109" t="n">
-        <v>10.92</v>
+        <v>16.95</v>
       </c>
       <c r="F109" t="n">
-        <v>10.79</v>
+        <v>16.75</v>
       </c>
       <c r="G109" t="n">
-        <v>10.91</v>
+        <v>16.91</v>
       </c>
       <c r="H109" t="n">
-        <v>0.8800001</v>
+        <v>5.7400007</v>
       </c>
       <c r="I109" t="n">
-        <v>8.764942</v>
+        <v>51.20429</v>
       </c>
       <c r="J109" t="n">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="K109" t="n">
-        <v>2220</v>
+        <v>2215</v>
       </c>
       <c r="L109" t="n">
-        <v>0.2251054052734375</v>
+        <v>1e-05</v>
       </c>
       <c r="M109" t="b">
         <v>1</v>
@@ -8071,20 +7643,16 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>0.983</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>0.008</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q109" t="inlineStr"/>
       <c r="R109" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T109" t="n">
-        <v>-0.171</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -8104,28 +7672,28 @@
         <v>428</v>
       </c>
       <c r="E110" t="n">
-        <v>9.699999999999999</v>
+        <v>16.11</v>
       </c>
       <c r="F110" t="n">
-        <v>9.710000000000001</v>
+        <v>15.7</v>
       </c>
       <c r="G110" t="n">
-        <v>9.94</v>
+        <v>15.84</v>
       </c>
       <c r="H110" t="n">
-        <v>1.0500002</v>
+        <v>5.910001</v>
       </c>
       <c r="I110" t="n">
-        <v>12.138731</v>
+        <v>57.941185</v>
       </c>
       <c r="J110" t="n">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="K110" t="n">
-        <v>2784</v>
+        <v>2774</v>
       </c>
       <c r="L110" t="n">
-        <v>0.2153398779296875</v>
+        <v>1e-05</v>
       </c>
       <c r="M110" t="b">
         <v>1</v>
@@ -8141,20 +7709,16 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>0.977</v>
-      </c>
-      <c r="Q110" t="n">
-        <v>0.011</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q110" t="inlineStr"/>
       <c r="R110" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="S110" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T110" t="n">
-        <v>-0.193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -8174,28 +7738,28 @@
         <v>429</v>
       </c>
       <c r="E111" t="n">
-        <v>8.779999999999999</v>
+        <v>15</v>
       </c>
       <c r="F111" t="n">
-        <v>8.529999999999999</v>
+        <v>14.78</v>
       </c>
       <c r="G111" t="n">
-        <v>9.050000000000001</v>
+        <v>14.92</v>
       </c>
       <c r="H111" t="n">
-        <v>0.77999973</v>
+        <v>5.6400003</v>
       </c>
       <c r="I111" t="n">
-        <v>9.749995999999999</v>
+        <v>60.25642</v>
       </c>
       <c r="J111" t="n">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="K111" t="n">
-        <v>2052</v>
+        <v>2006</v>
       </c>
       <c r="L111" t="n">
-        <v>0.2182695361328125</v>
+        <v>1e-05</v>
       </c>
       <c r="M111" t="b">
         <v>1</v>
@@ -8211,20 +7775,16 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>0.962</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>0.017</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q111" t="inlineStr"/>
       <c r="R111" t="n">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="S111" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T111" t="n">
-        <v>-0.268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -8244,28 +7804,28 @@
         <v>430</v>
       </c>
       <c r="E112" t="n">
-        <v>7.81</v>
+        <v>13.75</v>
       </c>
       <c r="F112" t="n">
-        <v>7.61</v>
+        <v>13.76</v>
       </c>
       <c r="G112" t="n">
-        <v>7.85</v>
+        <v>13.89</v>
       </c>
       <c r="H112" t="n">
-        <v>0.80999994</v>
+        <v>5.3999996</v>
       </c>
       <c r="I112" t="n">
-        <v>11.571427</v>
+        <v>64.67064999999999</v>
       </c>
       <c r="J112" t="n">
-        <v>2660</v>
+        <v>3595</v>
       </c>
       <c r="K112" t="n">
-        <v>30216</v>
+        <v>29542</v>
       </c>
       <c r="L112" t="n">
-        <v>0.16211775390625</v>
+        <v>1e-05</v>
       </c>
       <c r="M112" t="b">
         <v>1</v>
@@ -8281,20 +7841,16 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>0.982</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>0.012</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q112" t="inlineStr"/>
       <c r="R112" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="S112" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="T112" t="n">
-        <v>-0.142</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -8314,28 +7870,28 @@
         <v>431</v>
       </c>
       <c r="E113" t="n">
-        <v>6.75</v>
+        <v>12.84</v>
       </c>
       <c r="F113" t="n">
-        <v>6.83</v>
+        <v>12.77</v>
       </c>
       <c r="G113" t="n">
-        <v>7</v>
+        <v>12.89</v>
       </c>
       <c r="H113" t="n">
-        <v>0.6199999</v>
+        <v>5.46</v>
       </c>
       <c r="I113" t="n">
-        <v>10.11419</v>
+        <v>73.98374</v>
       </c>
       <c r="J113" t="n">
-        <v>367</v>
+        <v>147</v>
       </c>
       <c r="K113" t="n">
-        <v>2101</v>
+        <v>1943</v>
       </c>
       <c r="L113" t="n">
-        <v>0.172859833984375</v>
+        <v>1e-05</v>
       </c>
       <c r="M113" t="b">
         <v>1</v>
@@ -8351,20 +7907,16 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>0.957</v>
-      </c>
-      <c r="Q113" t="n">
-        <v>0.023</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q113" t="inlineStr"/>
       <c r="R113" t="n">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="S113" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T113" t="n">
-        <v>-0.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -8384,28 +7936,28 @@
         <v>432</v>
       </c>
       <c r="E114" t="n">
-        <v>5.94</v>
+        <v>11.83</v>
       </c>
       <c r="F114" t="n">
-        <v>5.58</v>
+        <v>11.7</v>
       </c>
       <c r="G114" t="n">
-        <v>6</v>
+        <v>11.79</v>
       </c>
       <c r="H114" t="n">
-        <v>0.7000003</v>
+        <v>5.4</v>
       </c>
       <c r="I114" t="n">
-        <v>13.358786</v>
+        <v>83.98134</v>
       </c>
       <c r="J114" t="n">
-        <v>1071</v>
+        <v>1261</v>
       </c>
       <c r="K114" t="n">
-        <v>6856</v>
+        <v>6791</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1540611938476563</v>
+        <v>1e-05</v>
       </c>
       <c r="M114" t="b">
         <v>1</v>
@@ -8421,20 +7973,16 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>0.949</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>0.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q114" t="inlineStr"/>
       <c r="R114" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="S114" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T114" t="n">
-        <v>-0.243</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -8454,28 +8002,28 @@
         <v>433</v>
       </c>
       <c r="E115" t="n">
-        <v>4.9</v>
+        <v>10.84</v>
       </c>
       <c r="F115" t="n">
-        <v>4.71</v>
+        <v>10.73</v>
       </c>
       <c r="G115" t="n">
-        <v>4.99</v>
+        <v>10.87</v>
       </c>
       <c r="H115" t="n">
-        <v>0.52</v>
+        <v>5.3900003</v>
       </c>
       <c r="I115" t="n">
-        <v>11.872146</v>
+        <v>98.89909</v>
       </c>
       <c r="J115" t="n">
-        <v>1533</v>
+        <v>2823</v>
       </c>
       <c r="K115" t="n">
-        <v>13287</v>
+        <v>13126</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1333094482421875</v>
+        <v>1e-05</v>
       </c>
       <c r="M115" t="b">
         <v>1</v>
@@ -8491,20 +8039,16 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>0.9409999999999999</v>
-      </c>
-      <c r="Q115" t="n">
-        <v>0.039</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q115" t="inlineStr"/>
       <c r="R115" t="n">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="S115" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T115" t="n">
-        <v>-0.239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -8524,28 +8068,28 @@
         <v>434</v>
       </c>
       <c r="E116" t="n">
-        <v>4</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>3.9</v>
+        <v>9.77</v>
       </c>
       <c r="G116" t="n">
-        <v>4.1</v>
+        <v>9.9</v>
       </c>
       <c r="H116" t="n">
-        <v>0.3699999</v>
+        <v>5.24</v>
       </c>
       <c r="I116" t="n">
-        <v>10.192834</v>
+        <v>115.4185</v>
       </c>
       <c r="J116" t="n">
-        <v>4838</v>
+        <v>1746</v>
       </c>
       <c r="K116" t="n">
-        <v>19106</v>
+        <v>19208</v>
       </c>
       <c r="L116" t="n">
-        <v>0.12696185546875</v>
+        <v>1e-05</v>
       </c>
       <c r="M116" t="b">
         <v>1</v>
@@ -8561,20 +8105,16 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>0.902</v>
-      </c>
-      <c r="Q116" t="n">
-        <v>0.06</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q116" t="inlineStr"/>
       <c r="R116" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="S116" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T116" t="n">
-        <v>-0.309</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -8594,28 +8134,28 @@
         <v>435</v>
       </c>
       <c r="E117" t="n">
-        <v>3.29</v>
+        <v>8.83</v>
       </c>
       <c r="F117" t="n">
-        <v>3.22</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G117" t="n">
-        <v>3.29</v>
+        <v>8.92</v>
       </c>
       <c r="H117" t="n">
-        <v>0.3699999</v>
+        <v>5.27</v>
       </c>
       <c r="I117" t="n">
-        <v>12.671228</v>
+        <v>148.0337</v>
       </c>
       <c r="J117" t="n">
-        <v>30393</v>
+        <v>5169</v>
       </c>
       <c r="K117" t="n">
-        <v>30201</v>
+        <v>27481</v>
       </c>
       <c r="L117" t="n">
-        <v>0.124032197265625</v>
+        <v>1e-05</v>
       </c>
       <c r="M117" t="b">
         <v>1</v>
@@ -8631,20 +8171,16 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>0.08799999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q117" t="inlineStr"/>
       <c r="R117" t="n">
-        <v>0.057</v>
+        <v>0</v>
       </c>
       <c r="S117" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T117" t="n">
-        <v>-0.407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -8664,28 +8200,28 @@
         <v>436</v>
       </c>
       <c r="E118" t="n">
-        <v>2.37</v>
+        <v>7.84</v>
       </c>
       <c r="F118" t="n">
-        <v>2.49</v>
+        <v>7.79</v>
       </c>
       <c r="G118" t="n">
-        <v>2.52</v>
+        <v>7.88</v>
       </c>
       <c r="H118" t="n">
-        <v>0.109999895</v>
+        <v>5.07</v>
       </c>
       <c r="I118" t="n">
-        <v>4.867252</v>
+        <v>183.0325</v>
       </c>
       <c r="J118" t="n">
-        <v>68847</v>
+        <v>5041</v>
       </c>
       <c r="K118" t="n">
-        <v>18735</v>
+        <v>18881</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1184170190429688</v>
+        <v>1e-05</v>
       </c>
       <c r="M118" t="b">
         <v>1</v>
@@ -8701,20 +8237,16 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>0.739</v>
-      </c>
-      <c r="Q118" t="n">
-        <v>0.12</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q118" t="inlineStr"/>
       <c r="R118" t="n">
-        <v>0.074</v>
+        <v>0</v>
       </c>
       <c r="S118" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="T118" t="n">
-        <v>-0.487</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -8734,28 +8266,28 @@
         <v>437</v>
       </c>
       <c r="E119" t="n">
-        <v>1.71</v>
+        <v>6.85</v>
       </c>
       <c r="F119" t="n">
-        <v>1.79</v>
+        <v>6.79</v>
       </c>
       <c r="G119" t="n">
-        <v>1.8</v>
+        <v>6.88</v>
       </c>
       <c r="H119" t="n">
-        <v>0.01999998</v>
+        <v>4.8199997</v>
       </c>
       <c r="I119" t="n">
-        <v>1.1834308</v>
+        <v>237.43839</v>
       </c>
       <c r="J119" t="n">
-        <v>150147</v>
+        <v>9557</v>
       </c>
       <c r="K119" t="n">
-        <v>17089</v>
+        <v>21854</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1106045971679687</v>
+        <v>1e-05</v>
       </c>
       <c r="M119" t="b">
         <v>1</v>
@@ -8771,20 +8303,16 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>0.614</v>
-      </c>
-      <c r="Q119" t="n">
-        <v>0.151</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q119" t="inlineStr"/>
       <c r="R119" t="n">
-        <v>0.08799999999999999</v>
+        <v>0</v>
       </c>
       <c r="S119" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="T119" t="n">
-        <v>-0.523</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -8804,31 +8332,31 @@
         <v>438</v>
       </c>
       <c r="E120" t="n">
-        <v>1.2</v>
+        <v>5.8</v>
       </c>
       <c r="F120" t="n">
-        <v>1.17</v>
+        <v>5.76</v>
       </c>
       <c r="G120" t="n">
-        <v>1.18</v>
+        <v>5.86</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.029999971</v>
+        <v>4.3900003</v>
       </c>
       <c r="I120" t="n">
-        <v>-2.439022</v>
+        <v>311.34756</v>
       </c>
       <c r="J120" t="n">
-        <v>179470</v>
+        <v>18803</v>
       </c>
       <c r="K120" t="n">
-        <v>21427</v>
+        <v>31200</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1027921752929687</v>
+        <v>1e-05</v>
       </c>
       <c r="M120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N120" t="inlineStr">
         <is>
@@ -8841,20 +8369,16 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="Q120" t="n">
-        <v>0.168</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q120" t="inlineStr"/>
       <c r="R120" t="n">
-        <v>0.091</v>
+        <v>0</v>
       </c>
       <c r="S120" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T120" t="n">
-        <v>-0.495</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -8874,31 +8398,31 @@
         <v>439</v>
       </c>
       <c r="E121" t="n">
-        <v>0.76</v>
+        <v>4.8</v>
       </c>
       <c r="F121" t="n">
-        <v>0.82</v>
+        <v>4.78</v>
       </c>
       <c r="G121" t="n">
-        <v>0.83</v>
+        <v>4.89</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.09000002999999999</v>
+        <v>3.88</v>
       </c>
       <c r="I121" t="n">
-        <v>-10.588239</v>
+        <v>421.73914</v>
       </c>
       <c r="J121" t="n">
-        <v>74884</v>
+        <v>12873</v>
       </c>
       <c r="K121" t="n">
-        <v>16838</v>
+        <v>24967</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1071866625976562</v>
+        <v>1e-05</v>
       </c>
       <c r="M121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
@@ -8911,20 +8435,16 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>0.303</v>
-      </c>
-      <c r="Q121" t="n">
-        <v>0.142</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q121" t="inlineStr"/>
       <c r="R121" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="T121" t="n">
-        <v>-0.448</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -8944,31 +8464,31 @@
         <v>440</v>
       </c>
       <c r="E122" t="n">
-        <v>0.49</v>
+        <v>3.85</v>
       </c>
       <c r="F122" t="n">
-        <v>0.51</v>
+        <v>3.79</v>
       </c>
       <c r="G122" t="n">
-        <v>0.52</v>
+        <v>3.92</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.07999998</v>
+        <v>3.26</v>
       </c>
       <c r="I122" t="n">
-        <v>-14.035085</v>
+        <v>552.5424</v>
       </c>
       <c r="J122" t="n">
-        <v>89737</v>
+        <v>56458</v>
       </c>
       <c r="K122" t="n">
-        <v>38206</v>
+        <v>39407</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1063321789550781</v>
+        <v>1e-05</v>
       </c>
       <c r="M122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N122" t="inlineStr">
         <is>
@@ -8981,20 +8501,16 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="Q122" t="n">
-        <v>0.107</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q122" t="inlineStr"/>
       <c r="R122" t="n">
-        <v>0.059</v>
+        <v>0</v>
       </c>
       <c r="S122" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="T122" t="n">
-        <v>-0.327</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -9014,31 +8530,31 @@
         <v>441</v>
       </c>
       <c r="E123" t="n">
-        <v>0.29</v>
+        <v>2.79</v>
       </c>
       <c r="F123" t="n">
-        <v>0.31</v>
+        <v>2.75</v>
       </c>
       <c r="G123" t="n">
-        <v>0.32</v>
+        <v>2.82</v>
       </c>
       <c r="H123" t="n">
-        <v>-0.08000001</v>
+        <v>2.45</v>
       </c>
       <c r="I123" t="n">
-        <v>-21.621626</v>
+        <v>720.58844</v>
       </c>
       <c r="J123" t="n">
-        <v>33461</v>
+        <v>82287</v>
       </c>
       <c r="K123" t="n">
-        <v>13128</v>
+        <v>19295</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1071866625976562</v>
+        <v>1e-05</v>
       </c>
       <c r="M123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N123" t="inlineStr">
         <is>
@@ -9051,20 +8567,16 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="Q123" t="n">
-        <v>0.068</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q123" t="inlineStr"/>
       <c r="R123" t="n">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="S123" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="T123" t="n">
-        <v>-0.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="T123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -9084,31 +8596,31 @@
         <v>442</v>
       </c>
       <c r="E124" t="n">
-        <v>0.19</v>
+        <v>1.84</v>
       </c>
       <c r="F124" t="n">
-        <v>0.17</v>
+        <v>1.81</v>
       </c>
       <c r="G124" t="n">
-        <v>0.18</v>
+        <v>1.84</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.030000001</v>
+        <v>1.63</v>
       </c>
       <c r="I124" t="n">
-        <v>-13.636364</v>
+        <v>776.1905</v>
       </c>
       <c r="J124" t="n">
-        <v>32915</v>
+        <v>280842</v>
       </c>
       <c r="K124" t="n">
-        <v>36827</v>
+        <v>40246</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1069425244140625</v>
+        <v>1e-05</v>
       </c>
       <c r="M124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N124" t="inlineStr">
         <is>
@@ -9121,20 +8633,16 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="Q124" t="n">
-        <v>0.036</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q124" t="inlineStr"/>
       <c r="R124" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
       </c>
-      <c r="T124" t="n">
-        <v>-0.112</v>
-      </c>
+      <c r="T124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -9154,31 +8662,31 @@
         <v>443</v>
       </c>
       <c r="E125" t="n">
-        <v>0.11</v>
+        <v>0.95</v>
       </c>
       <c r="F125" t="n">
-        <v>0.09</v>
+        <v>0.96</v>
       </c>
       <c r="G125" t="n">
-        <v>0.11</v>
+        <v>0.98</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.030000001</v>
+        <v>0.84</v>
       </c>
       <c r="I125" t="n">
-        <v>-21.428572</v>
+        <v>763.63635</v>
       </c>
       <c r="J125" t="n">
-        <v>14102</v>
+        <v>450065</v>
       </c>
       <c r="K125" t="n">
-        <v>7898</v>
+        <v>14809</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1098721826171875</v>
+        <v>1e-05</v>
       </c>
       <c r="M125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -9191,20 +8699,16 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="Q125" t="n">
-        <v>0.018</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q125" t="inlineStr"/>
       <c r="R125" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="S125" t="n">
         <v>0</v>
       </c>
-      <c r="T125" t="n">
-        <v>-0.059</v>
-      </c>
+      <c r="T125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -9224,31 +8728,31 @@
         <v>444</v>
       </c>
       <c r="E126" t="n">
-        <v>0.06</v>
+        <v>0.32</v>
       </c>
       <c r="F126" t="n">
-        <v>0.05</v>
+        <v>0.33</v>
       </c>
       <c r="G126" t="n">
-        <v>0.06</v>
+        <v>0.34</v>
       </c>
       <c r="H126" t="n">
-        <v>-0.02</v>
+        <v>0.26</v>
       </c>
       <c r="I126" t="n">
-        <v>-25</v>
+        <v>433.33334</v>
       </c>
       <c r="J126" t="n">
-        <v>9867</v>
+        <v>363798</v>
       </c>
       <c r="K126" t="n">
-        <v>6936</v>
+        <v>11494</v>
       </c>
       <c r="L126" t="n">
-        <v>0.11133701171875</v>
+        <v>0.03101554931640625</v>
       </c>
       <c r="M126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -9261,20 +8765,16 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="Q126" t="n">
-        <v>0.008</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q126" t="inlineStr"/>
       <c r="R126" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S126" t="n">
         <v>0</v>
       </c>
-      <c r="T126" t="n">
-        <v>-0.026</v>
-      </c>
+      <c r="T126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -9294,28 +8794,28 @@
         <v>445</v>
       </c>
       <c r="E127" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F127" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>0.030000001</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>75.00001</v>
       </c>
       <c r="J127" t="n">
-        <v>7214</v>
+        <v>218064</v>
       </c>
       <c r="K127" t="n">
-        <v>21998</v>
+        <v>24305</v>
       </c>
       <c r="L127" t="n">
-        <v>0.116219775390625</v>
+        <v>0.0395603857421875</v>
       </c>
       <c r="M127" t="b">
         <v>0</v>
@@ -9331,20 +8831,16 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="Q127" t="n">
-        <v>0.004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q127" t="inlineStr"/>
       <c r="R127" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="S127" t="n">
         <v>0</v>
       </c>
-      <c r="T127" t="n">
-        <v>-0.014</v>
-      </c>
+      <c r="T127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -9373,19 +8869,19 @@
         <v>0.03</v>
       </c>
       <c r="H128" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>-33.333336</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>4220</v>
+        <v>90384</v>
       </c>
       <c r="K128" t="n">
-        <v>6800</v>
+        <v>10052</v>
       </c>
       <c r="L128" t="n">
-        <v>0.124032197265625</v>
+        <v>0.051767294921875</v>
       </c>
       <c r="M128" t="b">
         <v>0</v>
@@ -9401,20 +8897,16 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="Q128" t="n">
-        <v>0.002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q128" t="inlineStr"/>
       <c r="R128" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S128" t="n">
         <v>0</v>
       </c>
-      <c r="T128" t="n">
-        <v>-0.008999999999999999</v>
-      </c>
+      <c r="T128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -9434,7 +8926,7 @@
         <v>447</v>
       </c>
       <c r="E129" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F129" t="n">
         <v>0.01</v>
@@ -9449,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>1722</v>
+        <v>36872</v>
       </c>
       <c r="K129" t="n">
-        <v>5261</v>
+        <v>5391</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1289149609375</v>
+        <v>0.06739213867187502</v>
       </c>
       <c r="M129" t="b">
         <v>0</v>
@@ -9471,20 +8963,16 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="Q129" t="n">
-        <v>0.001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q129" t="inlineStr"/>
       <c r="R129" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S129" t="n">
         <v>0</v>
       </c>
-      <c r="T129" t="n">
-        <v>-0.005</v>
-      </c>
+      <c r="T129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -9504,7 +8992,7 @@
         <v>448</v>
       </c>
       <c r="E130" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F130" t="n">
         <v>0.01</v>
@@ -9519,13 +9007,13 @@
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>1414</v>
+        <v>10605</v>
       </c>
       <c r="K130" t="n">
-        <v>5857</v>
+        <v>6248</v>
       </c>
       <c r="L130" t="n">
-        <v>0.14063359375</v>
+        <v>0.08594664062500001</v>
       </c>
       <c r="M130" t="b">
         <v>0</v>
@@ -9541,20 +9029,16 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="Q130" t="n">
-        <v>0.001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q130" t="inlineStr"/>
       <c r="R130" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="S130" t="n">
         <v>0</v>
       </c>
-      <c r="T130" t="n">
-        <v>-0.005</v>
-      </c>
+      <c r="T130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -9583,19 +9067,19 @@
         <v>0.01</v>
       </c>
       <c r="H131" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>1829</v>
+        <v>16568</v>
       </c>
       <c r="K131" t="n">
-        <v>4764</v>
+        <v>6064</v>
       </c>
       <c r="L131" t="n">
-        <v>0.14063359375</v>
+        <v>0.0937590625</v>
       </c>
       <c r="M131" t="b">
         <v>0</v>
@@ -9613,18 +9097,14 @@
       <c r="P131" t="n">
         <v>0</v>
       </c>
-      <c r="Q131" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q131" t="inlineStr"/>
       <c r="R131" t="n">
         <v>0</v>
       </c>
       <c r="S131" t="n">
         <v>0</v>
       </c>
-      <c r="T131" t="n">
-        <v>-0.002</v>
-      </c>
+      <c r="T131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -9659,13 +9139,13 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>1512</v>
+        <v>14068</v>
       </c>
       <c r="K132" t="n">
-        <v>34672</v>
+        <v>35635</v>
       </c>
       <c r="L132" t="n">
-        <v>0.148446015625</v>
+        <v>0.10938390625</v>
       </c>
       <c r="M132" t="b">
         <v>0</v>
@@ -9683,18 +9163,14 @@
       <c r="P132" t="n">
         <v>0</v>
       </c>
-      <c r="Q132" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q132" t="inlineStr"/>
       <c r="R132" t="n">
         <v>0</v>
       </c>
       <c r="S132" t="n">
         <v>0</v>
       </c>
-      <c r="T132" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -9729,13 +9205,13 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>215</v>
+        <v>2933</v>
       </c>
       <c r="K133" t="n">
-        <v>8782</v>
+        <v>9051</v>
       </c>
       <c r="L133" t="n">
-        <v>0.1601646484375</v>
+        <v>0.12500875</v>
       </c>
       <c r="M133" t="b">
         <v>0</v>
@@ -9753,18 +9229,14 @@
       <c r="P133" t="n">
         <v>0</v>
       </c>
-      <c r="Q133" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q133" t="inlineStr"/>
       <c r="R133" t="n">
         <v>0</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
       </c>
-      <c r="T133" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -9799,13 +9271,13 @@
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>4</v>
+        <v>477</v>
       </c>
       <c r="K134" t="n">
-        <v>8042</v>
+        <v>8059</v>
       </c>
       <c r="L134" t="n">
-        <v>0.17188328125</v>
+        <v>0.14063359375</v>
       </c>
       <c r="M134" t="b">
         <v>0</v>
@@ -9823,18 +9295,14 @@
       <c r="P134" t="n">
         <v>0</v>
       </c>
-      <c r="Q134" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q134" t="inlineStr"/>
       <c r="R134" t="n">
         <v>0</v>
       </c>
       <c r="S134" t="n">
         <v>0</v>
       </c>
-      <c r="T134" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -9869,13 +9337,13 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>6</v>
+        <v>252</v>
       </c>
       <c r="K135" t="n">
-        <v>1589</v>
+        <v>1671</v>
       </c>
       <c r="L135" t="n">
-        <v>0.179695703125</v>
+        <v>0.1562584375</v>
       </c>
       <c r="M135" t="b">
         <v>0</v>
@@ -9893,18 +9361,14 @@
       <c r="P135" t="n">
         <v>0</v>
       </c>
-      <c r="Q135" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q135" t="inlineStr"/>
       <c r="R135" t="n">
         <v>0</v>
       </c>
       <c r="S135" t="n">
         <v>0</v>
       </c>
-      <c r="T135" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -9939,13 +9403,13 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="K136" t="n">
-        <v>2946</v>
+        <v>2942</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1914143359375</v>
+        <v>0.17188328125</v>
       </c>
       <c r="M136" t="b">
         <v>0</v>
@@ -9963,18 +9427,14 @@
       <c r="P136" t="n">
         <v>0</v>
       </c>
-      <c r="Q136" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q136" t="inlineStr"/>
       <c r="R136" t="n">
         <v>0</v>
       </c>
       <c r="S136" t="n">
         <v>0</v>
       </c>
-      <c r="T136" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -10009,13 +9469,13 @@
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="K137" t="n">
-        <v>15026</v>
+        <v>15023</v>
       </c>
       <c r="L137" t="n">
-        <v>0.20313296875</v>
+        <v>0.187508125</v>
       </c>
       <c r="M137" t="b">
         <v>0</v>
@@ -10033,18 +9493,14 @@
       <c r="P137" t="n">
         <v>0</v>
       </c>
-      <c r="Q137" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q137" t="inlineStr"/>
       <c r="R137" t="n">
         <v>0</v>
       </c>
       <c r="S137" t="n">
         <v>0</v>
       </c>
-      <c r="T137" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -10079,13 +9535,13 @@
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="K138" t="n">
-        <v>4161</v>
+        <v>4160</v>
       </c>
       <c r="L138" t="n">
-        <v>0.210945390625</v>
+        <v>0.20313296875</v>
       </c>
       <c r="M138" t="b">
         <v>0</v>
@@ -10103,18 +9559,14 @@
       <c r="P138" t="n">
         <v>0</v>
       </c>
-      <c r="Q138" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q138" t="inlineStr"/>
       <c r="R138" t="n">
         <v>0</v>
       </c>
       <c r="S138" t="n">
         <v>0</v>
       </c>
-      <c r="T138" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -10149,13 +9601,13 @@
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>256</v>
+        <v>3</v>
       </c>
       <c r="K139" t="n">
         <v>256</v>
       </c>
       <c r="L139" t="n">
-        <v>0.2226640234375</v>
+        <v>0.2187578125</v>
       </c>
       <c r="M139" t="b">
         <v>0</v>
@@ -10173,18 +9625,14 @@
       <c r="P139" t="n">
         <v>0</v>
       </c>
-      <c r="Q139" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q139" t="inlineStr"/>
       <c r="R139" t="n">
         <v>0</v>
       </c>
       <c r="S139" t="n">
         <v>0</v>
       </c>
-      <c r="T139" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -10219,10 +9667,10 @@
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="K140" t="n">
-        <v>15769</v>
+        <v>15814</v>
       </c>
       <c r="L140" t="n">
         <v>0.23438265625</v>
@@ -10243,18 +9691,14 @@
       <c r="P140" t="n">
         <v>0</v>
       </c>
-      <c r="Q140" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q140" t="inlineStr"/>
       <c r="R140" t="n">
         <v>0</v>
       </c>
       <c r="S140" t="n">
         <v>0</v>
       </c>
-      <c r="T140" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -10295,7 +9739,7 @@
         <v>377</v>
       </c>
       <c r="L141" t="n">
-        <v>0.242195078125</v>
+        <v>0.2461012890625</v>
       </c>
       <c r="M141" t="b">
         <v>0</v>
@@ -10313,18 +9757,14 @@
       <c r="P141" t="n">
         <v>0</v>
       </c>
-      <c r="Q141" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q141" t="inlineStr"/>
       <c r="R141" t="n">
         <v>0</v>
       </c>
       <c r="S141" t="n">
         <v>0</v>
       </c>
-      <c r="T141" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -10359,13 +9799,13 @@
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="K142" t="n">
-        <v>70387</v>
+        <v>70406</v>
       </c>
       <c r="L142" t="n">
-        <v>0.2500075</v>
+        <v>0.2617261328125</v>
       </c>
       <c r="M142" t="b">
         <v>0</v>
@@ -10383,18 +9823,14 @@
       <c r="P142" t="n">
         <v>0</v>
       </c>
-      <c r="Q142" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q142" t="inlineStr"/>
       <c r="R142" t="n">
         <v>0</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>
       </c>
-      <c r="T142" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -10429,13 +9865,13 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K143" t="n">
         <v>55595</v>
       </c>
       <c r="L143" t="n">
-        <v>0.273444765625</v>
+        <v>0.2890696093749999</v>
       </c>
       <c r="M143" t="b">
         <v>0</v>
@@ -10453,18 +9889,14 @@
       <c r="P143" t="n">
         <v>0</v>
       </c>
-      <c r="Q143" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q143" t="inlineStr"/>
       <c r="R143" t="n">
         <v>0</v>
       </c>
       <c r="S143" t="n">
         <v>0</v>
       </c>
-      <c r="T143" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -10505,7 +9937,7 @@
         <v>2740</v>
       </c>
       <c r="L144" t="n">
-        <v>0.2890696093749999</v>
+        <v>0.3203192968749999</v>
       </c>
       <c r="M144" t="b">
         <v>0</v>
@@ -10523,18 +9955,14 @@
       <c r="P144" t="n">
         <v>0</v>
       </c>
-      <c r="Q144" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q144" t="inlineStr"/>
       <c r="R144" t="n">
         <v>0</v>
       </c>
       <c r="S144" t="n">
         <v>0</v>
       </c>
-      <c r="T144" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -10575,7 +10003,7 @@
         <v>4514</v>
       </c>
       <c r="L145" t="n">
-        <v>0.3007882421875</v>
+        <v>0.3320379296875</v>
       </c>
       <c r="M145" t="b">
         <v>0</v>
@@ -10593,18 +10021,14 @@
       <c r="P145" t="n">
         <v>0</v>
       </c>
-      <c r="Q145" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q145" t="inlineStr"/>
       <c r="R145" t="n">
         <v>0</v>
       </c>
       <c r="S145" t="n">
         <v>0</v>
       </c>
-      <c r="T145" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -10645,7 +10069,7 @@
         <v>1471</v>
       </c>
       <c r="L146" t="n">
-        <v>0.312506875</v>
+        <v>0.3437565625</v>
       </c>
       <c r="M146" t="b">
         <v>0</v>
@@ -10663,18 +10087,14 @@
       <c r="P146" t="n">
         <v>0</v>
       </c>
-      <c r="Q146" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q146" t="inlineStr"/>
       <c r="R146" t="n">
         <v>0</v>
       </c>
       <c r="S146" t="n">
         <v>0</v>
       </c>
-      <c r="T146" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -10709,13 +10129,13 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K147" t="n">
         <v>531</v>
       </c>
       <c r="L147" t="n">
-        <v>0.32813171875</v>
+        <v>0.37500625</v>
       </c>
       <c r="M147" t="b">
         <v>0</v>
@@ -10733,18 +10153,14 @@
       <c r="P147" t="n">
         <v>0</v>
       </c>
-      <c r="Q147" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q147" t="inlineStr"/>
       <c r="R147" t="n">
         <v>0</v>
       </c>
       <c r="S147" t="n">
         <v>0</v>
       </c>
-      <c r="T147" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -10779,13 +10195,13 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K148" t="n">
         <v>12025</v>
       </c>
       <c r="L148" t="n">
-        <v>0.3476627734375</v>
+        <v>0.398443515625</v>
       </c>
       <c r="M148" t="b">
         <v>0</v>
@@ -10803,18 +10219,14 @@
       <c r="P148" t="n">
         <v>0</v>
       </c>
-      <c r="Q148" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q148" t="inlineStr"/>
       <c r="R148" t="n">
         <v>0</v>
       </c>
       <c r="S148" t="n">
         <v>0</v>
       </c>
-      <c r="T148" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -10849,13 +10261,13 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>253</v>
+        <v>10</v>
       </c>
       <c r="K149" t="n">
         <v>372</v>
       </c>
       <c r="L149" t="n">
-        <v>0.367193828125</v>
+        <v>0.429693203125</v>
       </c>
       <c r="M149" t="b">
         <v>0</v>
@@ -10873,18 +10285,14 @@
       <c r="P149" t="n">
         <v>0</v>
       </c>
-      <c r="Q149" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q149" t="inlineStr"/>
       <c r="R149" t="n">
         <v>0</v>
       </c>
       <c r="S149" t="n">
         <v>0</v>
       </c>
-      <c r="T149" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -10925,7 +10333,7 @@
         <v>267</v>
       </c>
       <c r="L150" t="n">
-        <v>0.382818671875</v>
+        <v>0.45313046875</v>
       </c>
       <c r="M150" t="b">
         <v>0</v>
@@ -10943,18 +10351,14 @@
       <c r="P150" t="n">
         <v>0</v>
       </c>
-      <c r="Q150" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q150" t="inlineStr"/>
       <c r="R150" t="n">
         <v>0</v>
       </c>
       <c r="S150" t="n">
         <v>0</v>
       </c>
-      <c r="T150" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -10995,7 +10399,7 @@
         <v>5838</v>
       </c>
       <c r="L151" t="n">
-        <v>0.39063109375</v>
+        <v>0.4687553125</v>
       </c>
       <c r="M151" t="b">
         <v>0</v>
@@ -11013,18 +10417,14 @@
       <c r="P151" t="n">
         <v>0</v>
       </c>
-      <c r="Q151" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q151" t="inlineStr"/>
       <c r="R151" t="n">
         <v>0</v>
       </c>
       <c r="S151" t="n">
         <v>0</v>
       </c>
-      <c r="T151" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -11065,7 +10465,7 @@
         <v>134</v>
       </c>
       <c r="L152" t="n">
-        <v>0.4062559375</v>
+        <v>0.48438015625</v>
       </c>
       <c r="M152" t="b">
         <v>0</v>
@@ -11083,18 +10483,14 @@
       <c r="P152" t="n">
         <v>0</v>
       </c>
-      <c r="Q152" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q152" t="inlineStr"/>
       <c r="R152" t="n">
         <v>0</v>
       </c>
       <c r="S152" t="n">
         <v>0</v>
       </c>
-      <c r="T152" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -11133,7 +10529,7 @@
         <v>2</v>
       </c>
       <c r="L153" t="n">
-        <v>0.42188078125</v>
+        <v>0.507817421875</v>
       </c>
       <c r="M153" t="b">
         <v>0</v>
@@ -11151,18 +10547,14 @@
       <c r="P153" t="n">
         <v>0</v>
       </c>
-      <c r="Q153" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q153" t="inlineStr"/>
       <c r="R153" t="n">
         <v>0</v>
       </c>
       <c r="S153" t="n">
         <v>0</v>
       </c>
-      <c r="T153" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -11203,7 +10595,7 @@
         <v>3662</v>
       </c>
       <c r="L154" t="n">
-        <v>0.437505625</v>
+        <v>0.500005</v>
       </c>
       <c r="M154" t="b">
         <v>0</v>
@@ -11221,18 +10613,14 @@
       <c r="P154" t="n">
         <v>0</v>
       </c>
-      <c r="Q154" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q154" t="inlineStr"/>
       <c r="R154" t="n">
         <v>0</v>
       </c>
       <c r="S154" t="n">
         <v>0</v>
       </c>
-      <c r="T154" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -11267,13 +10655,13 @@
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K155" t="n">
         <v>9080</v>
       </c>
       <c r="L155" t="n">
-        <v>0.48438015625</v>
+        <v>0.5625043750000001</v>
       </c>
       <c r="M155" t="b">
         <v>0</v>
@@ -11291,18 +10679,14 @@
       <c r="P155" t="n">
         <v>0</v>
       </c>
-      <c r="Q155" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q155" t="inlineStr"/>
       <c r="R155" t="n">
         <v>0</v>
       </c>
       <c r="S155" t="n">
         <v>0</v>
       </c>
-      <c r="T155" t="n">
-        <v>-0.001</v>
-      </c>
+      <c r="T155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -11343,7 +10727,7 @@
         <v>3951</v>
       </c>
       <c r="L156" t="n">
-        <v>0.500005</v>
+        <v>0.6250037500000001</v>
       </c>
       <c r="M156" t="b">
         <v>0</v>
@@ -11361,18 +10745,14 @@
       <c r="P156" t="n">
         <v>0</v>
       </c>
-      <c r="Q156" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q156" t="inlineStr"/>
       <c r="R156" t="n">
         <v>0</v>
       </c>
       <c r="S156" t="n">
         <v>0</v>
       </c>
-      <c r="T156" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -11413,7 +10793,7 @@
         <v>7555</v>
       </c>
       <c r="L157" t="n">
-        <v>0.5312546875</v>
+        <v>0.6718782812500002</v>
       </c>
       <c r="M157" t="b">
         <v>0</v>
@@ -11431,18 +10811,14 @@
       <c r="P157" t="n">
         <v>0</v>
       </c>
-      <c r="Q157" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q157" t="inlineStr"/>
       <c r="R157" t="n">
         <v>0</v>
       </c>
       <c r="S157" t="n">
         <v>0</v>
       </c>
-      <c r="T157" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -11483,7 +10859,7 @@
         <v>11332</v>
       </c>
       <c r="L158" t="n">
-        <v>0.57812921875</v>
+        <v>0.73437765625</v>
       </c>
       <c r="M158" t="b">
         <v>0</v>
@@ -11501,18 +10877,14 @@
       <c r="P158" t="n">
         <v>0</v>
       </c>
-      <c r="Q158" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q158" t="inlineStr"/>
       <c r="R158" t="n">
         <v>0</v>
       </c>
       <c r="S158" t="n">
         <v>0</v>
       </c>
-      <c r="T158" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -11553,7 +10925,7 @@
         <v>545</v>
       </c>
       <c r="L159" t="n">
-        <v>0.6250037500000001</v>
+        <v>0.7812521875</v>
       </c>
       <c r="M159" t="b">
         <v>0</v>
@@ -11571,18 +10943,14 @@
       <c r="P159" t="n">
         <v>0</v>
       </c>
-      <c r="Q159" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q159" t="inlineStr"/>
       <c r="R159" t="n">
         <v>0</v>
       </c>
       <c r="S159" t="n">
         <v>0</v>
       </c>
-      <c r="T159" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -11623,7 +10991,7 @@
         <v>1334</v>
       </c>
       <c r="L160" t="n">
-        <v>0.6562534375000001</v>
+        <v>0.8437515624999999</v>
       </c>
       <c r="M160" t="b">
         <v>0</v>
@@ -11641,18 +11009,14 @@
       <c r="P160" t="n">
         <v>0</v>
       </c>
-      <c r="Q160" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q160" t="inlineStr"/>
       <c r="R160" t="n">
         <v>0</v>
       </c>
       <c r="S160" t="n">
         <v>0</v>
       </c>
-      <c r="T160" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -11693,7 +11057,7 @@
         <v>458</v>
       </c>
       <c r="L161" t="n">
-        <v>0.6875031250000001</v>
+        <v>0.9062509375</v>
       </c>
       <c r="M161" t="b">
         <v>0</v>
@@ -11711,18 +11075,14 @@
       <c r="P161" t="n">
         <v>0</v>
       </c>
-      <c r="Q161" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q161" t="inlineStr"/>
       <c r="R161" t="n">
         <v>0</v>
       </c>
       <c r="S161" t="n">
         <v>0</v>
       </c>
-      <c r="T161" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -11763,7 +11123,7 @@
         <v>1069</v>
       </c>
       <c r="L162" t="n">
-        <v>0.7187528125</v>
+        <v>0.937500625</v>
       </c>
       <c r="M162" t="b">
         <v>0</v>
@@ -11781,18 +11141,14 @@
       <c r="P162" t="n">
         <v>0</v>
       </c>
-      <c r="Q162" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q162" t="inlineStr"/>
       <c r="R162" t="n">
         <v>0</v>
       </c>
       <c r="S162" t="n">
         <v>0</v>
       </c>
-      <c r="T162" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -11833,7 +11189,7 @@
         <v>19758</v>
       </c>
       <c r="L163" t="n">
-        <v>0.7656273437500001</v>
+        <v>1.000005</v>
       </c>
       <c r="M163" t="b">
         <v>0</v>
@@ -11851,18 +11207,14 @@
       <c r="P163" t="n">
         <v>0</v>
       </c>
-      <c r="Q163" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q163" t="inlineStr"/>
       <c r="R163" t="n">
         <v>0</v>
       </c>
       <c r="S163" t="n">
         <v>0</v>
       </c>
-      <c r="T163" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -11903,7 +11255,7 @@
         <v>688</v>
       </c>
       <c r="L164" t="n">
-        <v>0.8437515624999999</v>
+        <v>1.125004375</v>
       </c>
       <c r="M164" t="b">
         <v>0</v>
@@ -11921,18 +11273,14 @@
       <c r="P164" t="n">
         <v>0</v>
       </c>
-      <c r="Q164" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q164" t="inlineStr"/>
       <c r="R164" t="n">
         <v>0</v>
       </c>
       <c r="S164" t="n">
         <v>0</v>
       </c>
-      <c r="T164" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -11967,13 +11315,13 @@
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K165" t="n">
         <v>1223</v>
       </c>
       <c r="L165" t="n">
-        <v>0.8437515624999999</v>
+        <v>1.09375453125</v>
       </c>
       <c r="M165" t="b">
         <v>0</v>
@@ -11991,18 +11339,14 @@
       <c r="P165" t="n">
         <v>0</v>
       </c>
-      <c r="Q165" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q165" t="inlineStr"/>
       <c r="R165" t="n">
         <v>0</v>
       </c>
       <c r="S165" t="n">
         <v>0</v>
       </c>
-      <c r="T165" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -12043,7 +11387,7 @@
         <v>1784</v>
       </c>
       <c r="L166" t="n">
-        <v>0.87500125</v>
+        <v>1.15625421875</v>
       </c>
       <c r="M166" t="b">
         <v>0</v>
@@ -12061,18 +11405,14 @@
       <c r="P166" t="n">
         <v>0</v>
       </c>
-      <c r="Q166" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q166" t="inlineStr"/>
       <c r="R166" t="n">
         <v>0</v>
       </c>
       <c r="S166" t="n">
         <v>0</v>
       </c>
-      <c r="T166" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -12107,13 +11447,13 @@
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K167" t="n">
         <v>5363</v>
       </c>
       <c r="L167" t="n">
-        <v>0.9062509375</v>
+        <v>1.21875390625</v>
       </c>
       <c r="M167" t="b">
         <v>0</v>
@@ -12131,18 +11471,14 @@
       <c r="P167" t="n">
         <v>0</v>
       </c>
-      <c r="Q167" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q167" t="inlineStr"/>
       <c r="R167" t="n">
         <v>0</v>
       </c>
       <c r="S167" t="n">
         <v>0</v>
       </c>
-      <c r="T167" t="n">
-        <v>-0</v>
-      </c>
+      <c r="T167" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/calls_output.xlsx
+++ b/calls_output.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SPY 2023-07-05" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SPY 2023-07-12" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T61"/>
+  <dimension ref="A1:T75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,7 +536,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SPY230705C00373000</t>
+          <t>SPY230712C00374000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -545,16 +545,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E2" t="n">
-        <v>63.96</v>
+        <v>63.55</v>
       </c>
       <c r="F2" t="n">
-        <v>70.62</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>71.23999999999999</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -564,10 +564,10 @@
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.85742330078125</v>
+        <v>1e-05</v>
       </c>
       <c r="M2" t="b">
         <v>1</v>
@@ -583,19 +583,19 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.997233</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.000302</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.002794</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.020364</v>
+        <v>0.010245</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.113354</v>
+        <v>-0.053787</v>
       </c>
     </row>
     <row r="3">
@@ -604,7 +604,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SPY230705C00390000</t>
+          <t>SPY230712C00386000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -613,16 +613,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E3" t="n">
-        <v>48.05</v>
+        <v>52.27</v>
       </c>
       <c r="F3" t="n">
-        <v>53.62</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>54.24</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6621127539062501</v>
+        <v>1e-05</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.996169</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0005240000000000001</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.003745</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.021269</v>
+        <v>0.010574</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.117815</v>
+        <v>-0.055513</v>
       </c>
     </row>
     <row r="4">
@@ -672,7 +672,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SPY230705C00396000</t>
+          <t>SPY230712C00390000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -681,16 +681,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E4" t="n">
-        <v>40.3</v>
+        <v>49.16</v>
       </c>
       <c r="F4" t="n">
-        <v>47.62</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>48.24</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -698,12 +698,14 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5937540625000001</v>
+        <v>1e-05</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
@@ -719,19 +721,19 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.995615</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.000659</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.004226</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.021584</v>
+        <v>0.010683</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.119384</v>
+        <v>-0.056088</v>
       </c>
     </row>
     <row r="5">
@@ -740,7 +742,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SPY230705C00400000</t>
+          <t>SPY230712C00395000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -749,31 +751,31 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E5" t="n">
-        <v>43.83</v>
+        <v>44.4</v>
       </c>
       <c r="F5" t="n">
-        <v>43.62</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>44.25</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.16999817</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.38635948</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.551762294921875</v>
+        <v>1e-05</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
@@ -789,19 +791,19 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.99493</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.000808</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.004809</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.021787</v>
+        <v>0.01082</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.12353</v>
+        <v>-0.056807</v>
       </c>
     </row>
     <row r="6">
@@ -810,7 +812,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SPY230705C00406000</t>
+          <t>SPY230712C00399000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -819,16 +821,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E6" t="n">
-        <v>30.44</v>
+        <v>40.32</v>
       </c>
       <c r="F6" t="n">
-        <v>37.63</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>38.25</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -836,12 +838,14 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5918009570312501</v>
+        <v>1e-05</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
@@ -857,19 +861,19 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.980304</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.002458</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0157</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.021753</v>
+        <v>0.01093</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.28939</v>
+        <v>-0.057382</v>
       </c>
     </row>
     <row r="7">
@@ -878,7 +882,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SPY230705C00408000</t>
+          <t>SPY230712C00400000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -887,16 +891,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E7" t="n">
-        <v>35.63</v>
+        <v>39.24</v>
       </c>
       <c r="F7" t="n">
-        <v>35.63</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>36.25</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -905,13 +909,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5654340332031251</v>
+        <v>1e-05</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
@@ -927,19 +931,19 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.9791609999999999</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.002699</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.016469</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.021835</v>
+        <v>0.010957</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.290123</v>
+        <v>-0.057526</v>
       </c>
     </row>
     <row r="8">
@@ -948,7 +952,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SPY230705C00410000</t>
+          <t>SPY230712C00406000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -957,31 +961,31 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E8" t="n">
-        <v>33.85</v>
+        <v>33.13</v>
       </c>
       <c r="F8" t="n">
-        <v>33.59</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>34.25</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.020000458</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.05905066</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>184</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5385788330078126</v>
+        <v>1e-05</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
@@ -997,19 +1001,19 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.977974</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.002969</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.017259</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.021916</v>
+        <v>0.011122</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.289914</v>
+        <v>-0.058389</v>
       </c>
     </row>
     <row r="9">
@@ -1018,7 +1022,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SPY230705C00412000</t>
+          <t>SPY230712C00407000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1027,16 +1031,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E9" t="n">
-        <v>24.46</v>
+        <v>34.37</v>
       </c>
       <c r="F9" t="n">
-        <v>31.63</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>32.25</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1044,12 +1048,14 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>10</v>
+      </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5119677709960937</v>
+        <v>1e-05</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
@@ -1065,19 +1071,19 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.976585</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.003289</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.018172</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.021991</v>
+        <v>0.011149</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.290315</v>
+        <v>-0.058533</v>
       </c>
     </row>
     <row r="10">
@@ -1086,7 +1092,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SPY230705C00416000</t>
+          <t>SPY230712C00410000</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1095,16 +1101,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E10" t="n">
-        <v>21.99</v>
+        <v>29.05</v>
       </c>
       <c r="F10" t="n">
-        <v>27.63</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>28.26</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1112,12 +1118,14 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>32</v>
+      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4604546142578125</v>
+        <v>1e-05</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
@@ -1133,19 +1141,19 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.972743</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.004154</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.020639</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.022116</v>
+        <v>0.011231</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.295641</v>
+        <v>-0.058964</v>
       </c>
     </row>
     <row r="11">
@@ -1154,7 +1162,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SPY230705C00418000</t>
+          <t>SPY230712C00411000</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1163,31 +1171,31 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E11" t="n">
-        <v>25.32</v>
+        <v>28.65</v>
       </c>
       <c r="F11" t="n">
-        <v>25.64</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>26.26</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.6499996</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-2.5028865</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4335994140625</v>
+        <v>1e-05</v>
       </c>
       <c r="M11" t="b">
         <v>1</v>
@@ -1203,19 +1211,19 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.970643</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.004692</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.021954</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.022175</v>
+        <v>0.011259</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.296191</v>
+        <v>-0.059108</v>
       </c>
     </row>
     <row r="12">
@@ -1224,7 +1232,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SPY230705C00420000</t>
+          <t>SPY230712C00412000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1233,31 +1241,31 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E12" t="n">
-        <v>23.55</v>
+        <v>27.33</v>
       </c>
       <c r="F12" t="n">
-        <v>23.64</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>24.26</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4299984</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.8598546</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4062559375</v>
+        <v>1e-05</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
@@ -1273,19 +1281,19 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.968326</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.005333</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.02338</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.022228</v>
+        <v>0.011286</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.295805</v>
+        <v>-0.059252</v>
       </c>
     </row>
     <row r="13">
@@ -1294,7 +1302,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SPY230705C00422000</t>
+          <t>SPY230712C00413000</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1303,31 +1311,31 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="E13" t="n">
-        <v>21.26</v>
+        <v>26.05</v>
       </c>
       <c r="F13" t="n">
-        <v>21.64</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>22.26</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>6.9700003</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>48.775368</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3786683227539062</v>
+        <v>1e-05</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
@@ -1343,19 +1351,19 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.965652</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.006116</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.024995</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.022272</v>
+        <v>0.011313</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.295083</v>
+        <v>-0.059396</v>
       </c>
     </row>
     <row r="14">
@@ -1364,7 +1372,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SPY230705C00424000</t>
+          <t>SPY230712C00414000</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1373,31 +1381,31 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E14" t="n">
-        <v>19.8</v>
+        <v>25.38</v>
       </c>
       <c r="F14" t="n">
-        <v>19.64</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>20.27</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03999901</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.20242412</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3527896752929687</v>
+        <v>1e-05</v>
       </c>
       <c r="M14" t="b">
         <v>1</v>
@@ -1413,19 +1421,19 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.961712</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.007175</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.027318</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.022285</v>
+        <v>0.011341</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.299441</v>
+        <v>-0.059539</v>
       </c>
     </row>
     <row r="15">
@@ -1434,7 +1442,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SPY230705C00425000</t>
+          <t>SPY230712C00415000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1443,31 +1451,31 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="E15" t="n">
-        <v>18.35</v>
+        <v>23.81</v>
       </c>
       <c r="F15" t="n">
-        <v>18.65</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>19.27</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>6.4000006</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>53.556488</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.338873798828125</v>
+        <v>1e-05</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
@@ -1483,19 +1491,19 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.959826</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.007768</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.028409</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.022294</v>
+        <v>0.011368</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.299197</v>
+        <v>-0.059683</v>
       </c>
     </row>
     <row r="16">
@@ -1504,7 +1512,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SPY230705C00426000</t>
+          <t>SPY230712C00416000</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1513,31 +1521,31 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="E16" t="n">
-        <v>17.85</v>
+        <v>22.69</v>
       </c>
       <c r="F16" t="n">
-        <v>17.87</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>18.04</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9300003</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>5.4964557</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2800364965820312</v>
+        <v>1e-05</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
@@ -1553,19 +1561,19 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.977136</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.005894</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.017812</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.022775</v>
+        <v>0.011396</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.184482</v>
+        <v>-0.059827</v>
       </c>
     </row>
     <row r="17">
@@ -1574,7 +1582,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SPY230705C00427000</t>
+          <t>SPY230712C00417000</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1583,31 +1591,31 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="E17" t="n">
-        <v>16.43</v>
+        <v>21.46</v>
       </c>
       <c r="F17" t="n">
-        <v>16.89</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>17.04</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.79999924</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-4.64306</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2670971728515625</v>
+        <v>1e-05</v>
       </c>
       <c r="M17" t="b">
         <v>1</v>
@@ -1623,19 +1631,19 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.975872</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.006465</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.018636</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0.022799</v>
+        <v>0.011423</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.18429</v>
+        <v>-0.059971</v>
       </c>
     </row>
     <row r="18">
@@ -1644,7 +1652,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SPY230705C00428000</t>
+          <t>SPY230712C00418000</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1653,31 +1661,31 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="E18" t="n">
-        <v>16.1</v>
+        <v>21.35</v>
       </c>
       <c r="F18" t="n">
-        <v>15.68</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>15.83</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5600004</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3.6036062</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.184578466796875</v>
+        <v>1e-05</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
@@ -1693,19 +1701,19 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.996313</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.001816</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.003618</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.023355</v>
+        <v>0.01145</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.078003</v>
+        <v>-0.060115</v>
       </c>
     </row>
     <row r="19">
@@ -1714,7 +1722,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SPY230705C00429000</t>
+          <t>SPY230712C00419000</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1723,31 +1731,31 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="E19" t="n">
-        <v>14.4</v>
+        <v>20.1</v>
       </c>
       <c r="F19" t="n">
-        <v>14.89</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>15.04</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.030000687</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.20790496</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.241218525390625</v>
+        <v>1e-05</v>
       </c>
       <c r="M19" t="b">
         <v>1</v>
@@ -1763,19 +1771,19 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.972777</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.00792</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.020617</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0.022834</v>
+        <v>0.011478</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.184269</v>
+        <v>-0.060258</v>
       </c>
     </row>
     <row r="20">
@@ -1784,7 +1792,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SPY230705C00430000</t>
+          <t>SPY230712C00420000</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1793,31 +1801,31 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E20" t="n">
-        <v>13.75</v>
+        <v>19.1</v>
       </c>
       <c r="F20" t="n">
-        <v>13.89</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>14.04</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.26000023</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.9273553</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2280350634765625</v>
+        <v>1e-05</v>
       </c>
       <c r="M20" t="b">
         <v>1</v>
@@ -1833,19 +1841,19 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.970989</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.008834</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.021739</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.022845</v>
+        <v>0.011505</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.183898</v>
+        <v>-0.060402</v>
       </c>
     </row>
     <row r="21">
@@ -1854,7 +1862,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SPY230705C00431000</t>
+          <t>SPY230712C00423000</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1863,31 +1871,31 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E21" t="n">
-        <v>12.9</v>
+        <v>16.35</v>
       </c>
       <c r="F21" t="n">
-        <v>12.65</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>12.93</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.31000042</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-2.3467102</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.190437783203125</v>
+        <v>1e-05</v>
       </c>
       <c r="M21" t="b">
         <v>1</v>
@@ -1903,19 +1911,19 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.98222</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.007002</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.014391</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.023175</v>
+        <v>0.011587</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.129348</v>
+        <v>-0.060834</v>
       </c>
     </row>
     <row r="22">
@@ -1924,7 +1932,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SPY230705C00432000</t>
+          <t>SPY230712C00424000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1933,31 +1941,31 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="E22" t="n">
-        <v>11.88</v>
+        <v>15.32</v>
       </c>
       <c r="F22" t="n">
-        <v>11.9</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>12.05</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.34999943</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-2.8618107</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K22" t="n">
-        <v>1540</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2036212451171875</v>
+        <v>1e-05</v>
       </c>
       <c r="M22" t="b">
         <v>1</v>
@@ -1973,19 +1981,19 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.965086</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.011528</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.025333</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.02281</v>
+        <v>0.011615</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.188834</v>
+        <v>-0.060978</v>
       </c>
     </row>
     <row r="23">
@@ -1994,7 +2002,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SPY230705C00433000</t>
+          <t>SPY230712C00425000</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2003,31 +2011,31 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E23" t="n">
-        <v>10.75</v>
+        <v>14.55</v>
       </c>
       <c r="F23" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>11.05</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6099996600000001</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>6.015775</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1899495068359375</v>
+        <v>1e-05</v>
       </c>
       <c r="M23" t="b">
         <v>1</v>
@@ -2043,19 +2051,19 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.9623</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01316</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0.026976</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0.022797</v>
+        <v>0.011642</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.187943</v>
+        <v>-0.061121</v>
       </c>
     </row>
     <row r="24">
@@ -2064,7 +2072,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SPY230705C00434000</t>
+          <t>SPY230712C00426000</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2073,31 +2081,31 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E24" t="n">
-        <v>9.77</v>
+        <v>13.89</v>
       </c>
       <c r="F24" t="n">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>10.05</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.27000046</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.84211</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1762777685546875</v>
+        <v>1e-05</v>
       </c>
       <c r="M24" t="b">
         <v>1</v>
@@ -2113,19 +2121,19 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.9589029999999999</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.015212</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.028938</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0.022769</v>
+        <v>0.01167</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.187296</v>
+        <v>-0.061265</v>
       </c>
     </row>
     <row r="25">
@@ -2134,7 +2142,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SPY230705C00435000</t>
+          <t>SPY230712C00427000</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2143,31 +2151,31 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="E25" t="n">
-        <v>9.09</v>
+        <v>12.84</v>
       </c>
       <c r="F25" t="n">
-        <v>8.890000000000001</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>9.050000000000001</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9400005299999999</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>11.533749</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1623618920898438</v>
+        <v>1e-05</v>
       </c>
       <c r="M25" t="b">
         <v>1</v>
@@ -2183,19 +2191,19 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.954914</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.017799</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.031186</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.022727</v>
+        <v>0.011697</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.186244</v>
+        <v>-0.061409</v>
       </c>
     </row>
     <row r="26">
@@ -2204,7 +2212,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SPY230705C00436000</t>
+          <t>SPY230712C00428000</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2213,31 +2221,31 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E26" t="n">
-        <v>8.039999999999999</v>
+        <v>11.86</v>
       </c>
       <c r="F26" t="n">
-        <v>7.71</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>7.84</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9699998</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>13.71994</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.104501142578125</v>
+        <v>1e-05</v>
       </c>
       <c r="M26" t="b">
         <v>1</v>
@@ -2253,19 +2261,19 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.990107</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.007691</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0.008673</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0.023642</v>
+        <v>0.011724</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.08472</v>
+        <v>-0.061553</v>
       </c>
     </row>
     <row r="27">
@@ -2274,7 +2282,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SPY230705C00437000</t>
+          <t>SPY230712C00429000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2283,31 +2291,31 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E27" t="n">
-        <v>6.78</v>
+        <v>10.1</v>
       </c>
       <c r="F27" t="n">
-        <v>6.91</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>7.06</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5500002000000001</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>8.828253999999999</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>347</v>
+        <v>37</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1352625537109375</v>
+        <v>1e-05</v>
       </c>
       <c r="M27" t="b">
         <v>1</v>
@@ -2323,19 +2331,19 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.942213</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.026029</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.037995</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0.022527</v>
+        <v>0.011752</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.187618</v>
+        <v>-0.061697</v>
       </c>
     </row>
     <row r="28">
@@ -2344,7 +2352,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SPY230705C00438000</t>
+          <t>SPY230712C00430000</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2353,31 +2361,31 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="E28" t="n">
-        <v>5.92</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>5.92</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>6.07</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.42000008</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>7.6363654</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1082</v>
+        <v>41</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1218349536132813</v>
+        <v>1e-05</v>
       </c>
       <c r="M28" t="b">
         <v>1</v>
@@ -2393,19 +2401,19 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.932225</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.032722</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.043023</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0.022338</v>
+        <v>0.011779</v>
       </c>
       <c r="T28" t="n">
-        <v>-0.189682</v>
+        <v>-0.06184</v>
       </c>
     </row>
     <row r="29">
@@ -2414,7 +2422,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SPY230705C00439000</t>
+          <t>SPY230712C00431000</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2423,31 +2431,31 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="E29" t="n">
-        <v>4.83</v>
+        <v>8.35</v>
       </c>
       <c r="F29" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.83</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.28999996</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>6.3876643</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>530</v>
+        <v>40</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.06690386230468751</v>
+        <v>1e-05</v>
       </c>
       <c r="M29" t="b">
         <v>1</v>
@@ -2463,19 +2471,19 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.987833</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.014382</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0.010384</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0.023752</v>
+        <v>0.011807</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.079716</v>
+        <v>-0.061984</v>
       </c>
     </row>
     <row r="30">
@@ -2484,7 +2492,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SPY230705C00440000</t>
+          <t>SPY230712C00432000</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2493,31 +2501,31 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="E30" t="n">
-        <v>4.04</v>
+        <v>7.23</v>
       </c>
       <c r="F30" t="n">
-        <v>3.96</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>13.802817</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2607</v>
+        <v>37</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.09400320068359375</v>
+        <v>1e-05</v>
       </c>
       <c r="M30" t="b">
         <v>1</v>
@@ -2533,19 +2541,19 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.899268</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.057134</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.05796</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0.021645</v>
+        <v>0.011834</v>
       </c>
       <c r="T30" t="n">
-        <v>-0.193029</v>
+        <v>-0.062128</v>
       </c>
     </row>
     <row r="31">
@@ -2554,7 +2562,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SPY230705C00441000</t>
+          <t>SPY230712C00433000</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2563,31 +2571,31 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="E31" t="n">
-        <v>3.06</v>
+        <v>6.15</v>
       </c>
       <c r="F31" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3.17</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.27999997</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>10.071941</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2947</v>
+        <v>51</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.08350525878906252</v>
+        <v>1e-05</v>
       </c>
       <c r="M31" t="b">
         <v>1</v>
@@ -2603,19 +2611,19 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.857667</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.082051</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.07394199999999999</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0.020685</v>
+        <v>0.011861</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.208663</v>
+        <v>-0.062272</v>
       </c>
     </row>
     <row r="32">
@@ -2624,7 +2632,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SPY230705C00442000</t>
+          <t>SPY230712C00434000</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2633,31 +2641,31 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E32" t="n">
-        <v>2.23</v>
+        <v>6.25</v>
       </c>
       <c r="F32" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.13000011</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>6.1904817</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>14221</v>
+        <v>126</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.07251904052734376</v>
+        <v>1e-05</v>
       </c>
       <c r="M32" t="b">
         <v>1</v>
@@ -2673,19 +2681,19 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.790791</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.120707</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0.094467</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0.019109</v>
+        <v>0.011889</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.221428</v>
+        <v>-0.062416</v>
       </c>
     </row>
     <row r="33">
@@ -2694,7 +2702,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SPY230705C00443000</t>
+          <t>SPY230712C00435000</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2703,16 +2711,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E33" t="n">
-        <v>1.51</v>
+        <v>5.26</v>
       </c>
       <c r="F33" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2721,13 +2729,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>57947</v>
+        <v>484</v>
       </c>
       <c r="K33" t="n">
-        <v>5872</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.06861282958984377</v>
+        <v>1e-05</v>
       </c>
       <c r="M33" t="b">
         <v>1</v>
@@ -2743,19 +2751,19 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.659092</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.162727</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.120491</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0.015949</v>
+        <v>0.011916</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.248547</v>
+        <v>-0.062559</v>
       </c>
     </row>
     <row r="34">
@@ -2764,7 +2772,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SPY230705C00444000</t>
+          <t>SPY230712C00436000</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2773,34 +2781,34 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E34" t="n">
-        <v>0.95</v>
+        <v>4.34</v>
       </c>
       <c r="F34" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.109999955</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-10.377355</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>95357</v>
+        <v>1192</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.06482868774414063</v>
+        <v>1e-05</v>
       </c>
       <c r="M34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -2813,19 +2821,19 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.485548</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.187203</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.13097</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0.011763</v>
+        <v>0.011943</v>
       </c>
       <c r="T34" t="n">
-        <v>-0.243142</v>
+        <v>-0.06270299999999999</v>
       </c>
     </row>
     <row r="35">
@@ -2834,7 +2842,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SPY230705C00445000</t>
+          <t>SPY230712C00437000</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2843,34 +2851,34 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5</v>
+        <v>3.61</v>
       </c>
       <c r="F35" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.22000003</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-30.555557</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>40306</v>
+        <v>7022</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.06080040771484375</v>
+        <v>1e-05</v>
       </c>
       <c r="M35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -2883,19 +2891,19 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.29501</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.172749</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0.113348</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.007154</v>
+        <v>0.011971</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.191069</v>
+        <v>-0.062847</v>
       </c>
     </row>
     <row r="36">
@@ -2904,7 +2912,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SPY230705C00446000</t>
+          <t>SPY230712C00438000</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2913,34 +2921,34 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="E36" t="n">
-        <v>0.26</v>
+        <v>2.9</v>
       </c>
       <c r="F36" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.21000001</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-44.68085</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>25555</v>
+        <v>14973</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.06202109863281251</v>
+        <v>1e-05</v>
       </c>
       <c r="M36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
@@ -2953,19 +2961,19 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.154567</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.116738</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.078135</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0.00375</v>
+        <v>0.011998</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.130993</v>
+        <v>-0.06299100000000001</v>
       </c>
     </row>
     <row r="37">
@@ -2974,7 +2982,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SPY230705C00447000</t>
+          <t>SPY230712C00439000</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2983,34 +2991,34 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1</v>
+        <v>2.26</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.19</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-65.51724</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12301</v>
+        <v>35311</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.06080040771484375</v>
+        <v>1e-05</v>
       </c>
       <c r="M37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -3023,19 +3031,19 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.06237</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.061474</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.040336</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.001514</v>
+        <v>0.012026</v>
       </c>
       <c r="T37" t="n">
-        <v>-0.06528399999999999</v>
+        <v>-0.063135</v>
       </c>
     </row>
     <row r="38">
@@ -3044,7 +3052,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SPY230705C00448000</t>
+          <t>SPY230712C00440000</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3053,31 +3061,31 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="E38" t="n">
-        <v>0.05</v>
+        <v>1.72</v>
       </c>
       <c r="F38" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.120000005</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-70.588234</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>8276</v>
+        <v>35608</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.06250937500000001</v>
+        <v>0.0039162109375</v>
       </c>
       <c r="M38" t="b">
         <v>0</v>
@@ -3093,19 +3101,19 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.024076</v>
+        <v>0.001073</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.027576</v>
+        <v>0.039846</v>
       </c>
       <c r="R38" t="n">
-        <v>0.018602</v>
+        <v>0.000826</v>
       </c>
       <c r="S38" t="n">
-        <v>0.000584</v>
+        <v>1.3e-05</v>
       </c>
       <c r="T38" t="n">
-        <v>-0.030605</v>
+        <v>-0.00023</v>
       </c>
     </row>
     <row r="39">
@@ -3114,7 +3122,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SPY230705C00449000</t>
+          <t>SPY230712C00441000</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3123,31 +3131,31 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E39" t="n">
-        <v>0.02</v>
+        <v>1.26</v>
       </c>
       <c r="F39" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-81.818184</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>3955</v>
+        <v>24812</v>
       </c>
       <c r="K39" t="n">
-        <v>934</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.06739213867187502</v>
+        <v>0.01563484375</v>
       </c>
       <c r="M39" t="b">
         <v>0</v>
@@ -3163,19 +3171,19 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.01132</v>
+        <v>0.000198</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.013411</v>
+        <v>0.002089</v>
       </c>
       <c r="R39" t="n">
-        <v>0.009754000000000001</v>
+        <v>0.000173</v>
       </c>
       <c r="S39" t="n">
-        <v>0.000275</v>
+        <v>2e-06</v>
       </c>
       <c r="T39" t="n">
-        <v>-0.017155</v>
+        <v>-0.000148</v>
       </c>
     </row>
     <row r="40">
@@ -3184,7 +3192,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SPY230705C00450000</t>
+          <t>SPY230712C00442000</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3193,31 +3201,31 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E40" t="n">
-        <v>0.01</v>
+        <v>0.9</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.049999997</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-83.33333</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>7575</v>
+        <v>13883</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.073251455078125</v>
+        <v>0.01563484375</v>
       </c>
       <c r="M40" t="b">
         <v>0</v>
@@ -3233,19 +3241,19 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.006088</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.007158</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.005658</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.000148</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>-0.01075</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41">
@@ -3254,7 +3262,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SPY230705C00451000</t>
+          <t>SPY230712C00443000</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3263,31 +3271,31 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01</v>
+        <v>0.6</v>
       </c>
       <c r="F41" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>659</v>
+        <v>11386</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0.08301698242187502</v>
+        <v>0.0312596875</v>
       </c>
       <c r="M41" t="b">
         <v>0</v>
@@ -3303,19 +3311,19 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.005046</v>
+        <v>3e-06</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.005346</v>
+        <v>1.9e-05</v>
       </c>
       <c r="R41" t="n">
-        <v>0.004789</v>
+        <v>3e-06</v>
       </c>
       <c r="S41" t="n">
-        <v>0.000122</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-0.010262</v>
+        <v>-5e-06</v>
       </c>
     </row>
     <row r="42">
@@ -3324,7 +3332,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SPY230705C00452000</t>
+          <t>SPY230712C00444000</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3333,31 +3341,31 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02</v>
+        <v>0.41</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-33.333336</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>809</v>
+        <v>6260</v>
       </c>
       <c r="K42" t="n">
-        <v>798</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0.09278250976562499</v>
+        <v>0.0312596875</v>
       </c>
       <c r="M42" t="b">
         <v>0</v>
@@ -3373,19 +3381,19 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.00435</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.004189</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.004195</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0.000106</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>-0.010007</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="43">
@@ -3394,7 +3402,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SPY230705C00453000</t>
+          <t>SPY230712C00445000</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3403,31 +3411,31 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01</v>
+        <v>0.26</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>561</v>
+        <v>32206</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0937590625</v>
+        <v>0.0312596875</v>
       </c>
       <c r="M43" t="b">
         <v>0</v>
@@ -3443,19 +3451,19 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.00178</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.001852</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.001874</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>4.3e-05</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>-0.004506</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="44">
@@ -3464,7 +3472,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SPY230705C00454000</t>
+          <t>SPY230712C00446000</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3473,31 +3481,31 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>332</v>
+        <v>7338</v>
       </c>
       <c r="K44" t="n">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0.101571484375</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="M44" t="b">
         <v>0</v>
@@ -3513,19 +3521,19 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.001426</v>
+        <v>7e-06</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.001397</v>
+        <v>2.4e-05</v>
       </c>
       <c r="R44" t="n">
-        <v>0.001531</v>
+        <v>8e-06</v>
       </c>
       <c r="S44" t="n">
-        <v>3.5e-05</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-0.003978</v>
+        <v>-2.5e-05</v>
       </c>
     </row>
     <row r="45">
@@ -3534,7 +3542,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SPY230705C00455000</t>
+          <t>SPY230712C00447000</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3543,31 +3551,31 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="E45" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>995</v>
+        <v>3289</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0.11133701171875</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="M45" t="b">
         <v>0</v>
@@ -3583,19 +3591,19 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.001405</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.001257</v>
+        <v>1e-06</v>
       </c>
       <c r="R45" t="n">
-        <v>0.00151</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>3.4e-05</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>-0.004292</v>
+        <v>-1e-06</v>
       </c>
     </row>
     <row r="46">
@@ -3604,7 +3612,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SPY230705C00456000</t>
+          <t>SPY230712C00448000</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3613,31 +3621,31 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>812</v>
+        <v>1212</v>
       </c>
       <c r="K46" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.1211025390625</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="M46" t="b">
         <v>0</v>
@@ -3653,19 +3661,19 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.00139</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.001144</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.001495</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>3.4e-05</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>-0.004615</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="47">
@@ -3674,7 +3682,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SPY230705C00457000</t>
+          <t>SPY230712C00449000</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3683,16 +3691,16 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3701,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>24</v>
+        <v>908</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0.1289149609375</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="M47" t="b">
         <v>0</v>
@@ -3723,19 +3731,19 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.001187</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.000931</v>
+        <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>0.001295</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>2.9e-05</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>-0.004249</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="48">
@@ -3744,7 +3752,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SPY230705C00458000</t>
+          <t>SPY230712C00450000</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3753,31 +3761,31 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="E48" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>48</v>
+        <v>3115</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0.1367273828125</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="M48" t="b">
         <v>0</v>
@@ -3793,19 +3801,19 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.001033</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.000772</v>
+        <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>0.001139</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>2.5e-05</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>-0.003961</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="49">
@@ -3814,7 +3822,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SPY230705C00459000</t>
+          <t>SPY230712C00451000</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3823,31 +3831,31 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>739</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0.1445398046875</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="M49" t="b">
         <v>0</v>
@@ -3863,19 +3871,19 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0009120000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.000652</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>0.001017</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>2.2e-05</v>
+        <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>-0.003732</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="50">
@@ -3884,7 +3892,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SPY230705C00460000</t>
+          <t>SPY230712C00452000</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3893,16 +3901,16 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3911,13 +3919,13 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0.1523522265625</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="M50" t="b">
         <v>0</v>
@@ -3933,19 +3941,19 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.000817</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.000558</v>
+        <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>0.000918</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>-0.003549</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="51">
@@ -3954,7 +3962,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SPY230705C00461000</t>
+          <t>SPY230712C00453000</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3963,7 +3971,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="E51" t="n">
         <v>0.01</v>
@@ -3972,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3981,13 +3989,13 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0.1601646484375</v>
+        <v>0.12500875</v>
       </c>
       <c r="M51" t="b">
         <v>0</v>
@@ -4003,19 +4011,19 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.000739</v>
+        <v>3e-06</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.000485</v>
+        <v>5e-06</v>
       </c>
       <c r="R51" t="n">
-        <v>0.000838</v>
+        <v>3e-06</v>
       </c>
       <c r="S51" t="n">
-        <v>1.8e-05</v>
+        <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>-0.003402</v>
+        <v>-1.9e-05</v>
       </c>
     </row>
     <row r="52">
@@ -4024,7 +4032,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SPY230705C00462000</t>
+          <t>SPY230712C00454000</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -4033,7 +4041,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E52" t="n">
         <v>0.01</v>
@@ -4042,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4051,13 +4059,13 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>25</v>
+        <v>568</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0.17188328125</v>
+        <v>0.12500875</v>
       </c>
       <c r="M52" t="b">
         <v>0</v>
@@ -4073,19 +4081,19 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.000869</v>
+        <v>1e-06</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.0005240000000000001</v>
+        <v>1e-06</v>
       </c>
       <c r="R52" t="n">
-        <v>0.000972</v>
+        <v>1e-06</v>
       </c>
       <c r="S52" t="n">
-        <v>2.1e-05</v>
+        <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>-0.004234</v>
+        <v>-4e-06</v>
       </c>
     </row>
     <row r="53">
@@ -4094,7 +4102,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SPY230705C00463000</t>
+          <t>SPY230712C00455000</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -4103,7 +4111,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="E53" t="n">
         <v>0.01</v>
@@ -4112,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4121,13 +4129,13 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0.179695703125</v>
+        <v>0.12500875</v>
       </c>
       <c r="M53" t="b">
         <v>0</v>
@@ -4143,19 +4151,19 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.000796</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.000462</v>
+        <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>0.000897</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>1.9e-05</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>-0.004079</v>
+        <v>-1e-06</v>
       </c>
     </row>
     <row r="54">
@@ -4164,7 +4172,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SPY230705C00464000</t>
+          <t>SPY230712C00456000</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -4173,7 +4181,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E54" t="n">
         <v>0.01</v>
@@ -4182,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4191,13 +4199,13 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0.187508125</v>
+        <v>0.12500875</v>
       </c>
       <c r="M54" t="b">
         <v>0</v>
@@ -4213,19 +4221,19 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.000734</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.000412</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>0.000833</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>1.8e-05</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>-0.00395</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="55">
@@ -4234,7 +4242,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SPY230705C00465000</t>
+          <t>SPY230712C00457000</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -4243,7 +4251,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="E55" t="n">
         <v>0.01</v>
@@ -4252,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4261,13 +4269,13 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0.195320546875</v>
+        <v>0.12500875</v>
       </c>
       <c r="M55" t="b">
         <v>0</v>
@@ -4283,19 +4291,19 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.000683</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.000369</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>0.000778</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>1.7e-05</v>
+        <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>-0.003845</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="56">
@@ -4304,7 +4312,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SPY230705C00466000</t>
+          <t>SPY230712C00458000</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -4313,7 +4321,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E56" t="n">
         <v>0.01</v>
@@ -4322,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4331,13 +4339,13 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0.20313296875</v>
+        <v>0.12500875</v>
       </c>
       <c r="M56" t="b">
         <v>0</v>
@@ -4353,19 +4361,19 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.000639</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.000334</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>0.000732</v>
+        <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>1.5e-05</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>-0.003758</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="57">
@@ -4374,7 +4382,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SPY230705C00468000</t>
+          <t>SPY230712C00459000</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -4383,7 +4391,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="E57" t="n">
         <v>0.01</v>
@@ -4392,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4401,13 +4409,13 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0.2187578125</v>
+        <v>0.12500875</v>
       </c>
       <c r="M57" t="b">
         <v>0</v>
@@ -4423,19 +4431,19 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.000568</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.000278</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>0.000657</v>
+        <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>1.4e-05</v>
+        <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>-0.00363</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="58">
@@ -4444,7 +4452,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SPY230705C00470000</t>
+          <t>SPY230712C00460000</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -4453,7 +4461,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="E58" t="n">
         <v>0.01</v>
@@ -4462,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4471,13 +4479,13 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K58" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0.23438265625</v>
+        <v>0.12500875</v>
       </c>
       <c r="M58" t="b">
         <v>0</v>
@@ -4493,19 +4501,19 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.000515</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.000237</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
       <c r="S58" t="n">
-        <v>1.2e-05</v>
+        <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>-0.00355</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="59">
@@ -4514,7 +4522,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SPY230705C00474000</t>
+          <t>SPY230712C00461000</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4523,7 +4531,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="E59" t="n">
         <v>0.01</v>
@@ -4532,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4540,12 +4548,14 @@
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>193</v>
+      </c>
       <c r="K59" t="n">
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0.26563234375</v>
+        <v>0.12500875</v>
       </c>
       <c r="M59" t="b">
         <v>0</v>
@@ -4561,19 +4571,19 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.000442</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.000182</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>0.000521</v>
+        <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>1.1e-05</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>-0.00349</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="60">
@@ -4582,7 +4592,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SPY230705C00478000</t>
+          <t>SPY230712C00462000</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4591,7 +4601,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="E60" t="n">
         <v>0.01</v>
@@ -4600,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4609,13 +4619,13 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0.29688203125</v>
+        <v>0.12500875</v>
       </c>
       <c r="M60" t="b">
         <v>0</v>
@@ -4631,19 +4641,19 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.000397</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.000147</v>
+        <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>0.000471</v>
+        <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>-0.003523</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="61">
@@ -4652,7 +4662,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SPY230705C00480000</t>
+          <t>SPY230712C00463000</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4661,7 +4671,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="E61" t="n">
         <v>0.01</v>
@@ -4670,50 +4680,1020 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.12500875</v>
+      </c>
+      <c r="M61" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>SPY230712C00464000</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>464</v>
+      </c>
+      <c r="E62" t="n">
         <v>0.01</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>20</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0.3086006640625</v>
-      </c>
-      <c r="M61" t="b">
-        <v>0</v>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>REGULAR</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="P61" t="n">
-        <v>0.000325</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>0.000118</v>
-      </c>
-      <c r="R61" t="n">
-        <v>0.000392</v>
-      </c>
-      <c r="S61" t="n">
-        <v>8e-06</v>
-      </c>
-      <c r="T61" t="n">
-        <v>-0.003044</v>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.12500875</v>
+      </c>
+      <c r="M62" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>SPY230712C00466000</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>466</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.12500875</v>
+      </c>
+      <c r="M63" t="b">
+        <v>0</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>SPY230712C00467000</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>467</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.12500875</v>
+      </c>
+      <c r="M64" t="b">
+        <v>0</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>SPY230712C00468000</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>468</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.2500075</v>
+      </c>
+      <c r="M65" t="b">
+        <v>0</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-1.4e-05</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>SPY230712C00469000</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>469</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.2500075</v>
+      </c>
+      <c r="M66" t="b">
+        <v>0</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1e-06</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-6e-06</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>SPY230712C00470000</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>470</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>10</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.2500075</v>
+      </c>
+      <c r="M67" t="b">
+        <v>0</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-3e-06</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>SPY230712C00471000</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>471</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.2500075</v>
+      </c>
+      <c r="M68" t="b">
+        <v>0</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>-1e-06</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>SPY230712C00473000</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>473</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.2500075</v>
+      </c>
+      <c r="M69" t="b">
+        <v>0</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SPY230712C00475000</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>475</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.2500075</v>
+      </c>
+      <c r="M70" t="b">
+        <v>0</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>SPY230712C00477000</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>477</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.2500075</v>
+      </c>
+      <c r="M71" t="b">
+        <v>0</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>SPY230712C00479000</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>479</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.2500075</v>
+      </c>
+      <c r="M72" t="b">
+        <v>0</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>SPY230712C00480000</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>480</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.2500075</v>
+      </c>
+      <c r="M73" t="b">
+        <v>0</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SPY230712C00481000</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>481</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.2500075</v>
+      </c>
+      <c r="M74" t="b">
+        <v>0</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>SPY230712C00483000</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>483</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.2500075</v>
+      </c>
+      <c r="M75" t="b">
+        <v>0</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>REGULAR</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
